--- a/database/industries/ghaza/ghekurosh/product/monthly.xlsx
+++ b/database/industries/ghaza/ghekurosh/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghekurosh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8D46DF-1B77-48AF-A314-462C1EC0C72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA4CC-5399-4039-8CD0-BC822E26DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>صادرات</t>
@@ -1543,20 +1543,20 @@
       <c r="AR11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
       </c>
       <c r="AV11" s="11">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AW11" s="11">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="AX11" s="11">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="11">
-        <v>12430</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
@@ -1636,8 +1636,8 @@
       <c r="V12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>57</v>
+      <c r="W12" s="13">
+        <v>0</v>
       </c>
       <c r="X12" s="13">
         <v>0</v>
@@ -1831,8 +1831,8 @@
       <c r="AH13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>57</v>
+      <c r="AI13" s="11">
+        <v>0</v>
       </c>
       <c r="AJ13" s="11">
         <v>0</v>
@@ -1954,101 +1954,101 @@
       <c r="V14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>57</v>
+      <c r="W14" s="13">
+        <v>17382</v>
       </c>
       <c r="X14" s="13">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="Y14" s="13">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Z14" s="13">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="AA14" s="13">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AB14" s="13">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AC14" s="13">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AD14" s="13">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AE14" s="13">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AF14" s="13">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AG14" s="13">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AH14" s="13">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AI14" s="13">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AJ14" s="13">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AK14" s="13">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AL14" s="13">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AM14" s="13">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AN14" s="13">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AO14" s="13">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AP14" s="13">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AQ14" s="13">
-        <v>25616</v>
+        <v>25461</v>
       </c>
       <c r="AR14" s="13">
-        <v>25461</v>
+        <v>11085</v>
       </c>
       <c r="AS14" s="13">
-        <v>11085</v>
+        <v>18055</v>
       </c>
       <c r="AT14" s="13">
-        <v>19739</v>
+        <v>33826</v>
       </c>
       <c r="AU14" s="13">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AV14" s="13">
-        <v>12712</v>
+        <v>19580</v>
       </c>
       <c r="AW14" s="13">
-        <v>19580</v>
+        <v>30927</v>
       </c>
       <c r="AX14" s="13">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AY14" s="13">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AZ14" s="13">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="BA14" s="13">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BB14" s="13">
-        <v>15195</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2149,8 +2149,8 @@
       <c r="AH15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI15" s="11" t="s">
-        <v>57</v>
+      <c r="AI15" s="11">
+        <v>0</v>
       </c>
       <c r="AJ15" s="11">
         <v>0</v>
@@ -2308,8 +2308,8 @@
       <c r="AH16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI16" s="13" t="s">
-        <v>57</v>
+      <c r="AI16" s="13">
+        <v>0</v>
       </c>
       <c r="AJ16" s="13">
         <v>0</v>
@@ -2437,8 +2437,8 @@
       <c r="X17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>57</v>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2467,8 +2467,8 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>57</v>
@@ -2626,8 +2626,8 @@
       <c r="AH18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="13" t="s">
-        <v>57</v>
+      <c r="AI18" s="13">
+        <v>0</v>
       </c>
       <c r="AJ18" s="13">
         <v>0</v>
@@ -2785,8 +2785,8 @@
       <c r="AH19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI19" s="11" t="s">
-        <v>57</v>
+      <c r="AI19" s="11">
+        <v>0</v>
       </c>
       <c r="AJ19" s="11">
         <v>0</v>
@@ -2968,26 +2968,26 @@
       <c r="AP20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>57</v>
+      <c r="AQ20" s="13">
+        <v>3007</v>
       </c>
       <c r="AR20" s="13">
-        <v>3007</v>
+        <v>399</v>
       </c>
       <c r="AS20" s="13">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="13">
         <v>0</v>
       </c>
       <c r="AV20" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW20" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="13">
         <v>0</v>
@@ -3122,8 +3122,8 @@
       <c r="V22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="17" t="s">
-        <v>57</v>
+      <c r="W22" s="17">
+        <v>0</v>
       </c>
       <c r="X22" s="17">
         <v>0</v>
@@ -3280,100 +3280,100 @@
         <v>0</v>
       </c>
       <c r="W23" s="19">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="X23" s="19">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="Y23" s="19">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Z23" s="19">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="AA23" s="19">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AB23" s="19">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AC23" s="19">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AD23" s="19">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AE23" s="19">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AF23" s="19">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AG23" s="19">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AH23" s="19">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AI23" s="19">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AJ23" s="19">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AK23" s="19">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AL23" s="19">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AM23" s="19">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AN23" s="19">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AO23" s="19">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AP23" s="19">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AQ23" s="19">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AR23" s="19">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AS23" s="19">
-        <v>11484</v>
+        <v>18056</v>
       </c>
       <c r="AT23" s="19">
-        <v>19740</v>
+        <v>33826</v>
       </c>
       <c r="AU23" s="19">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AV23" s="19">
-        <v>12712</v>
+        <v>19784</v>
       </c>
       <c r="AW23" s="19">
-        <v>19586</v>
+        <v>30729</v>
       </c>
       <c r="AX23" s="19">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AY23" s="19">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AZ23" s="19">
-        <v>24860</v>
+        <v>21707</v>
       </c>
       <c r="BA23" s="19">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BB23" s="19">
-        <v>15195</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3938,11 +3938,11 @@
       <c r="AR30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS30" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT30" s="11" t="s">
-        <v>57</v>
+      <c r="AS30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="11">
+        <v>0</v>
       </c>
       <c r="AU30" s="11">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="AW30" s="11">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="AX30" s="11">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="AY30" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BA30" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="11">
         <v>0</v>
@@ -4031,101 +4031,101 @@
       <c r="V31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W31" s="13" t="s">
-        <v>57</v>
+      <c r="W31" s="13">
+        <v>1570</v>
       </c>
       <c r="X31" s="13">
-        <v>1570</v>
+        <v>7282</v>
       </c>
       <c r="Y31" s="13">
-        <v>7282</v>
+        <v>8156</v>
       </c>
       <c r="Z31" s="13">
-        <v>8156</v>
+        <v>33190</v>
       </c>
       <c r="AA31" s="13">
-        <v>33190</v>
+        <v>12978</v>
       </c>
       <c r="AB31" s="13">
-        <v>12978</v>
+        <v>16953</v>
       </c>
       <c r="AC31" s="13">
-        <v>16953</v>
+        <v>21970</v>
       </c>
       <c r="AD31" s="13">
-        <v>21970</v>
+        <v>58484</v>
       </c>
       <c r="AE31" s="13">
-        <v>58484</v>
+        <v>49364</v>
       </c>
       <c r="AF31" s="13">
-        <v>49364</v>
+        <v>19574</v>
       </c>
       <c r="AG31" s="13">
-        <v>19574</v>
+        <v>78855</v>
       </c>
       <c r="AH31" s="13">
-        <v>78855</v>
+        <v>61446</v>
       </c>
       <c r="AI31" s="13">
-        <v>61446</v>
+        <v>3995</v>
       </c>
       <c r="AJ31" s="13">
-        <v>3995</v>
+        <v>11505</v>
       </c>
       <c r="AK31" s="13">
-        <v>11505</v>
+        <v>9410</v>
       </c>
       <c r="AL31" s="13">
-        <v>9410</v>
+        <v>3118</v>
       </c>
       <c r="AM31" s="13">
-        <v>3118</v>
+        <v>5802</v>
       </c>
       <c r="AN31" s="13">
-        <v>5802</v>
+        <v>67448</v>
       </c>
       <c r="AO31" s="13">
-        <v>67448</v>
+        <v>27584</v>
       </c>
       <c r="AP31" s="13">
-        <v>27584</v>
+        <v>16784</v>
       </c>
       <c r="AQ31" s="13">
-        <v>16784</v>
+        <v>5582</v>
       </c>
       <c r="AR31" s="13">
-        <v>5582</v>
+        <v>7237</v>
       </c>
       <c r="AS31" s="13">
-        <v>7237</v>
+        <v>341</v>
       </c>
       <c r="AT31" s="13">
-        <v>2338</v>
+        <v>4708</v>
       </c>
       <c r="AU31" s="13">
-        <v>4708</v>
+        <v>1825</v>
       </c>
       <c r="AV31" s="13">
-        <v>1825</v>
+        <v>6478</v>
       </c>
       <c r="AW31" s="13">
-        <v>6478</v>
+        <v>2416</v>
       </c>
       <c r="AX31" s="13">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="AY31" s="13">
-        <v>2387</v>
+        <v>4538</v>
       </c>
       <c r="AZ31" s="13">
-        <v>4538</v>
+        <v>1473</v>
       </c>
       <c r="BA31" s="13">
-        <v>1473</v>
+        <v>345</v>
       </c>
       <c r="BB31" s="13">
-        <v>345</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4226,38 +4226,38 @@
       <c r="AH32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI32" s="11" t="s">
-        <v>57</v>
+      <c r="AI32" s="11">
+        <v>6970</v>
       </c>
       <c r="AJ32" s="11">
-        <v>6970</v>
+        <v>4274</v>
       </c>
       <c r="AK32" s="11">
-        <v>4274</v>
+        <v>1350</v>
       </c>
       <c r="AL32" s="11">
-        <v>1350</v>
+        <v>23738</v>
       </c>
       <c r="AM32" s="11">
-        <v>23738</v>
+        <v>1951</v>
       </c>
       <c r="AN32" s="11">
-        <v>1951</v>
+        <v>2589</v>
       </c>
       <c r="AO32" s="11">
-        <v>2589</v>
+        <v>543</v>
       </c>
       <c r="AP32" s="11">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="11">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AR32" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="11">
-        <v>0</v>
+        <v>-2024</v>
       </c>
       <c r="AT32" s="11">
         <v>0</v>
@@ -4349,101 +4349,101 @@
       <c r="V33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>57</v>
+      <c r="W33" s="13">
+        <v>18574</v>
       </c>
       <c r="X33" s="13">
-        <v>18574</v>
+        <v>21550</v>
       </c>
       <c r="Y33" s="13">
-        <v>21550</v>
+        <v>19001</v>
       </c>
       <c r="Z33" s="13">
-        <v>19001</v>
+        <v>26133</v>
       </c>
       <c r="AA33" s="13">
-        <v>26133</v>
+        <v>26600</v>
       </c>
       <c r="AB33" s="13">
-        <v>26600</v>
+        <v>20831</v>
       </c>
       <c r="AC33" s="13">
-        <v>20831</v>
+        <v>23243</v>
       </c>
       <c r="AD33" s="13">
-        <v>23243</v>
+        <v>22308</v>
       </c>
       <c r="AE33" s="13">
-        <v>22308</v>
+        <v>26124</v>
       </c>
       <c r="AF33" s="13">
-        <v>26124</v>
+        <v>25599</v>
       </c>
       <c r="AG33" s="13">
-        <v>25599</v>
+        <v>29845</v>
       </c>
       <c r="AH33" s="13">
-        <v>29845</v>
+        <v>28703</v>
       </c>
       <c r="AI33" s="13">
-        <v>28703</v>
+        <v>23664</v>
       </c>
       <c r="AJ33" s="13">
-        <v>23664</v>
+        <v>30075</v>
       </c>
       <c r="AK33" s="13">
-        <v>30075</v>
+        <v>31006</v>
       </c>
       <c r="AL33" s="13">
-        <v>31006</v>
+        <v>29302</v>
       </c>
       <c r="AM33" s="13">
-        <v>29302</v>
+        <v>19214</v>
       </c>
       <c r="AN33" s="13">
-        <v>19214</v>
+        <v>21641</v>
       </c>
       <c r="AO33" s="13">
-        <v>21641</v>
+        <v>21178</v>
       </c>
       <c r="AP33" s="13">
-        <v>21178</v>
+        <v>23981</v>
       </c>
       <c r="AQ33" s="13">
-        <v>23981</v>
+        <v>24784</v>
       </c>
       <c r="AR33" s="13">
-        <v>24784</v>
+        <v>12038</v>
       </c>
       <c r="AS33" s="13">
-        <v>12038</v>
+        <v>17800</v>
       </c>
       <c r="AT33" s="13">
-        <v>18373</v>
+        <v>32070</v>
       </c>
       <c r="AU33" s="13">
-        <v>32070</v>
+        <v>11613</v>
       </c>
       <c r="AV33" s="13">
-        <v>11613</v>
+        <v>19106</v>
       </c>
       <c r="AW33" s="13">
-        <v>19106</v>
+        <v>30053</v>
       </c>
       <c r="AX33" s="13">
-        <v>30053</v>
+        <v>30071</v>
       </c>
       <c r="AY33" s="13">
-        <v>30071</v>
+        <v>11463</v>
       </c>
       <c r="AZ33" s="13">
-        <v>11463</v>
+        <v>19984</v>
       </c>
       <c r="BA33" s="13">
-        <v>19984</v>
+        <v>14224</v>
       </c>
       <c r="BB33" s="13">
-        <v>14224</v>
+        <v>21350</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4544,38 +4544,38 @@
       <c r="AH34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI34" s="11" t="s">
-        <v>57</v>
+      <c r="AI34" s="11">
+        <v>38539</v>
       </c>
       <c r="AJ34" s="11">
-        <v>38539</v>
+        <v>1520</v>
       </c>
       <c r="AK34" s="11">
-        <v>1520</v>
+        <v>53</v>
       </c>
       <c r="AL34" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="11">
-        <v>0</v>
+        <v>50209</v>
       </c>
       <c r="AN34" s="11">
-        <v>50209</v>
+        <v>78984</v>
       </c>
       <c r="AO34" s="11">
-        <v>78984</v>
+        <v>20651</v>
       </c>
       <c r="AP34" s="11">
-        <v>20651</v>
+        <v>4540</v>
       </c>
       <c r="AQ34" s="11">
-        <v>4540</v>
+        <v>444</v>
       </c>
       <c r="AR34" s="11">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="AS34" s="11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="11">
         <v>0</v>
@@ -4703,65 +4703,65 @@
       <c r="AH35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI35" s="13" t="s">
-        <v>57</v>
+      <c r="AI35" s="13">
+        <v>361</v>
       </c>
       <c r="AJ35" s="13">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="AK35" s="13">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="AL35" s="13">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="AM35" s="13">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AN35" s="13">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="AO35" s="13">
-        <v>901</v>
+        <v>613</v>
       </c>
       <c r="AP35" s="13">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="AQ35" s="13">
-        <v>707</v>
+        <v>249</v>
       </c>
       <c r="AR35" s="13">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AS35" s="13">
-        <v>231</v>
+        <v>-1270</v>
       </c>
       <c r="AT35" s="13">
-        <v>927</v>
+        <v>543</v>
       </c>
       <c r="AU35" s="13">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="AV35" s="13">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="AW35" s="13">
-        <v>711</v>
+        <v>194</v>
       </c>
       <c r="AX35" s="13">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="AY35" s="13">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="AZ35" s="13">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="BA35" s="13">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="BB35" s="13">
-        <v>800</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4832,38 +4832,38 @@
       <c r="X36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="11" t="s">
-        <v>57</v>
+      <c r="Y36" s="11">
+        <v>23788</v>
       </c>
       <c r="Z36" s="11">
-        <v>23788</v>
+        <v>64731</v>
       </c>
       <c r="AA36" s="11">
-        <v>64731</v>
+        <v>24974</v>
       </c>
       <c r="AB36" s="11">
-        <v>24974</v>
+        <v>54120</v>
       </c>
       <c r="AC36" s="11">
-        <v>54120</v>
+        <v>49967</v>
       </c>
       <c r="AD36" s="11">
-        <v>49967</v>
+        <v>84145</v>
       </c>
       <c r="AE36" s="11">
-        <v>84145</v>
+        <v>32655</v>
       </c>
       <c r="AF36" s="11">
-        <v>32655</v>
+        <v>57220</v>
       </c>
       <c r="AG36" s="11">
-        <v>57220</v>
+        <v>37181</v>
       </c>
       <c r="AH36" s="11">
-        <v>37181</v>
-      </c>
-      <c r="AI36" s="11">
         <v>101160</v>
+      </c>
+      <c r="AI36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ36" s="11" t="s">
         <v>57</v>
@@ -5021,23 +5021,23 @@
       <c r="AH37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI37" s="13" t="s">
-        <v>57</v>
+      <c r="AI37" s="13">
+        <v>0</v>
       </c>
       <c r="AJ37" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK37" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AL37" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AM37" s="13">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="AN37" s="13">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="13">
         <v>0</v>
@@ -5055,31 +5055,31 @@
         <v>0</v>
       </c>
       <c r="AT37" s="13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="13">
         <v>0</v>
       </c>
       <c r="AV37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="13">
         <v>1</v>
       </c>
       <c r="AX37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="13">
+        <v>706</v>
+      </c>
+      <c r="BA37" s="13">
         <v>1</v>
       </c>
-      <c r="AY37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA37" s="13">
-        <v>706</v>
-      </c>
       <c r="BB37" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5180,65 +5180,65 @@
       <c r="AH38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI38" s="11" t="s">
-        <v>57</v>
+      <c r="AI38" s="11">
+        <v>1853</v>
       </c>
       <c r="AJ38" s="11">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="AK38" s="11">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="AL38" s="11">
-        <v>1786</v>
+        <v>604</v>
       </c>
       <c r="AM38" s="11">
-        <v>604</v>
+        <v>1577</v>
       </c>
       <c r="AN38" s="11">
-        <v>1577</v>
+        <v>4075</v>
       </c>
       <c r="AO38" s="11">
-        <v>4075</v>
+        <v>656</v>
       </c>
       <c r="AP38" s="11">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="AQ38" s="11">
-        <v>693</v>
+        <v>1701</v>
       </c>
       <c r="AR38" s="11">
-        <v>1701</v>
+        <v>10</v>
       </c>
       <c r="AS38" s="11">
-        <v>10</v>
+        <v>765</v>
       </c>
       <c r="AT38" s="11">
-        <v>756</v>
+        <v>2332</v>
       </c>
       <c r="AU38" s="11">
-        <v>2332</v>
+        <v>513</v>
       </c>
       <c r="AV38" s="11">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AW38" s="11">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AX38" s="11">
-        <v>155</v>
+        <v>1114</v>
       </c>
       <c r="AY38" s="11">
-        <v>1114</v>
+        <v>3211</v>
       </c>
       <c r="AZ38" s="11">
-        <v>3211</v>
+        <v>1338</v>
       </c>
       <c r="BA38" s="11">
-        <v>1338</v>
+        <v>3623</v>
       </c>
       <c r="BB38" s="11">
-        <v>3623</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5363,14 +5363,14 @@
       <c r="AP39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ39" s="13" t="s">
-        <v>57</v>
+      <c r="AQ39" s="13">
+        <v>2974</v>
       </c>
       <c r="AR39" s="13">
-        <v>2974</v>
+        <v>465</v>
       </c>
       <c r="AS39" s="13">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="13">
         <v>0</v>
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="AV39" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW39" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX39" s="13">
         <v>0</v>
@@ -5517,8 +5517,8 @@
       <c r="V41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="17" t="s">
-        <v>57</v>
+      <c r="W41" s="17">
+        <v>0</v>
       </c>
       <c r="X41" s="17">
         <v>0</v>
@@ -5808,26 +5808,26 @@
       <c r="AU43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY43" s="11" t="s">
-        <v>57</v>
+      <c r="AV43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="11">
+        <v>-90</v>
       </c>
       <c r="AZ43" s="11">
-        <v>-90</v>
-      </c>
-      <c r="BA43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB43" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="11">
         <v>-9</v>
+      </c>
+      <c r="BB43" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5964,29 +5964,29 @@
       <c r="AT44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU44" s="13" t="s">
-        <v>57</v>
+      <c r="AU44" s="13">
+        <v>31</v>
       </c>
       <c r="AV44" s="13">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AW44" s="13">
-        <v>10</v>
-      </c>
-      <c r="AX44" s="13" t="s">
-        <v>57</v>
+        <v>-103</v>
+      </c>
+      <c r="AX44" s="13">
+        <v>-861</v>
       </c>
       <c r="AY44" s="13">
-        <v>-861</v>
+        <v>-133</v>
       </c>
       <c r="AZ44" s="13">
-        <v>-133</v>
+        <v>-213</v>
       </c>
       <c r="BA44" s="13">
-        <v>-213</v>
-      </c>
-      <c r="BB44" s="13">
         <v>-2400</v>
+      </c>
+      <c r="BB44" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6126,17 +6126,17 @@
       <c r="AU45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX45" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY45" s="11" t="s">
-        <v>57</v>
+      <c r="AV45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="11">
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
         <v>0</v>
@@ -6291,20 +6291,20 @@
       <c r="AW46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY46" s="13" t="s">
-        <v>57</v>
+      <c r="AX46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="13">
+        <v>-18</v>
       </c>
       <c r="AZ46" s="13">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BB46" s="13" t="s">
-        <v>57</v>
+      <c r="BB46" s="13">
+        <v>-98</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6367,8 +6367,8 @@
       <c r="V47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="17" t="s">
-        <v>57</v>
+      <c r="W47" s="17">
+        <v>0</v>
       </c>
       <c r="X47" s="17">
         <v>0</v>
@@ -6440,28 +6440,28 @@
         <v>0</v>
       </c>
       <c r="AU47" s="17">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV47" s="17">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AW47" s="17">
-        <v>10</v>
+        <v>-103</v>
       </c>
       <c r="AX47" s="17">
-        <v>0</v>
+        <v>-861</v>
       </c>
       <c r="AY47" s="17">
-        <v>-861</v>
+        <v>-241</v>
       </c>
       <c r="AZ47" s="17">
-        <v>-241</v>
+        <v>-213</v>
       </c>
       <c r="BA47" s="17">
-        <v>-213</v>
+        <v>-2409</v>
       </c>
       <c r="BB47" s="17">
-        <v>-2409</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6525,100 +6525,100 @@
         <v>0</v>
       </c>
       <c r="W48" s="19">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="X48" s="19">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="Y48" s="19">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="Z48" s="19">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="AA48" s="19">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="AB48" s="19">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="AC48" s="19">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="AD48" s="19">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="AE48" s="19">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="AF48" s="19">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AG48" s="19">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AH48" s="19">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AI48" s="19">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AJ48" s="19">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AK48" s="19">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AL48" s="19">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AM48" s="19">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AN48" s="19">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AO48" s="19">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AP48" s="19">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AQ48" s="19">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AR48" s="19">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AS48" s="19">
-        <v>20066</v>
+        <v>15612</v>
       </c>
       <c r="AT48" s="19">
-        <v>22459</v>
+        <v>39653</v>
       </c>
       <c r="AU48" s="19">
-        <v>39653</v>
+        <v>14071</v>
       </c>
       <c r="AV48" s="19">
-        <v>14071</v>
+        <v>26167</v>
       </c>
       <c r="AW48" s="19">
-        <v>26383</v>
+        <v>33425</v>
       </c>
       <c r="AX48" s="19">
-        <v>33330</v>
+        <v>33464</v>
       </c>
       <c r="AY48" s="19">
-        <v>33464</v>
+        <v>19611</v>
       </c>
       <c r="AZ48" s="19">
-        <v>19611</v>
+        <v>23986</v>
       </c>
       <c r="BA48" s="19">
-        <v>23986</v>
+        <v>16584</v>
       </c>
       <c r="BB48" s="19">
-        <v>16584</v>
+        <v>25384</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -7183,32 +7183,32 @@
       <c r="AR55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT55" s="11" t="s">
-        <v>57</v>
+      <c r="AS55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="11">
+        <v>0</v>
       </c>
       <c r="AU55" s="11">
         <v>0</v>
       </c>
       <c r="AV55" s="11">
-        <v>0</v>
+        <v>41933</v>
       </c>
       <c r="AW55" s="11">
-        <v>0</v>
+        <v>128110</v>
       </c>
       <c r="AX55" s="11">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AY55" s="11">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="11">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="BA55" s="11">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="11">
         <v>0</v>
@@ -7276,101 +7276,101 @@
       <c r="V56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>57</v>
+      <c r="W56" s="13">
+        <v>38045</v>
       </c>
       <c r="X56" s="13">
-        <v>38045</v>
+        <v>216653</v>
       </c>
       <c r="Y56" s="13">
-        <v>216653</v>
+        <v>291100</v>
       </c>
       <c r="Z56" s="13">
-        <v>291100</v>
+        <v>1051185</v>
       </c>
       <c r="AA56" s="13">
-        <v>1051185</v>
+        <v>419637</v>
       </c>
       <c r="AB56" s="13">
-        <v>419637</v>
+        <v>875262</v>
       </c>
       <c r="AC56" s="13">
-        <v>875262</v>
+        <v>592811</v>
       </c>
       <c r="AD56" s="13">
-        <v>592811</v>
+        <v>897670</v>
       </c>
       <c r="AE56" s="13">
-        <v>897670</v>
+        <v>1545260</v>
       </c>
       <c r="AF56" s="13">
-        <v>1545260</v>
+        <v>568119</v>
       </c>
       <c r="AG56" s="13">
-        <v>568119</v>
+        <v>2531823</v>
       </c>
       <c r="AH56" s="13">
-        <v>2531823</v>
+        <v>1961109</v>
       </c>
       <c r="AI56" s="13">
-        <v>1961109</v>
+        <v>126271</v>
       </c>
       <c r="AJ56" s="13">
-        <v>126271</v>
+        <v>331178</v>
       </c>
       <c r="AK56" s="13">
-        <v>331178</v>
+        <v>382498</v>
       </c>
       <c r="AL56" s="13">
-        <v>382498</v>
+        <v>116072</v>
       </c>
       <c r="AM56" s="13">
-        <v>116072</v>
+        <v>218558</v>
       </c>
       <c r="AN56" s="13">
-        <v>218558</v>
+        <v>2348725</v>
       </c>
       <c r="AO56" s="13">
-        <v>2348725</v>
+        <v>972218</v>
       </c>
       <c r="AP56" s="13">
-        <v>972218</v>
+        <v>595595</v>
       </c>
       <c r="AQ56" s="13">
-        <v>595595</v>
+        <v>210638</v>
       </c>
       <c r="AR56" s="13">
-        <v>210638</v>
+        <v>283712</v>
       </c>
       <c r="AS56" s="13">
-        <v>283712</v>
+        <v>93439</v>
       </c>
       <c r="AT56" s="13">
-        <v>93640</v>
+        <v>190499</v>
       </c>
       <c r="AU56" s="13">
-        <v>190499</v>
+        <v>73711</v>
       </c>
       <c r="AV56" s="13">
-        <v>73711</v>
+        <v>268523</v>
       </c>
       <c r="AW56" s="13">
-        <v>268523</v>
+        <v>366123</v>
       </c>
       <c r="AX56" s="13">
-        <v>366123</v>
+        <v>399129</v>
       </c>
       <c r="AY56" s="13">
-        <v>399129</v>
+        <v>691858</v>
       </c>
       <c r="AZ56" s="13">
-        <v>691858</v>
+        <v>185779</v>
       </c>
       <c r="BA56" s="13">
-        <v>185779</v>
+        <v>46403</v>
       </c>
       <c r="BB56" s="13">
-        <v>46403</v>
+        <v>34407</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7471,38 +7471,38 @@
       <c r="AH57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI57" s="11" t="s">
-        <v>57</v>
+      <c r="AI57" s="11">
+        <v>118181</v>
       </c>
       <c r="AJ57" s="11">
-        <v>118181</v>
+        <v>42668</v>
       </c>
       <c r="AK57" s="11">
-        <v>42668</v>
+        <v>23041</v>
       </c>
       <c r="AL57" s="11">
-        <v>23041</v>
+        <v>448855</v>
       </c>
       <c r="AM57" s="11">
-        <v>448855</v>
+        <v>36965</v>
       </c>
       <c r="AN57" s="11">
-        <v>36965</v>
+        <v>48770</v>
       </c>
       <c r="AO57" s="11">
-        <v>48770</v>
+        <v>11254</v>
       </c>
       <c r="AP57" s="11">
-        <v>11254</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="11">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AR57" s="11">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="11">
-        <v>0</v>
+        <v>-3547</v>
       </c>
       <c r="AT57" s="11">
         <v>0</v>
@@ -7594,101 +7594,101 @@
       <c r="V58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>57</v>
+      <c r="W58" s="13">
+        <v>1604030</v>
       </c>
       <c r="X58" s="13">
-        <v>1604030</v>
+        <v>1859855</v>
       </c>
       <c r="Y58" s="13">
-        <v>1859855</v>
+        <v>1639213</v>
       </c>
       <c r="Z58" s="13">
-        <v>1639213</v>
+        <v>2367900</v>
       </c>
       <c r="AA58" s="13">
-        <v>2367900</v>
+        <v>2414588</v>
       </c>
       <c r="AB58" s="13">
-        <v>2414588</v>
+        <v>1964271</v>
       </c>
       <c r="AC58" s="13">
-        <v>1964271</v>
+        <v>2346330</v>
       </c>
       <c r="AD58" s="13">
-        <v>2346330</v>
+        <v>2309549</v>
       </c>
       <c r="AE58" s="13">
-        <v>2309549</v>
+        <v>3011404</v>
       </c>
       <c r="AF58" s="13">
-        <v>3011404</v>
+        <v>3018621</v>
       </c>
       <c r="AG58" s="13">
-        <v>3018621</v>
+        <v>3416509</v>
       </c>
       <c r="AH58" s="13">
-        <v>3416509</v>
+        <v>3526008</v>
       </c>
       <c r="AI58" s="13">
-        <v>3526008</v>
+        <v>2844311</v>
       </c>
       <c r="AJ58" s="13">
-        <v>2844311</v>
+        <v>3966805</v>
       </c>
       <c r="AK58" s="13">
-        <v>3966805</v>
+        <v>4967577</v>
       </c>
       <c r="AL58" s="13">
-        <v>4967577</v>
+        <v>4636177</v>
       </c>
       <c r="AM58" s="13">
-        <v>4636177</v>
+        <v>3076244</v>
       </c>
       <c r="AN58" s="13">
-        <v>3076244</v>
+        <v>3288197</v>
       </c>
       <c r="AO58" s="13">
-        <v>3288197</v>
+        <v>3305843</v>
       </c>
       <c r="AP58" s="13">
-        <v>3305843</v>
+        <v>3500787</v>
       </c>
       <c r="AQ58" s="13">
-        <v>3500787</v>
+        <v>3881656</v>
       </c>
       <c r="AR58" s="13">
-        <v>3881656</v>
+        <v>1973279</v>
       </c>
       <c r="AS58" s="13">
-        <v>1973279</v>
+        <v>2798259</v>
       </c>
       <c r="AT58" s="13">
-        <v>2895003</v>
+        <v>5049052</v>
       </c>
       <c r="AU58" s="13">
-        <v>5049052</v>
+        <v>1892469</v>
       </c>
       <c r="AV58" s="13">
-        <v>1892469</v>
+        <v>8619443</v>
       </c>
       <c r="AW58" s="13">
-        <v>8619443</v>
+        <v>23303206</v>
       </c>
       <c r="AX58" s="13">
-        <v>23303206</v>
+        <v>23151597</v>
       </c>
       <c r="AY58" s="13">
-        <v>23151597</v>
+        <v>8014607</v>
       </c>
       <c r="AZ58" s="13">
-        <v>8014607</v>
+        <v>13890751</v>
       </c>
       <c r="BA58" s="13">
-        <v>13890751</v>
+        <v>9752148</v>
       </c>
       <c r="BB58" s="13">
-        <v>9752148</v>
+        <v>14600735</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7789,38 +7789,38 @@
       <c r="AH59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI59" s="11" t="s">
-        <v>57</v>
+      <c r="AI59" s="11">
+        <v>1194711</v>
       </c>
       <c r="AJ59" s="11">
-        <v>1194711</v>
+        <v>47133</v>
       </c>
       <c r="AK59" s="11">
-        <v>47133</v>
+        <v>1649</v>
       </c>
       <c r="AL59" s="11">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="11">
-        <v>0</v>
+        <v>1757316</v>
       </c>
       <c r="AN59" s="11">
-        <v>1757316</v>
+        <v>2764442</v>
       </c>
       <c r="AO59" s="11">
-        <v>2764442</v>
+        <v>722794</v>
       </c>
       <c r="AP59" s="11">
-        <v>722794</v>
+        <v>158911</v>
       </c>
       <c r="AQ59" s="11">
-        <v>158911</v>
+        <v>15530</v>
       </c>
       <c r="AR59" s="11">
-        <v>15530</v>
+        <v>3597</v>
       </c>
       <c r="AS59" s="11">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="11">
         <v>0</v>
@@ -7948,65 +7948,65 @@
       <c r="AH60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI60" s="13" t="s">
-        <v>57</v>
+      <c r="AI60" s="13">
+        <v>27235</v>
       </c>
       <c r="AJ60" s="13">
-        <v>27235</v>
+        <v>31845</v>
       </c>
       <c r="AK60" s="13">
-        <v>31845</v>
+        <v>57821</v>
       </c>
       <c r="AL60" s="13">
-        <v>57821</v>
+        <v>46933</v>
       </c>
       <c r="AM60" s="13">
-        <v>46933</v>
+        <v>3450</v>
       </c>
       <c r="AN60" s="13">
-        <v>3450</v>
+        <v>90229</v>
       </c>
       <c r="AO60" s="13">
-        <v>90229</v>
+        <v>56728</v>
       </c>
       <c r="AP60" s="13">
-        <v>56728</v>
+        <v>71326</v>
       </c>
       <c r="AQ60" s="13">
-        <v>71326</v>
+        <v>28617</v>
       </c>
       <c r="AR60" s="13">
-        <v>28617</v>
+        <v>15805</v>
       </c>
       <c r="AS60" s="13">
-        <v>15805</v>
+        <v>-166965</v>
       </c>
       <c r="AT60" s="13">
-        <v>123348</v>
+        <v>54353</v>
       </c>
       <c r="AU60" s="13">
-        <v>54353</v>
+        <v>6876</v>
       </c>
       <c r="AV60" s="13">
-        <v>6876</v>
+        <v>86041</v>
       </c>
       <c r="AW60" s="13">
-        <v>130850</v>
+        <v>16600</v>
       </c>
       <c r="AX60" s="13">
-        <v>16600</v>
+        <v>134209</v>
       </c>
       <c r="AY60" s="13">
-        <v>134209</v>
+        <v>99892</v>
       </c>
       <c r="AZ60" s="13">
-        <v>99892</v>
+        <v>100746</v>
       </c>
       <c r="BA60" s="13">
-        <v>100746</v>
+        <v>128100</v>
       </c>
       <c r="BB60" s="13">
-        <v>128100</v>
+        <v>52407</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8077,38 +8077,38 @@
       <c r="X61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>57</v>
+      <c r="Y61" s="11">
+        <v>356822</v>
       </c>
       <c r="Z61" s="11">
-        <v>356822</v>
+        <v>970965</v>
       </c>
       <c r="AA61" s="11">
-        <v>970965</v>
+        <v>374611</v>
       </c>
       <c r="AB61" s="11">
-        <v>374611</v>
+        <v>808490</v>
       </c>
       <c r="AC61" s="11">
-        <v>808490</v>
+        <v>745793</v>
       </c>
       <c r="AD61" s="11">
-        <v>745793</v>
+        <v>2263405</v>
       </c>
       <c r="AE61" s="11">
-        <v>2263405</v>
+        <v>666499</v>
       </c>
       <c r="AF61" s="11">
-        <v>666499</v>
+        <v>1652444</v>
       </c>
       <c r="AG61" s="11">
-        <v>1652444</v>
+        <v>851671</v>
       </c>
       <c r="AH61" s="11">
-        <v>851671</v>
-      </c>
-      <c r="AI61" s="11">
         <v>1940596</v>
+      </c>
+      <c r="AI61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ61" s="11" t="s">
         <v>57</v>
@@ -8266,65 +8266,65 @@
       <c r="AH62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI62" s="13" t="s">
-        <v>57</v>
+      <c r="AI62" s="13">
+        <v>4496</v>
       </c>
       <c r="AJ62" s="13">
-        <v>4496</v>
+        <v>28013</v>
       </c>
       <c r="AK62" s="13">
-        <v>28013</v>
+        <v>20412</v>
       </c>
       <c r="AL62" s="13">
-        <v>20412</v>
+        <v>21039</v>
       </c>
       <c r="AM62" s="13">
-        <v>21039</v>
+        <v>28100</v>
       </c>
       <c r="AN62" s="13">
-        <v>28100</v>
+        <v>7411</v>
       </c>
       <c r="AO62" s="13">
-        <v>7411</v>
+        <v>10064</v>
       </c>
       <c r="AP62" s="13">
-        <v>10064</v>
+        <v>37620</v>
       </c>
       <c r="AQ62" s="13">
-        <v>37620</v>
+        <v>41440</v>
       </c>
       <c r="AR62" s="13">
-        <v>41440</v>
+        <v>32862</v>
       </c>
       <c r="AS62" s="13">
-        <v>32862</v>
+        <v>-231457</v>
       </c>
       <c r="AT62" s="13">
-        <v>7545</v>
+        <v>0</v>
       </c>
       <c r="AU62" s="13">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="AV62" s="13">
-        <v>3994</v>
+        <v>9425</v>
       </c>
       <c r="AW62" s="13">
-        <v>9425</v>
+        <v>115963</v>
       </c>
       <c r="AX62" s="13">
-        <v>115963</v>
+        <v>21024</v>
       </c>
       <c r="AY62" s="13">
-        <v>21024</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="13">
-        <v>0</v>
+        <v>33052</v>
       </c>
       <c r="BA62" s="13">
-        <v>15792</v>
+        <v>14847</v>
       </c>
       <c r="BB62" s="13">
-        <v>14847</v>
+        <v>39167</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8425,65 +8425,65 @@
       <c r="AH63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI63" s="11" t="s">
-        <v>57</v>
+      <c r="AI63" s="11">
+        <v>138156</v>
       </c>
       <c r="AJ63" s="11">
-        <v>138156</v>
+        <v>122670</v>
       </c>
       <c r="AK63" s="11">
-        <v>122670</v>
+        <v>152503</v>
       </c>
       <c r="AL63" s="11">
-        <v>152503</v>
+        <v>62125</v>
       </c>
       <c r="AM63" s="11">
-        <v>62125</v>
+        <v>127913</v>
       </c>
       <c r="AN63" s="11">
-        <v>127913</v>
+        <v>345314</v>
       </c>
       <c r="AO63" s="11">
-        <v>345314</v>
+        <v>66938</v>
       </c>
       <c r="AP63" s="11">
-        <v>66938</v>
+        <v>72616</v>
       </c>
       <c r="AQ63" s="11">
-        <v>72616</v>
+        <v>146923</v>
       </c>
       <c r="AR63" s="11">
-        <v>146923</v>
+        <v>13851</v>
       </c>
       <c r="AS63" s="11">
-        <v>13851</v>
+        <v>104215</v>
       </c>
       <c r="AT63" s="11">
-        <v>93202</v>
+        <v>252458</v>
       </c>
       <c r="AU63" s="11">
-        <v>252458</v>
+        <v>52591</v>
       </c>
       <c r="AV63" s="11">
-        <v>52591</v>
+        <v>16793</v>
       </c>
       <c r="AW63" s="11">
-        <v>16793</v>
+        <v>92104</v>
       </c>
       <c r="AX63" s="11">
-        <v>92104</v>
+        <v>624658</v>
       </c>
       <c r="AY63" s="11">
-        <v>624658</v>
+        <v>1676524</v>
       </c>
       <c r="AZ63" s="11">
-        <v>1676524</v>
+        <v>704655</v>
       </c>
       <c r="BA63" s="11">
-        <v>704655</v>
+        <v>1779377</v>
       </c>
       <c r="BB63" s="11">
-        <v>1779377</v>
+        <v>1578548</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8608,14 +8608,14 @@
       <c r="AP64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ64" s="13" t="s">
-        <v>57</v>
+      <c r="AQ64" s="13">
+        <v>22623</v>
       </c>
       <c r="AR64" s="13">
-        <v>22623</v>
+        <v>3602</v>
       </c>
       <c r="AS64" s="13">
-        <v>3602</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13">
         <v>0</v>
@@ -8624,19 +8624,19 @@
         <v>0</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AW64" s="13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="13">
         <v>0</v>
       </c>
       <c r="AY64" s="13">
-        <v>0</v>
+        <v>17259</v>
       </c>
       <c r="AZ64" s="13">
-        <v>17259</v>
+        <v>-17260</v>
       </c>
       <c r="BA64" s="13">
         <v>0</v>
@@ -8764,8 +8764,8 @@
       <c r="V66" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W66" s="17" t="s">
-        <v>57</v>
+      <c r="W66" s="17">
+        <v>0</v>
       </c>
       <c r="X66" s="17">
         <v>0</v>
@@ -9052,8 +9052,8 @@
       <c r="AT68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU68" s="11" t="s">
-        <v>57</v>
+      <c r="AU68" s="11">
+        <v>0</v>
       </c>
       <c r="AV68" s="11">
         <v>0</v>
@@ -9065,16 +9065,16 @@
         <v>0</v>
       </c>
       <c r="AY68" s="11">
-        <v>0</v>
+        <v>-3119</v>
       </c>
       <c r="AZ68" s="11">
-        <v>-3119</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="BB68" s="11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9211,29 +9211,29 @@
       <c r="AT69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU69" s="13" t="s">
-        <v>57</v>
+      <c r="AU69" s="13">
+        <v>-8247</v>
       </c>
       <c r="AV69" s="13">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AW69" s="13">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AX69" s="13">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AY69" s="13">
-        <v>-638551</v>
+        <v>-131582</v>
       </c>
       <c r="AZ69" s="13">
-        <v>-131582</v>
+        <v>-18151</v>
       </c>
       <c r="BA69" s="13">
-        <v>-18151</v>
+        <v>-1648504</v>
       </c>
       <c r="BB69" s="13">
-        <v>-1648504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9370,8 +9370,8 @@
       <c r="AT70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU70" s="11" t="s">
-        <v>57</v>
+      <c r="AU70" s="11">
+        <v>0</v>
       </c>
       <c r="AV70" s="11">
         <v>0</v>
@@ -9383,13 +9383,13 @@
         <v>0</v>
       </c>
       <c r="AY70" s="11">
-        <v>-25157</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="BA70" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="BB70" s="11">
         <v>0</v>
@@ -9538,20 +9538,20 @@
       <c r="AW71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY71" s="13" t="s">
-        <v>57</v>
+      <c r="AX71" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY71" s="13">
+        <v>-10428</v>
       </c>
       <c r="AZ71" s="13">
-        <v>-10428</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="13">
         <v>0</v>
       </c>
       <c r="BB71" s="13">
-        <v>0</v>
+        <v>-64915</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9616,8 +9616,8 @@
       <c r="V72" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W72" s="17" t="s">
-        <v>57</v>
+      <c r="W72" s="17">
+        <v>0</v>
       </c>
       <c r="X72" s="17">
         <v>0</v>
@@ -9689,28 +9689,28 @@
         <v>0</v>
       </c>
       <c r="AU72" s="17">
-        <v>0</v>
+        <v>-8247</v>
       </c>
       <c r="AV72" s="17">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AW72" s="17">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AX72" s="17">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AY72" s="17">
-        <v>-663708</v>
+        <v>-145129</v>
       </c>
       <c r="AZ72" s="17">
-        <v>-145129</v>
+        <v>-18638</v>
       </c>
       <c r="BA72" s="17">
-        <v>-18638</v>
+        <v>-1649564</v>
       </c>
       <c r="BB72" s="17">
-        <v>-1649564</v>
+        <v>-64915</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9832,8 +9832,8 @@
       <c r="V74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>57</v>
+      <c r="W74" s="11">
+        <v>0</v>
       </c>
       <c r="X74" s="11">
         <v>0</v>
@@ -9905,28 +9905,28 @@
         <v>0</v>
       </c>
       <c r="AU74" s="11">
-        <v>0</v>
+        <v>-5224</v>
       </c>
       <c r="AV74" s="11">
-        <v>-5224</v>
+        <v>-29405</v>
       </c>
       <c r="AW74" s="11">
-        <v>-29405</v>
+        <v>-26931</v>
       </c>
       <c r="AX74" s="11">
-        <v>-26931</v>
+        <v>-25157</v>
       </c>
       <c r="AY74" s="11">
-        <v>0</v>
+        <v>-2547350</v>
       </c>
       <c r="AZ74" s="11">
-        <v>-220529</v>
+        <v>-468268</v>
       </c>
       <c r="BA74" s="11">
-        <v>-468268</v>
+        <v>-409471</v>
       </c>
       <c r="BB74" s="11">
-        <v>-409471</v>
+        <v>-1978624</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9990,100 +9990,100 @@
         <v>0</v>
       </c>
       <c r="W75" s="19">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="X75" s="19">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="Y75" s="19">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="Z75" s="19">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="AA75" s="19">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="AB75" s="19">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="AC75" s="19">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="AD75" s="19">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="AE75" s="19">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="AF75" s="19">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AG75" s="19">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AH75" s="19">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AI75" s="19">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AJ75" s="19">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AK75" s="19">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AL75" s="19">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AM75" s="19">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AN75" s="19">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AO75" s="19">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AP75" s="19">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AQ75" s="19">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AR75" s="19">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AS75" s="19">
-        <v>2326708</v>
+        <v>2593944</v>
       </c>
       <c r="AT75" s="19">
-        <v>3212738</v>
+        <v>5546362</v>
       </c>
       <c r="AU75" s="19">
-        <v>5546362</v>
+        <v>2016170</v>
       </c>
       <c r="AV75" s="19">
-        <v>2016170</v>
+        <v>9004409</v>
       </c>
       <c r="AW75" s="19">
-        <v>9007285</v>
+        <v>23851122</v>
       </c>
       <c r="AX75" s="19">
-        <v>23851122</v>
+        <v>23711020</v>
       </c>
       <c r="AY75" s="19">
-        <v>23711020</v>
+        <v>7807661</v>
       </c>
       <c r="AZ75" s="19">
-        <v>10134482</v>
+        <v>14418981</v>
       </c>
       <c r="BA75" s="19">
-        <v>14418981</v>
+        <v>9661840</v>
       </c>
       <c r="BB75" s="19">
-        <v>9661840</v>
+        <v>14261725</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10648,8 +10648,8 @@
       <c r="AR82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS82" s="11" t="s">
-        <v>57</v>
+      <c r="AS82" s="11">
+        <v>0</v>
       </c>
       <c r="AT82" s="11" t="s">
         <v>57</v>
@@ -10660,20 +10660,20 @@
       <c r="AV82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW82" s="11" t="s">
-        <v>57</v>
+      <c r="AW82" s="11">
+        <v>157774313</v>
       </c>
       <c r="AX82" s="11">
-        <v>250704501</v>
+        <v>250630682</v>
       </c>
       <c r="AY82" s="11">
-        <v>250630682</v>
-      </c>
-      <c r="AZ82" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ82" s="11">
         <v>185545455</v>
+      </c>
+      <c r="BA82" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB82" s="11" t="s">
         <v>57</v>
@@ -10741,101 +10741,101 @@
       <c r="V83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>57</v>
+      <c r="W83" s="13">
+        <v>24232484</v>
       </c>
       <c r="X83" s="13">
-        <v>24232484</v>
+        <v>29751854</v>
       </c>
       <c r="Y83" s="13">
-        <v>29751854</v>
+        <v>35691515</v>
       </c>
       <c r="Z83" s="13">
-        <v>35691515</v>
+        <v>31671738</v>
       </c>
       <c r="AA83" s="13">
-        <v>31671738</v>
+        <v>32334489</v>
       </c>
       <c r="AB83" s="13">
-        <v>32334489</v>
+        <v>51628738</v>
       </c>
       <c r="AC83" s="13">
-        <v>51628738</v>
+        <v>26982749</v>
       </c>
       <c r="AD83" s="13">
-        <v>26982749</v>
+        <v>15348984</v>
       </c>
       <c r="AE83" s="13">
-        <v>15348984</v>
+        <v>31303379</v>
       </c>
       <c r="AF83" s="13">
-        <v>31303379</v>
+        <v>29024165</v>
       </c>
       <c r="AG83" s="13">
-        <v>29024165</v>
+        <v>32107324</v>
       </c>
       <c r="AH83" s="13">
-        <v>32107324</v>
+        <v>31915975</v>
       </c>
       <c r="AI83" s="13">
-        <v>31915975</v>
+        <v>31607259</v>
       </c>
       <c r="AJ83" s="13">
-        <v>31607259</v>
+        <v>28785571</v>
       </c>
       <c r="AK83" s="13">
-        <v>28785571</v>
+        <v>40648034</v>
       </c>
       <c r="AL83" s="13">
-        <v>40648034</v>
+        <v>37226427</v>
       </c>
       <c r="AM83" s="13">
-        <v>37226427</v>
+        <v>37669424</v>
       </c>
       <c r="AN83" s="13">
-        <v>37669424</v>
+        <v>34822752</v>
       </c>
       <c r="AO83" s="13">
-        <v>34822752</v>
+        <v>35245722</v>
       </c>
       <c r="AP83" s="13">
-        <v>35245722</v>
+        <v>35485879</v>
       </c>
       <c r="AQ83" s="13">
-        <v>35485879</v>
+        <v>37735220</v>
       </c>
       <c r="AR83" s="13">
-        <v>37735220</v>
+        <v>39202985</v>
       </c>
       <c r="AS83" s="13">
-        <v>39202985</v>
+        <v>40494177</v>
       </c>
       <c r="AT83" s="13">
-        <v>40051326</v>
+        <v>40462829</v>
       </c>
       <c r="AU83" s="13">
-        <v>40462829</v>
+        <v>40389589</v>
       </c>
       <c r="AV83" s="13">
-        <v>40389589</v>
+        <v>41451528</v>
       </c>
       <c r="AW83" s="13">
-        <v>41451528</v>
+        <v>151540977</v>
       </c>
       <c r="AX83" s="13">
-        <v>151540977</v>
+        <v>167209468</v>
       </c>
       <c r="AY83" s="13">
-        <v>167209468</v>
+        <v>152458792</v>
       </c>
       <c r="AZ83" s="13">
-        <v>152458792</v>
+        <v>126122878</v>
       </c>
       <c r="BA83" s="13">
-        <v>126122878</v>
+        <v>134501449</v>
       </c>
       <c r="BB83" s="13">
-        <v>134501449</v>
+        <v>114690000</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10936,38 +10936,38 @@
       <c r="AH84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI84" s="11" t="s">
-        <v>57</v>
+      <c r="AI84" s="11">
+        <v>16955667</v>
       </c>
       <c r="AJ84" s="11">
-        <v>16955667</v>
+        <v>9983154</v>
       </c>
       <c r="AK84" s="11">
-        <v>9983154</v>
+        <v>17067407</v>
       </c>
       <c r="AL84" s="11">
-        <v>17067407</v>
+        <v>18908712</v>
       </c>
       <c r="AM84" s="11">
-        <v>18908712</v>
+        <v>18946694</v>
       </c>
       <c r="AN84" s="11">
-        <v>18946694</v>
+        <v>18837389</v>
       </c>
       <c r="AO84" s="11">
-        <v>18837389</v>
-      </c>
-      <c r="AP84" s="11">
         <v>20725599</v>
       </c>
-      <c r="AQ84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR84" s="11">
+      <c r="AP84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ84" s="11">
         <v>15144737</v>
       </c>
-      <c r="AS84" s="11" t="s">
-        <v>57</v>
+      <c r="AR84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS84" s="11">
+        <v>813510</v>
       </c>
       <c r="AT84" s="11" t="s">
         <v>57</v>
@@ -11059,101 +11059,101 @@
       <c r="V85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W85" s="13" t="s">
-        <v>57</v>
+      <c r="W85" s="13">
+        <v>86358889</v>
       </c>
       <c r="X85" s="13">
-        <v>86358889</v>
+        <v>86304176</v>
       </c>
       <c r="Y85" s="13">
-        <v>86304176</v>
+        <v>86269828</v>
       </c>
       <c r="Z85" s="13">
-        <v>86269828</v>
+        <v>90609574</v>
       </c>
       <c r="AA85" s="13">
-        <v>90609574</v>
+        <v>90773985</v>
       </c>
       <c r="AB85" s="13">
-        <v>90773985</v>
+        <v>94295569</v>
       </c>
       <c r="AC85" s="13">
-        <v>94295569</v>
+        <v>100947812</v>
       </c>
       <c r="AD85" s="13">
-        <v>100947812</v>
+        <v>103530079</v>
       </c>
       <c r="AE85" s="13">
-        <v>103530079</v>
+        <v>115273465</v>
       </c>
       <c r="AF85" s="13">
-        <v>115273465</v>
+        <v>117919489</v>
       </c>
       <c r="AG85" s="13">
-        <v>117919489</v>
+        <v>114475088</v>
       </c>
       <c r="AH85" s="13">
-        <v>114475088</v>
+        <v>122844581</v>
       </c>
       <c r="AI85" s="13">
-        <v>122844581</v>
+        <v>120195698</v>
       </c>
       <c r="AJ85" s="13">
-        <v>120195698</v>
+        <v>131897091</v>
       </c>
       <c r="AK85" s="13">
-        <v>131897091</v>
+        <v>160213410</v>
       </c>
       <c r="AL85" s="13">
-        <v>160213410</v>
+        <v>158220497</v>
       </c>
       <c r="AM85" s="13">
-        <v>158220497</v>
+        <v>160104299</v>
       </c>
       <c r="AN85" s="13">
-        <v>160104299</v>
+        <v>151942932</v>
       </c>
       <c r="AO85" s="13">
-        <v>151942932</v>
+        <v>156097979</v>
       </c>
       <c r="AP85" s="13">
-        <v>156097979</v>
+        <v>145981694</v>
       </c>
       <c r="AQ85" s="13">
-        <v>145981694</v>
+        <v>156619432</v>
       </c>
       <c r="AR85" s="13">
-        <v>156619432</v>
+        <v>163920834</v>
       </c>
       <c r="AS85" s="13">
-        <v>163920834</v>
+        <v>157528182</v>
       </c>
       <c r="AT85" s="13">
-        <v>157568334</v>
+        <v>157438478</v>
       </c>
       <c r="AU85" s="13">
-        <v>157438478</v>
+        <v>162961250</v>
       </c>
       <c r="AV85" s="13">
-        <v>162961250</v>
+        <v>451138019</v>
       </c>
       <c r="AW85" s="13">
-        <v>451138019</v>
+        <v>775403654</v>
       </c>
       <c r="AX85" s="13">
-        <v>775403654</v>
+        <v>769897809</v>
       </c>
       <c r="AY85" s="13">
-        <v>769897809</v>
+        <v>699171857</v>
       </c>
       <c r="AZ85" s="13">
-        <v>699171857</v>
+        <v>695093625</v>
       </c>
       <c r="BA85" s="13">
-        <v>695093625</v>
+        <v>685612205</v>
       </c>
       <c r="BB85" s="13">
-        <v>685612205</v>
+        <v>683875176</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11254,38 +11254,38 @@
       <c r="AH86" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI86" s="11" t="s">
-        <v>57</v>
+      <c r="AI86" s="11">
+        <v>31000052</v>
       </c>
       <c r="AJ86" s="11">
-        <v>31000052</v>
+        <v>31008553</v>
       </c>
       <c r="AK86" s="11">
-        <v>31008553</v>
-      </c>
-      <c r="AL86" s="11">
         <v>31113208</v>
       </c>
-      <c r="AM86" s="11" t="s">
-        <v>57</v>
+      <c r="AL86" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM86" s="11">
+        <v>35000020</v>
       </c>
       <c r="AN86" s="11">
-        <v>35000020</v>
+        <v>35000025</v>
       </c>
       <c r="AO86" s="11">
-        <v>35000025</v>
+        <v>35000436</v>
       </c>
       <c r="AP86" s="11">
-        <v>35000436</v>
+        <v>35002423</v>
       </c>
       <c r="AQ86" s="11">
-        <v>35002423</v>
+        <v>34977477</v>
       </c>
       <c r="AR86" s="11">
-        <v>34977477</v>
+        <v>42317647</v>
       </c>
       <c r="AS86" s="11">
-        <v>42317647</v>
+        <v>0</v>
       </c>
       <c r="AT86" s="11" t="s">
         <v>57</v>
@@ -11413,65 +11413,65 @@
       <c r="AH87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI87" s="13" t="s">
-        <v>57</v>
+      <c r="AI87" s="13">
+        <v>75443213</v>
       </c>
       <c r="AJ87" s="13">
-        <v>75443213</v>
+        <v>79812030</v>
       </c>
       <c r="AK87" s="13">
-        <v>79812030</v>
+        <v>92959807</v>
       </c>
       <c r="AL87" s="13">
-        <v>92959807</v>
+        <v>96969008</v>
       </c>
       <c r="AM87" s="13">
-        <v>96969008</v>
+        <v>27165354</v>
       </c>
       <c r="AN87" s="13">
-        <v>27165354</v>
+        <v>100143174</v>
       </c>
       <c r="AO87" s="13">
-        <v>100143174</v>
+        <v>92541599</v>
       </c>
       <c r="AP87" s="13">
-        <v>92541599</v>
+        <v>100885431</v>
       </c>
       <c r="AQ87" s="13">
-        <v>100885431</v>
+        <v>114927711</v>
       </c>
       <c r="AR87" s="13">
-        <v>114927711</v>
+        <v>68419913</v>
       </c>
       <c r="AS87" s="13">
-        <v>68419913</v>
+        <v>111438221</v>
       </c>
       <c r="AT87" s="13">
-        <v>133061489</v>
+        <v>100097606</v>
       </c>
       <c r="AU87" s="13">
-        <v>100097606</v>
+        <v>77258427</v>
       </c>
       <c r="AV87" s="13">
-        <v>77258427</v>
+        <v>170983520</v>
       </c>
       <c r="AW87" s="13">
-        <v>184036568</v>
+        <v>85567010</v>
       </c>
       <c r="AX87" s="13">
-        <v>85567010</v>
+        <v>232597920</v>
       </c>
       <c r="AY87" s="13">
-        <v>232597920</v>
+        <v>156081250</v>
       </c>
       <c r="AZ87" s="13">
-        <v>156081250</v>
+        <v>154045872</v>
       </c>
       <c r="BA87" s="13">
-        <v>154045872</v>
+        <v>160125000</v>
       </c>
       <c r="BB87" s="13">
-        <v>160125000</v>
+        <v>133351145</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11542,38 +11542,38 @@
       <c r="X88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>57</v>
+      <c r="Y88" s="11">
+        <v>15000084</v>
       </c>
       <c r="Z88" s="11">
-        <v>15000084</v>
+        <v>15000000</v>
       </c>
       <c r="AA88" s="11">
-        <v>15000000</v>
+        <v>15000040</v>
       </c>
       <c r="AB88" s="11">
-        <v>15000040</v>
+        <v>14938840</v>
       </c>
       <c r="AC88" s="11">
-        <v>14938840</v>
+        <v>14925711</v>
       </c>
       <c r="AD88" s="11">
-        <v>14925711</v>
+        <v>26898865</v>
       </c>
       <c r="AE88" s="11">
-        <v>26898865</v>
+        <v>20410320</v>
       </c>
       <c r="AF88" s="11">
-        <v>20410320</v>
+        <v>28878784</v>
       </c>
       <c r="AG88" s="11">
-        <v>28878784</v>
+        <v>22906081</v>
       </c>
       <c r="AH88" s="11">
-        <v>22906081</v>
-      </c>
-      <c r="AI88" s="11">
         <v>19183432</v>
+      </c>
+      <c r="AI88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ88" s="11" t="s">
         <v>57</v>
@@ -11734,21 +11734,21 @@
       <c r="AI89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ89" s="13" t="s">
-        <v>57</v>
+      <c r="AJ89" s="13">
+        <v>1867533333</v>
       </c>
       <c r="AK89" s="13">
-        <v>1867533333</v>
+        <v>2268000000</v>
       </c>
       <c r="AL89" s="13">
-        <v>2268000000</v>
+        <v>3506500000</v>
       </c>
       <c r="AM89" s="13">
-        <v>3506500000</v>
-      </c>
-      <c r="AN89" s="13">
         <v>228455285</v>
       </c>
+      <c r="AN89" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AO89" s="13" t="s">
         <v>57</v>
       </c>
@@ -11761,35 +11761,35 @@
       <c r="AR89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT89" s="13">
-        <v>116076923</v>
+      <c r="AS89" s="13">
+        <v>-3560876923</v>
+      </c>
+      <c r="AT89" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV89" s="13" t="s">
-        <v>57</v>
+      <c r="AV89" s="13">
+        <v>9425000000</v>
       </c>
       <c r="AW89" s="13">
-        <v>9425000000</v>
+        <v>115963000000</v>
       </c>
       <c r="AX89" s="13">
-        <v>115963000000</v>
-      </c>
-      <c r="AY89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ89" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AY89" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ89" s="13">
+        <v>46746803</v>
       </c>
       <c r="BA89" s="13">
-        <v>22368272</v>
-      </c>
-      <c r="BB89" s="13">
         <v>14847000000</v>
+      </c>
+      <c r="BB89" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11890,65 +11890,65 @@
       <c r="AH90" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI90" s="11" t="s">
-        <v>57</v>
+      <c r="AI90" s="11">
+        <v>74558014</v>
       </c>
       <c r="AJ90" s="11">
-        <v>74558014</v>
+        <v>70137221</v>
       </c>
       <c r="AK90" s="11">
-        <v>70137221</v>
+        <v>85388018</v>
       </c>
       <c r="AL90" s="11">
-        <v>85388018</v>
+        <v>102855960</v>
       </c>
       <c r="AM90" s="11">
-        <v>102855960</v>
+        <v>81111604</v>
       </c>
       <c r="AN90" s="11">
-        <v>81111604</v>
+        <v>84739632</v>
       </c>
       <c r="AO90" s="11">
-        <v>84739632</v>
+        <v>102039634</v>
       </c>
       <c r="AP90" s="11">
-        <v>102039634</v>
+        <v>104784993</v>
       </c>
       <c r="AQ90" s="11">
-        <v>104784993</v>
+        <v>86374486</v>
       </c>
       <c r="AR90" s="11">
-        <v>86374486</v>
+        <v>1385100000</v>
       </c>
       <c r="AS90" s="11">
-        <v>1385100000</v>
+        <v>123944497</v>
       </c>
       <c r="AT90" s="11">
-        <v>123283069</v>
+        <v>108258148</v>
       </c>
       <c r="AU90" s="11">
-        <v>108258148</v>
+        <v>102516569</v>
       </c>
       <c r="AV90" s="11">
-        <v>102516569</v>
+        <v>226932432</v>
       </c>
       <c r="AW90" s="11">
-        <v>226932432</v>
+        <v>594219355</v>
       </c>
       <c r="AX90" s="11">
-        <v>594219355</v>
+        <v>560734291</v>
       </c>
       <c r="AY90" s="11">
-        <v>560734291</v>
+        <v>522118966</v>
       </c>
       <c r="AZ90" s="11">
-        <v>522118966</v>
+        <v>526647982</v>
       </c>
       <c r="BA90" s="11">
-        <v>526647982</v>
+        <v>491133591</v>
       </c>
       <c r="BB90" s="11">
-        <v>491133591</v>
+        <v>459013667</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12073,14 +12073,14 @@
       <c r="AP91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ91" s="13" t="s">
-        <v>57</v>
+      <c r="AQ91" s="13">
+        <v>7606927</v>
       </c>
       <c r="AR91" s="13">
-        <v>7606927</v>
+        <v>7746237</v>
       </c>
       <c r="AS91" s="13">
-        <v>7746237</v>
+        <v>0</v>
       </c>
       <c r="AT91" s="13" t="s">
         <v>57</v>
@@ -12088,20 +12088,20 @@
       <c r="AU91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV91" s="13" t="s">
-        <v>57</v>
+      <c r="AV91" s="13">
+        <v>11333333</v>
       </c>
       <c r="AW91" s="13">
-        <v>11333333</v>
-      </c>
-      <c r="AX91" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY91" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ91" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AX91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ91" s="13">
+        <v>-5753333333</v>
       </c>
       <c r="BA91" s="13" t="s">
         <v>57</v>

--- a/database/industries/ghaza/ghekurosh/product/monthly.xlsx
+++ b/database/industries/ghaza/ghekurosh/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghekurosh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEA4CC-5399-4039-8CD0-BC822E26DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AC0E3-E7B7-4D49-999D-B9647A6DEED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غکورش-صنعت غذایی کورش</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>صادرات</t>
@@ -1540,8 +1540,8 @@
       <c r="AQ11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="AV11" s="11">
-        <v>198</v>
+        <v>-198</v>
       </c>
       <c r="AW11" s="11">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="11">
         <v>0</v>
@@ -1633,8 +1633,8 @@
       <c r="U12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
+      <c r="V12" s="13">
+        <v>0</v>
       </c>
       <c r="W12" s="13">
         <v>0</v>
@@ -1828,8 +1828,8 @@
       <c r="AG13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>57</v>
+      <c r="AH13" s="11">
+        <v>0</v>
       </c>
       <c r="AI13" s="11">
         <v>0</v>
@@ -1951,104 +1951,104 @@
       <c r="U14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V14" s="13" t="s">
-        <v>57</v>
+      <c r="V14" s="13">
+        <v>17382</v>
       </c>
       <c r="W14" s="13">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="X14" s="13">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Y14" s="13">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="Z14" s="13">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AA14" s="13">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AB14" s="13">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AC14" s="13">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AD14" s="13">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AE14" s="13">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AF14" s="13">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AG14" s="13">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AH14" s="13">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AI14" s="13">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AJ14" s="13">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AK14" s="13">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AL14" s="13">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AM14" s="13">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AN14" s="13">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AO14" s="13">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AP14" s="13">
-        <v>25616</v>
+        <v>25461</v>
       </c>
       <c r="AQ14" s="13">
-        <v>25461</v>
+        <v>11085</v>
       </c>
       <c r="AR14" s="13">
-        <v>11085</v>
+        <v>18055</v>
       </c>
       <c r="AS14" s="13">
-        <v>18055</v>
+        <v>33826</v>
       </c>
       <c r="AT14" s="13">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AU14" s="13">
-        <v>12712</v>
+        <v>19580</v>
       </c>
       <c r="AV14" s="13">
-        <v>19580</v>
+        <v>30927</v>
       </c>
       <c r="AW14" s="13">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AX14" s="13">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AY14" s="13">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AZ14" s="13">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BA14" s="13">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="BB14" s="13">
-        <v>22661</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2146,8 +2146,8 @@
       <c r="AG15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>57</v>
+      <c r="AH15" s="11">
+        <v>0</v>
       </c>
       <c r="AI15" s="11">
         <v>0</v>
@@ -2305,8 +2305,8 @@
       <c r="AG16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH16" s="13" t="s">
-        <v>57</v>
+      <c r="AH16" s="13">
+        <v>0</v>
       </c>
       <c r="AI16" s="13">
         <v>0</v>
@@ -2434,8 +2434,8 @@
       <c r="W17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>57</v>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2464,8 +2464,8 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>57</v>
@@ -2623,8 +2623,8 @@
       <c r="AG18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>57</v>
+      <c r="AH18" s="13">
+        <v>0</v>
       </c>
       <c r="AI18" s="13">
         <v>0</v>
@@ -2782,8 +2782,8 @@
       <c r="AG19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>57</v>
+      <c r="AH19" s="11">
+        <v>0</v>
       </c>
       <c r="AI19" s="11">
         <v>0</v>
@@ -2965,26 +2965,26 @@
       <c r="AO20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>57</v>
+      <c r="AP20" s="13">
+        <v>3007</v>
       </c>
       <c r="AQ20" s="13">
-        <v>3007</v>
+        <v>399</v>
       </c>
       <c r="AR20" s="13">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="13">
         <v>0</v>
       </c>
       <c r="AU20" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV20" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
@@ -3119,8 +3119,8 @@
       <c r="U22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V22" s="17" t="s">
-        <v>57</v>
+      <c r="V22" s="17">
+        <v>0</v>
       </c>
       <c r="W22" s="17">
         <v>0</v>
@@ -3277,103 +3277,103 @@
         <v>0</v>
       </c>
       <c r="V23" s="19">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="W23" s="19">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="X23" s="19">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="Y23" s="19">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="Z23" s="19">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="AA23" s="19">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="AB23" s="19">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="AC23" s="19">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="AD23" s="19">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="AE23" s="19">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AF23" s="19">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AG23" s="19">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AH23" s="19">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AI23" s="19">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AJ23" s="19">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AK23" s="19">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AL23" s="19">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AM23" s="19">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AN23" s="19">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AO23" s="19">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AP23" s="19">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AQ23" s="19">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AR23" s="19">
-        <v>11484</v>
+        <v>18056</v>
       </c>
       <c r="AS23" s="19">
-        <v>18056</v>
+        <v>33826</v>
       </c>
       <c r="AT23" s="19">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AU23" s="19">
-        <v>12712</v>
+        <v>19784</v>
       </c>
       <c r="AV23" s="19">
-        <v>19784</v>
+        <v>30729</v>
       </c>
       <c r="AW23" s="19">
-        <v>30729</v>
+        <v>30658</v>
       </c>
       <c r="AX23" s="19">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AY23" s="19">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AZ23" s="19">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="BA23" s="19">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="BB23" s="19">
-        <v>22661</v>
+        <v>29957</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3935,8 +3935,8 @@
       <c r="AQ30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR30" s="11" t="s">
-        <v>57</v>
+      <c r="AR30" s="11">
+        <v>0</v>
       </c>
       <c r="AS30" s="11">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="AV30" s="11">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="AW30" s="11">
-        <v>709</v>
+        <v>176</v>
       </c>
       <c r="AX30" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AZ30" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="11">
         <v>0</v>
@@ -4028,104 +4028,104 @@
       <c r="U31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V31" s="13" t="s">
-        <v>57</v>
+      <c r="V31" s="13">
+        <v>1570</v>
       </c>
       <c r="W31" s="13">
-        <v>1570</v>
+        <v>7282</v>
       </c>
       <c r="X31" s="13">
-        <v>7282</v>
+        <v>8156</v>
       </c>
       <c r="Y31" s="13">
-        <v>8156</v>
+        <v>33190</v>
       </c>
       <c r="Z31" s="13">
-        <v>33190</v>
+        <v>12978</v>
       </c>
       <c r="AA31" s="13">
-        <v>12978</v>
+        <v>16953</v>
       </c>
       <c r="AB31" s="13">
-        <v>16953</v>
+        <v>21970</v>
       </c>
       <c r="AC31" s="13">
-        <v>21970</v>
+        <v>58484</v>
       </c>
       <c r="AD31" s="13">
-        <v>58484</v>
+        <v>49364</v>
       </c>
       <c r="AE31" s="13">
-        <v>49364</v>
+        <v>19574</v>
       </c>
       <c r="AF31" s="13">
-        <v>19574</v>
+        <v>78855</v>
       </c>
       <c r="AG31" s="13">
-        <v>78855</v>
+        <v>61446</v>
       </c>
       <c r="AH31" s="13">
-        <v>61446</v>
+        <v>3995</v>
       </c>
       <c r="AI31" s="13">
-        <v>3995</v>
+        <v>11505</v>
       </c>
       <c r="AJ31" s="13">
-        <v>11505</v>
+        <v>9410</v>
       </c>
       <c r="AK31" s="13">
-        <v>9410</v>
+        <v>3118</v>
       </c>
       <c r="AL31" s="13">
-        <v>3118</v>
+        <v>5802</v>
       </c>
       <c r="AM31" s="13">
-        <v>5802</v>
+        <v>67448</v>
       </c>
       <c r="AN31" s="13">
-        <v>67448</v>
+        <v>27584</v>
       </c>
       <c r="AO31" s="13">
-        <v>27584</v>
+        <v>16784</v>
       </c>
       <c r="AP31" s="13">
-        <v>16784</v>
+        <v>5582</v>
       </c>
       <c r="AQ31" s="13">
-        <v>5582</v>
+        <v>7237</v>
       </c>
       <c r="AR31" s="13">
-        <v>7237</v>
+        <v>341</v>
       </c>
       <c r="AS31" s="13">
-        <v>341</v>
+        <v>4708</v>
       </c>
       <c r="AT31" s="13">
-        <v>4708</v>
+        <v>1825</v>
       </c>
       <c r="AU31" s="13">
-        <v>1825</v>
+        <v>6478</v>
       </c>
       <c r="AV31" s="13">
-        <v>6478</v>
+        <v>2416</v>
       </c>
       <c r="AW31" s="13">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="AX31" s="13">
-        <v>2387</v>
+        <v>4538</v>
       </c>
       <c r="AY31" s="13">
-        <v>4538</v>
+        <v>1473</v>
       </c>
       <c r="AZ31" s="13">
-        <v>1473</v>
+        <v>345</v>
       </c>
       <c r="BA31" s="13">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="BB31" s="13">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4223,41 +4223,41 @@
       <c r="AG32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH32" s="11" t="s">
-        <v>57</v>
+      <c r="AH32" s="11">
+        <v>6970</v>
       </c>
       <c r="AI32" s="11">
-        <v>6970</v>
+        <v>4274</v>
       </c>
       <c r="AJ32" s="11">
-        <v>4274</v>
+        <v>1350</v>
       </c>
       <c r="AK32" s="11">
-        <v>1350</v>
+        <v>23738</v>
       </c>
       <c r="AL32" s="11">
-        <v>23738</v>
+        <v>1951</v>
       </c>
       <c r="AM32" s="11">
-        <v>1951</v>
+        <v>2589</v>
       </c>
       <c r="AN32" s="11">
-        <v>2589</v>
+        <v>543</v>
       </c>
       <c r="AO32" s="11">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="11">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AQ32" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="11">
-        <v>0</v>
+        <v>-2024</v>
       </c>
       <c r="AS32" s="11">
-        <v>-2024</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="11">
         <v>0</v>
@@ -4346,104 +4346,104 @@
       <c r="U33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V33" s="13" t="s">
-        <v>57</v>
+      <c r="V33" s="13">
+        <v>18574</v>
       </c>
       <c r="W33" s="13">
-        <v>18574</v>
+        <v>21550</v>
       </c>
       <c r="X33" s="13">
-        <v>21550</v>
+        <v>19001</v>
       </c>
       <c r="Y33" s="13">
-        <v>19001</v>
+        <v>26133</v>
       </c>
       <c r="Z33" s="13">
-        <v>26133</v>
+        <v>26600</v>
       </c>
       <c r="AA33" s="13">
-        <v>26600</v>
+        <v>20831</v>
       </c>
       <c r="AB33" s="13">
-        <v>20831</v>
+        <v>23243</v>
       </c>
       <c r="AC33" s="13">
-        <v>23243</v>
+        <v>22308</v>
       </c>
       <c r="AD33" s="13">
-        <v>22308</v>
+        <v>26124</v>
       </c>
       <c r="AE33" s="13">
-        <v>26124</v>
+        <v>25599</v>
       </c>
       <c r="AF33" s="13">
-        <v>25599</v>
+        <v>29845</v>
       </c>
       <c r="AG33" s="13">
-        <v>29845</v>
+        <v>28703</v>
       </c>
       <c r="AH33" s="13">
-        <v>28703</v>
+        <v>23664</v>
       </c>
       <c r="AI33" s="13">
-        <v>23664</v>
+        <v>30075</v>
       </c>
       <c r="AJ33" s="13">
-        <v>30075</v>
+        <v>31006</v>
       </c>
       <c r="AK33" s="13">
-        <v>31006</v>
+        <v>29302</v>
       </c>
       <c r="AL33" s="13">
-        <v>29302</v>
+        <v>19214</v>
       </c>
       <c r="AM33" s="13">
-        <v>19214</v>
+        <v>21641</v>
       </c>
       <c r="AN33" s="13">
-        <v>21641</v>
+        <v>21178</v>
       </c>
       <c r="AO33" s="13">
-        <v>21178</v>
+        <v>23981</v>
       </c>
       <c r="AP33" s="13">
-        <v>23981</v>
+        <v>24784</v>
       </c>
       <c r="AQ33" s="13">
-        <v>24784</v>
+        <v>12038</v>
       </c>
       <c r="AR33" s="13">
-        <v>12038</v>
+        <v>17800</v>
       </c>
       <c r="AS33" s="13">
-        <v>17800</v>
+        <v>32070</v>
       </c>
       <c r="AT33" s="13">
-        <v>32070</v>
+        <v>11613</v>
       </c>
       <c r="AU33" s="13">
-        <v>11613</v>
+        <v>19106</v>
       </c>
       <c r="AV33" s="13">
-        <v>19106</v>
+        <v>30053</v>
       </c>
       <c r="AW33" s="13">
-        <v>30053</v>
+        <v>30071</v>
       </c>
       <c r="AX33" s="13">
-        <v>30071</v>
+        <v>11463</v>
       </c>
       <c r="AY33" s="13">
-        <v>11463</v>
+        <v>19984</v>
       </c>
       <c r="AZ33" s="13">
-        <v>19984</v>
+        <v>14224</v>
       </c>
       <c r="BA33" s="13">
-        <v>14224</v>
+        <v>21350</v>
       </c>
       <c r="BB33" s="13">
-        <v>21350</v>
+        <v>27614</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4541,38 +4541,38 @@
       <c r="AG34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH34" s="11" t="s">
-        <v>57</v>
+      <c r="AH34" s="11">
+        <v>38539</v>
       </c>
       <c r="AI34" s="11">
-        <v>38539</v>
+        <v>1520</v>
       </c>
       <c r="AJ34" s="11">
-        <v>1520</v>
+        <v>53</v>
       </c>
       <c r="AK34" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="11">
-        <v>0</v>
+        <v>50209</v>
       </c>
       <c r="AM34" s="11">
-        <v>50209</v>
+        <v>78984</v>
       </c>
       <c r="AN34" s="11">
-        <v>78984</v>
+        <v>20651</v>
       </c>
       <c r="AO34" s="11">
-        <v>20651</v>
+        <v>4540</v>
       </c>
       <c r="AP34" s="11">
-        <v>4540</v>
+        <v>444</v>
       </c>
       <c r="AQ34" s="11">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="AR34" s="11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="11">
         <v>0</v>
@@ -4700,68 +4700,68 @@
       <c r="AG35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH35" s="13" t="s">
-        <v>57</v>
+      <c r="AH35" s="13">
+        <v>361</v>
       </c>
       <c r="AI35" s="13">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="AJ35" s="13">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="AK35" s="13">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="AL35" s="13">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AM35" s="13">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="AN35" s="13">
-        <v>901</v>
+        <v>613</v>
       </c>
       <c r="AO35" s="13">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="AP35" s="13">
-        <v>707</v>
+        <v>249</v>
       </c>
       <c r="AQ35" s="13">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AR35" s="13">
-        <v>231</v>
+        <v>-1270</v>
       </c>
       <c r="AS35" s="13">
-        <v>-1270</v>
+        <v>543</v>
       </c>
       <c r="AT35" s="13">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="AU35" s="13">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="AV35" s="13">
-        <v>495</v>
+        <v>194</v>
       </c>
       <c r="AW35" s="13">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="AX35" s="13">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="AY35" s="13">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="AZ35" s="13">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="BA35" s="13">
-        <v>800</v>
+        <v>393</v>
       </c>
       <c r="BB35" s="13">
-        <v>393</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4829,38 +4829,38 @@
       <c r="W36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X36" s="11" t="s">
-        <v>57</v>
+      <c r="X36" s="11">
+        <v>23788</v>
       </c>
       <c r="Y36" s="11">
-        <v>23788</v>
+        <v>64731</v>
       </c>
       <c r="Z36" s="11">
-        <v>64731</v>
+        <v>24974</v>
       </c>
       <c r="AA36" s="11">
-        <v>24974</v>
+        <v>54120</v>
       </c>
       <c r="AB36" s="11">
-        <v>54120</v>
+        <v>49967</v>
       </c>
       <c r="AC36" s="11">
-        <v>49967</v>
+        <v>84145</v>
       </c>
       <c r="AD36" s="11">
-        <v>84145</v>
+        <v>32655</v>
       </c>
       <c r="AE36" s="11">
-        <v>32655</v>
+        <v>57220</v>
       </c>
       <c r="AF36" s="11">
-        <v>57220</v>
+        <v>37181</v>
       </c>
       <c r="AG36" s="11">
-        <v>37181</v>
-      </c>
-      <c r="AH36" s="11">
         <v>101160</v>
+      </c>
+      <c r="AH36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI36" s="11" t="s">
         <v>57</v>
@@ -5018,23 +5018,23 @@
       <c r="AG37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH37" s="13" t="s">
-        <v>57</v>
+      <c r="AH37" s="13">
+        <v>0</v>
       </c>
       <c r="AI37" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ37" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AK37" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL37" s="13">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="AM37" s="13">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="13">
         <v>0</v>
@@ -5058,25 +5058,25 @@
         <v>0</v>
       </c>
       <c r="AU37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="13">
         <v>1</v>
       </c>
       <c r="AW37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="13">
+        <v>706</v>
+      </c>
+      <c r="AZ37" s="13">
         <v>1</v>
       </c>
-      <c r="AX37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="13">
-        <v>706</v>
-      </c>
       <c r="BA37" s="13">
-        <v>1</v>
+        <v>-709</v>
       </c>
       <c r="BB37" s="13">
         <v>0</v>
@@ -5177,68 +5177,68 @@
       <c r="AG38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>57</v>
+      <c r="AH38" s="11">
+        <v>1853</v>
       </c>
       <c r="AI38" s="11">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="AJ38" s="11">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="AK38" s="11">
-        <v>1786</v>
+        <v>604</v>
       </c>
       <c r="AL38" s="11">
-        <v>604</v>
+        <v>1577</v>
       </c>
       <c r="AM38" s="11">
-        <v>1577</v>
+        <v>4075</v>
       </c>
       <c r="AN38" s="11">
-        <v>4075</v>
+        <v>656</v>
       </c>
       <c r="AO38" s="11">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="AP38" s="11">
-        <v>693</v>
+        <v>1701</v>
       </c>
       <c r="AQ38" s="11">
-        <v>1701</v>
+        <v>10</v>
       </c>
       <c r="AR38" s="11">
-        <v>10</v>
+        <v>765</v>
       </c>
       <c r="AS38" s="11">
-        <v>765</v>
+        <v>2332</v>
       </c>
       <c r="AT38" s="11">
-        <v>2332</v>
+        <v>513</v>
       </c>
       <c r="AU38" s="11">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AV38" s="11">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AW38" s="11">
-        <v>155</v>
+        <v>1114</v>
       </c>
       <c r="AX38" s="11">
-        <v>1114</v>
+        <v>3211</v>
       </c>
       <c r="AY38" s="11">
-        <v>3211</v>
+        <v>1338</v>
       </c>
       <c r="AZ38" s="11">
-        <v>1338</v>
+        <v>3623</v>
       </c>
       <c r="BA38" s="11">
-        <v>3623</v>
+        <v>3439</v>
       </c>
       <c r="BB38" s="11">
-        <v>3439</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5360,14 +5360,14 @@
       <c r="AO39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP39" s="13" t="s">
-        <v>57</v>
+      <c r="AP39" s="13">
+        <v>2974</v>
       </c>
       <c r="AQ39" s="13">
-        <v>2974</v>
+        <v>465</v>
       </c>
       <c r="AR39" s="13">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="13">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="AU39" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV39" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="13">
         <v>0</v>
@@ -5514,8 +5514,8 @@
       <c r="U41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V41" s="17" t="s">
-        <v>57</v>
+      <c r="V41" s="17">
+        <v>0</v>
       </c>
       <c r="W41" s="17">
         <v>0</v>
@@ -5805,8 +5805,8 @@
       <c r="AT43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU43" s="11" t="s">
-        <v>57</v>
+      <c r="AU43" s="11">
+        <v>0</v>
       </c>
       <c r="AV43" s="11">
         <v>0</v>
@@ -5815,16 +5815,16 @@
         <v>0</v>
       </c>
       <c r="AX43" s="11">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="AY43" s="11">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="11">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="BA43" s="11">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>57</v>
@@ -5961,32 +5961,32 @@
       <c r="AS44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT44" s="13" t="s">
-        <v>57</v>
+      <c r="AT44" s="13">
+        <v>31</v>
       </c>
       <c r="AU44" s="13">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AV44" s="13">
-        <v>10</v>
+        <v>-103</v>
       </c>
       <c r="AW44" s="13">
-        <v>-103</v>
+        <v>-861</v>
       </c>
       <c r="AX44" s="13">
-        <v>-861</v>
+        <v>-133</v>
       </c>
       <c r="AY44" s="13">
-        <v>-133</v>
+        <v>-213</v>
       </c>
       <c r="AZ44" s="13">
-        <v>-213</v>
+        <v>-2400</v>
       </c>
       <c r="BA44" s="13">
-        <v>-2400</v>
-      </c>
-      <c r="BB44" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="BB44" s="13">
+        <v>-380</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6123,8 +6123,8 @@
       <c r="AT45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU45" s="11" t="s">
-        <v>57</v>
+      <c r="AU45" s="11">
+        <v>0</v>
       </c>
       <c r="AV45" s="11">
         <v>0</v>
@@ -6138,11 +6138,11 @@
       <c r="AY45" s="11">
         <v>0</v>
       </c>
-      <c r="AZ45" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA45" s="11" t="s">
-        <v>57</v>
+      <c r="AZ45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA45" s="11">
+        <v>0</v>
       </c>
       <c r="BB45" s="11" t="s">
         <v>57</v>
@@ -6288,23 +6288,23 @@
       <c r="AV46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW46" s="13" t="s">
-        <v>57</v>
+      <c r="AW46" s="13">
+        <v>0</v>
       </c>
       <c r="AX46" s="13">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="AY46" s="13">
-        <v>-18</v>
-      </c>
-      <c r="AZ46" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA46" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA46" s="13">
+        <v>-98</v>
       </c>
       <c r="BB46" s="13">
-        <v>-98</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6364,8 +6364,8 @@
       <c r="U47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V47" s="17" t="s">
-        <v>57</v>
+      <c r="V47" s="17">
+        <v>0</v>
       </c>
       <c r="W47" s="17">
         <v>0</v>
@@ -6437,31 +6437,31 @@
         <v>0</v>
       </c>
       <c r="AT47" s="17">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU47" s="17">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AV47" s="17">
-        <v>10</v>
+        <v>-103</v>
       </c>
       <c r="AW47" s="17">
-        <v>-103</v>
+        <v>-861</v>
       </c>
       <c r="AX47" s="17">
-        <v>-861</v>
+        <v>-241</v>
       </c>
       <c r="AY47" s="17">
-        <v>-241</v>
+        <v>-213</v>
       </c>
       <c r="AZ47" s="17">
-        <v>-213</v>
+        <v>-2409</v>
       </c>
       <c r="BA47" s="17">
-        <v>-2409</v>
+        <v>-98</v>
       </c>
       <c r="BB47" s="17">
-        <v>-98</v>
+        <v>-405</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6522,103 +6522,103 @@
         <v>0</v>
       </c>
       <c r="V48" s="19">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="W48" s="19">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="X48" s="19">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="Y48" s="19">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="Z48" s="19">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="AA48" s="19">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="AB48" s="19">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="AC48" s="19">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="AD48" s="19">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="AE48" s="19">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AF48" s="19">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AG48" s="19">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AH48" s="19">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AI48" s="19">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AJ48" s="19">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AK48" s="19">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AL48" s="19">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AM48" s="19">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AN48" s="19">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AO48" s="19">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AP48" s="19">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AQ48" s="19">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AR48" s="19">
-        <v>20066</v>
+        <v>15612</v>
       </c>
       <c r="AS48" s="19">
-        <v>15612</v>
+        <v>39653</v>
       </c>
       <c r="AT48" s="19">
-        <v>39653</v>
+        <v>14071</v>
       </c>
       <c r="AU48" s="19">
-        <v>14071</v>
+        <v>26167</v>
       </c>
       <c r="AV48" s="19">
-        <v>26167</v>
+        <v>33425</v>
       </c>
       <c r="AW48" s="19">
-        <v>33425</v>
+        <v>33464</v>
       </c>
       <c r="AX48" s="19">
-        <v>33464</v>
+        <v>19611</v>
       </c>
       <c r="AY48" s="19">
-        <v>19611</v>
+        <v>23986</v>
       </c>
       <c r="AZ48" s="19">
-        <v>23986</v>
+        <v>16584</v>
       </c>
       <c r="BA48" s="19">
-        <v>16584</v>
+        <v>24675</v>
       </c>
       <c r="BB48" s="19">
-        <v>25384</v>
+        <v>31825</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -7180,8 +7180,8 @@
       <c r="AQ55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>57</v>
+      <c r="AR55" s="11">
+        <v>0</v>
       </c>
       <c r="AS55" s="11">
         <v>0</v>
@@ -7190,22 +7190,22 @@
         <v>0</v>
       </c>
       <c r="AU55" s="11">
-        <v>0</v>
+        <v>41933</v>
       </c>
       <c r="AV55" s="11">
-        <v>41933</v>
+        <v>128110</v>
       </c>
       <c r="AW55" s="11">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AX55" s="11">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="11">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="AZ55" s="11">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="11">
         <v>0</v>
@@ -7273,104 +7273,104 @@
       <c r="U56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V56" s="13" t="s">
-        <v>57</v>
+      <c r="V56" s="13">
+        <v>38045</v>
       </c>
       <c r="W56" s="13">
-        <v>38045</v>
+        <v>216653</v>
       </c>
       <c r="X56" s="13">
-        <v>216653</v>
+        <v>291100</v>
       </c>
       <c r="Y56" s="13">
-        <v>291100</v>
+        <v>1051185</v>
       </c>
       <c r="Z56" s="13">
-        <v>1051185</v>
+        <v>419637</v>
       </c>
       <c r="AA56" s="13">
-        <v>419637</v>
+        <v>875262</v>
       </c>
       <c r="AB56" s="13">
-        <v>875262</v>
+        <v>592811</v>
       </c>
       <c r="AC56" s="13">
-        <v>592811</v>
+        <v>897670</v>
       </c>
       <c r="AD56" s="13">
-        <v>897670</v>
+        <v>1545260</v>
       </c>
       <c r="AE56" s="13">
-        <v>1545260</v>
+        <v>568119</v>
       </c>
       <c r="AF56" s="13">
-        <v>568119</v>
+        <v>2531823</v>
       </c>
       <c r="AG56" s="13">
-        <v>2531823</v>
+        <v>1961109</v>
       </c>
       <c r="AH56" s="13">
-        <v>1961109</v>
+        <v>126271</v>
       </c>
       <c r="AI56" s="13">
-        <v>126271</v>
+        <v>331178</v>
       </c>
       <c r="AJ56" s="13">
-        <v>331178</v>
+        <v>382498</v>
       </c>
       <c r="AK56" s="13">
-        <v>382498</v>
+        <v>116072</v>
       </c>
       <c r="AL56" s="13">
-        <v>116072</v>
+        <v>218558</v>
       </c>
       <c r="AM56" s="13">
-        <v>218558</v>
+        <v>2348725</v>
       </c>
       <c r="AN56" s="13">
-        <v>2348725</v>
+        <v>972218</v>
       </c>
       <c r="AO56" s="13">
-        <v>972218</v>
+        <v>595595</v>
       </c>
       <c r="AP56" s="13">
-        <v>595595</v>
+        <v>210638</v>
       </c>
       <c r="AQ56" s="13">
-        <v>210638</v>
+        <v>283712</v>
       </c>
       <c r="AR56" s="13">
-        <v>283712</v>
+        <v>93439</v>
       </c>
       <c r="AS56" s="13">
-        <v>93439</v>
+        <v>190499</v>
       </c>
       <c r="AT56" s="13">
-        <v>190499</v>
+        <v>73711</v>
       </c>
       <c r="AU56" s="13">
-        <v>73711</v>
+        <v>268523</v>
       </c>
       <c r="AV56" s="13">
-        <v>268523</v>
+        <v>366123</v>
       </c>
       <c r="AW56" s="13">
-        <v>366123</v>
+        <v>399129</v>
       </c>
       <c r="AX56" s="13">
-        <v>399129</v>
+        <v>691858</v>
       </c>
       <c r="AY56" s="13">
-        <v>691858</v>
+        <v>185779</v>
       </c>
       <c r="AZ56" s="13">
-        <v>185779</v>
+        <v>46403</v>
       </c>
       <c r="BA56" s="13">
-        <v>46403</v>
+        <v>34407</v>
       </c>
       <c r="BB56" s="13">
-        <v>34407</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7468,41 +7468,41 @@
       <c r="AG57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH57" s="11" t="s">
-        <v>57</v>
+      <c r="AH57" s="11">
+        <v>118181</v>
       </c>
       <c r="AI57" s="11">
-        <v>118181</v>
+        <v>42668</v>
       </c>
       <c r="AJ57" s="11">
-        <v>42668</v>
+        <v>23041</v>
       </c>
       <c r="AK57" s="11">
-        <v>23041</v>
+        <v>448855</v>
       </c>
       <c r="AL57" s="11">
-        <v>448855</v>
+        <v>36965</v>
       </c>
       <c r="AM57" s="11">
-        <v>36965</v>
+        <v>48770</v>
       </c>
       <c r="AN57" s="11">
-        <v>48770</v>
+        <v>11254</v>
       </c>
       <c r="AO57" s="11">
-        <v>11254</v>
+        <v>0</v>
       </c>
       <c r="AP57" s="11">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AQ57" s="11">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="11">
-        <v>0</v>
+        <v>-3547</v>
       </c>
       <c r="AS57" s="11">
-        <v>-3547</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="11">
         <v>0</v>
@@ -7591,104 +7591,104 @@
       <c r="U58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V58" s="13" t="s">
-        <v>57</v>
+      <c r="V58" s="13">
+        <v>1604030</v>
       </c>
       <c r="W58" s="13">
-        <v>1604030</v>
+        <v>1859855</v>
       </c>
       <c r="X58" s="13">
-        <v>1859855</v>
+        <v>1639213</v>
       </c>
       <c r="Y58" s="13">
-        <v>1639213</v>
+        <v>2367900</v>
       </c>
       <c r="Z58" s="13">
-        <v>2367900</v>
+        <v>2414588</v>
       </c>
       <c r="AA58" s="13">
-        <v>2414588</v>
+        <v>1964271</v>
       </c>
       <c r="AB58" s="13">
-        <v>1964271</v>
+        <v>2346330</v>
       </c>
       <c r="AC58" s="13">
-        <v>2346330</v>
+        <v>2309549</v>
       </c>
       <c r="AD58" s="13">
-        <v>2309549</v>
+        <v>3011404</v>
       </c>
       <c r="AE58" s="13">
-        <v>3011404</v>
+        <v>3018621</v>
       </c>
       <c r="AF58" s="13">
-        <v>3018621</v>
+        <v>3416509</v>
       </c>
       <c r="AG58" s="13">
-        <v>3416509</v>
+        <v>3526008</v>
       </c>
       <c r="AH58" s="13">
-        <v>3526008</v>
+        <v>2844311</v>
       </c>
       <c r="AI58" s="13">
-        <v>2844311</v>
+        <v>3966805</v>
       </c>
       <c r="AJ58" s="13">
-        <v>3966805</v>
+        <v>4967577</v>
       </c>
       <c r="AK58" s="13">
-        <v>4967577</v>
+        <v>4636177</v>
       </c>
       <c r="AL58" s="13">
-        <v>4636177</v>
+        <v>3076244</v>
       </c>
       <c r="AM58" s="13">
-        <v>3076244</v>
+        <v>3288197</v>
       </c>
       <c r="AN58" s="13">
-        <v>3288197</v>
+        <v>3305843</v>
       </c>
       <c r="AO58" s="13">
-        <v>3305843</v>
+        <v>3500787</v>
       </c>
       <c r="AP58" s="13">
-        <v>3500787</v>
+        <v>3881656</v>
       </c>
       <c r="AQ58" s="13">
-        <v>3881656</v>
+        <v>1973279</v>
       </c>
       <c r="AR58" s="13">
-        <v>1973279</v>
+        <v>2798259</v>
       </c>
       <c r="AS58" s="13">
-        <v>2798259</v>
+        <v>5049052</v>
       </c>
       <c r="AT58" s="13">
-        <v>5049052</v>
+        <v>1892469</v>
       </c>
       <c r="AU58" s="13">
-        <v>1892469</v>
+        <v>8619443</v>
       </c>
       <c r="AV58" s="13">
-        <v>8619443</v>
+        <v>23303206</v>
       </c>
       <c r="AW58" s="13">
-        <v>23303206</v>
+        <v>23151597</v>
       </c>
       <c r="AX58" s="13">
-        <v>23151597</v>
+        <v>8014607</v>
       </c>
       <c r="AY58" s="13">
-        <v>8014607</v>
+        <v>13890751</v>
       </c>
       <c r="AZ58" s="13">
-        <v>13890751</v>
+        <v>9752148</v>
       </c>
       <c r="BA58" s="13">
-        <v>9752148</v>
+        <v>14600735</v>
       </c>
       <c r="BB58" s="13">
-        <v>14600735</v>
+        <v>18744343</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7786,38 +7786,38 @@
       <c r="AG59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH59" s="11" t="s">
-        <v>57</v>
+      <c r="AH59" s="11">
+        <v>1194711</v>
       </c>
       <c r="AI59" s="11">
-        <v>1194711</v>
+        <v>47133</v>
       </c>
       <c r="AJ59" s="11">
-        <v>47133</v>
+        <v>1649</v>
       </c>
       <c r="AK59" s="11">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="11">
-        <v>0</v>
+        <v>1757316</v>
       </c>
       <c r="AM59" s="11">
-        <v>1757316</v>
+        <v>2764442</v>
       </c>
       <c r="AN59" s="11">
-        <v>2764442</v>
+        <v>722794</v>
       </c>
       <c r="AO59" s="11">
-        <v>722794</v>
+        <v>158911</v>
       </c>
       <c r="AP59" s="11">
-        <v>158911</v>
+        <v>15530</v>
       </c>
       <c r="AQ59" s="11">
-        <v>15530</v>
+        <v>3597</v>
       </c>
       <c r="AR59" s="11">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="11">
         <v>0</v>
@@ -7945,68 +7945,68 @@
       <c r="AG60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH60" s="13" t="s">
-        <v>57</v>
+      <c r="AH60" s="13">
+        <v>27235</v>
       </c>
       <c r="AI60" s="13">
-        <v>27235</v>
+        <v>31845</v>
       </c>
       <c r="AJ60" s="13">
-        <v>31845</v>
+        <v>57821</v>
       </c>
       <c r="AK60" s="13">
-        <v>57821</v>
+        <v>46933</v>
       </c>
       <c r="AL60" s="13">
-        <v>46933</v>
+        <v>3450</v>
       </c>
       <c r="AM60" s="13">
-        <v>3450</v>
+        <v>90229</v>
       </c>
       <c r="AN60" s="13">
-        <v>90229</v>
+        <v>56728</v>
       </c>
       <c r="AO60" s="13">
-        <v>56728</v>
+        <v>71326</v>
       </c>
       <c r="AP60" s="13">
-        <v>71326</v>
+        <v>28617</v>
       </c>
       <c r="AQ60" s="13">
-        <v>28617</v>
+        <v>15805</v>
       </c>
       <c r="AR60" s="13">
-        <v>15805</v>
+        <v>-166965</v>
       </c>
       <c r="AS60" s="13">
-        <v>-166965</v>
+        <v>54353</v>
       </c>
       <c r="AT60" s="13">
-        <v>54353</v>
+        <v>6876</v>
       </c>
       <c r="AU60" s="13">
-        <v>6876</v>
+        <v>86041</v>
       </c>
       <c r="AV60" s="13">
-        <v>86041</v>
+        <v>16600</v>
       </c>
       <c r="AW60" s="13">
-        <v>16600</v>
+        <v>134209</v>
       </c>
       <c r="AX60" s="13">
-        <v>134209</v>
+        <v>99892</v>
       </c>
       <c r="AY60" s="13">
-        <v>99892</v>
+        <v>100746</v>
       </c>
       <c r="AZ60" s="13">
-        <v>100746</v>
+        <v>128100</v>
       </c>
       <c r="BA60" s="13">
-        <v>128100</v>
+        <v>52407</v>
       </c>
       <c r="BB60" s="13">
-        <v>52407</v>
+        <v>83966</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8074,38 +8074,38 @@
       <c r="W61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X61" s="11" t="s">
-        <v>57</v>
+      <c r="X61" s="11">
+        <v>356822</v>
       </c>
       <c r="Y61" s="11">
-        <v>356822</v>
+        <v>970965</v>
       </c>
       <c r="Z61" s="11">
-        <v>970965</v>
+        <v>374611</v>
       </c>
       <c r="AA61" s="11">
-        <v>374611</v>
+        <v>808490</v>
       </c>
       <c r="AB61" s="11">
-        <v>808490</v>
+        <v>745793</v>
       </c>
       <c r="AC61" s="11">
-        <v>745793</v>
+        <v>2263405</v>
       </c>
       <c r="AD61" s="11">
-        <v>2263405</v>
+        <v>666499</v>
       </c>
       <c r="AE61" s="11">
-        <v>666499</v>
+        <v>1652444</v>
       </c>
       <c r="AF61" s="11">
-        <v>1652444</v>
+        <v>851671</v>
       </c>
       <c r="AG61" s="11">
-        <v>851671</v>
-      </c>
-      <c r="AH61" s="11">
         <v>1940596</v>
+      </c>
+      <c r="AH61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI61" s="11" t="s">
         <v>57</v>
@@ -8263,68 +8263,68 @@
       <c r="AG62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH62" s="13" t="s">
-        <v>57</v>
+      <c r="AH62" s="13">
+        <v>4496</v>
       </c>
       <c r="AI62" s="13">
-        <v>4496</v>
+        <v>28013</v>
       </c>
       <c r="AJ62" s="13">
-        <v>28013</v>
+        <v>20412</v>
       </c>
       <c r="AK62" s="13">
-        <v>20412</v>
+        <v>21039</v>
       </c>
       <c r="AL62" s="13">
-        <v>21039</v>
+        <v>28100</v>
       </c>
       <c r="AM62" s="13">
-        <v>28100</v>
+        <v>7411</v>
       </c>
       <c r="AN62" s="13">
-        <v>7411</v>
+        <v>10064</v>
       </c>
       <c r="AO62" s="13">
-        <v>10064</v>
+        <v>37620</v>
       </c>
       <c r="AP62" s="13">
-        <v>37620</v>
+        <v>41440</v>
       </c>
       <c r="AQ62" s="13">
-        <v>41440</v>
+        <v>32862</v>
       </c>
       <c r="AR62" s="13">
-        <v>32862</v>
+        <v>-231457</v>
       </c>
       <c r="AS62" s="13">
-        <v>-231457</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="13">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="AU62" s="13">
-        <v>3994</v>
+        <v>9425</v>
       </c>
       <c r="AV62" s="13">
-        <v>9425</v>
+        <v>115963</v>
       </c>
       <c r="AW62" s="13">
-        <v>115963</v>
+        <v>21024</v>
       </c>
       <c r="AX62" s="13">
-        <v>21024</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="13">
-        <v>0</v>
+        <v>33052</v>
       </c>
       <c r="AZ62" s="13">
-        <v>33052</v>
+        <v>14847</v>
       </c>
       <c r="BA62" s="13">
-        <v>14847</v>
+        <v>39167</v>
       </c>
       <c r="BB62" s="13">
-        <v>39167</v>
+        <v>16465</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8422,68 +8422,68 @@
       <c r="AG63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH63" s="11" t="s">
-        <v>57</v>
+      <c r="AH63" s="11">
+        <v>138156</v>
       </c>
       <c r="AI63" s="11">
-        <v>138156</v>
+        <v>122670</v>
       </c>
       <c r="AJ63" s="11">
-        <v>122670</v>
+        <v>152503</v>
       </c>
       <c r="AK63" s="11">
-        <v>152503</v>
+        <v>62125</v>
       </c>
       <c r="AL63" s="11">
-        <v>62125</v>
+        <v>127913</v>
       </c>
       <c r="AM63" s="11">
-        <v>127913</v>
+        <v>345314</v>
       </c>
       <c r="AN63" s="11">
-        <v>345314</v>
+        <v>66938</v>
       </c>
       <c r="AO63" s="11">
-        <v>66938</v>
+        <v>72616</v>
       </c>
       <c r="AP63" s="11">
-        <v>72616</v>
+        <v>146923</v>
       </c>
       <c r="AQ63" s="11">
-        <v>146923</v>
+        <v>13851</v>
       </c>
       <c r="AR63" s="11">
-        <v>13851</v>
+        <v>104215</v>
       </c>
       <c r="AS63" s="11">
-        <v>104215</v>
+        <v>252458</v>
       </c>
       <c r="AT63" s="11">
-        <v>252458</v>
+        <v>52591</v>
       </c>
       <c r="AU63" s="11">
-        <v>52591</v>
+        <v>16793</v>
       </c>
       <c r="AV63" s="11">
-        <v>16793</v>
+        <v>92104</v>
       </c>
       <c r="AW63" s="11">
-        <v>92104</v>
+        <v>624658</v>
       </c>
       <c r="AX63" s="11">
-        <v>624658</v>
+        <v>1676524</v>
       </c>
       <c r="AY63" s="11">
-        <v>1676524</v>
+        <v>704655</v>
       </c>
       <c r="AZ63" s="11">
-        <v>704655</v>
+        <v>1779377</v>
       </c>
       <c r="BA63" s="11">
-        <v>1779377</v>
+        <v>1578548</v>
       </c>
       <c r="BB63" s="11">
-        <v>1578548</v>
+        <v>1865390</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8605,14 +8605,14 @@
       <c r="AO64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP64" s="13" t="s">
-        <v>57</v>
+      <c r="AP64" s="13">
+        <v>22623</v>
       </c>
       <c r="AQ64" s="13">
-        <v>22623</v>
+        <v>3602</v>
       </c>
       <c r="AR64" s="13">
-        <v>3602</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="13">
         <v>0</v>
@@ -8621,22 +8621,22 @@
         <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV64" s="13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="13">
         <v>0</v>
       </c>
       <c r="AX64" s="13">
-        <v>0</v>
+        <v>17259</v>
       </c>
       <c r="AY64" s="13">
-        <v>17259</v>
+        <v>-17260</v>
       </c>
       <c r="AZ64" s="13">
-        <v>-17260</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="13">
         <v>0</v>
@@ -8761,8 +8761,8 @@
       <c r="U66" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V66" s="17" t="s">
-        <v>57</v>
+      <c r="V66" s="17">
+        <v>0</v>
       </c>
       <c r="W66" s="17">
         <v>0</v>
@@ -9049,8 +9049,8 @@
       <c r="AS68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT68" s="11" t="s">
-        <v>57</v>
+      <c r="AT68" s="11">
+        <v>0</v>
       </c>
       <c r="AU68" s="11">
         <v>0</v>
@@ -9062,16 +9062,16 @@
         <v>0</v>
       </c>
       <c r="AX68" s="11">
-        <v>0</v>
+        <v>-3119</v>
       </c>
       <c r="AY68" s="11">
-        <v>-3119</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="BA68" s="11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="11">
         <v>0</v>
@@ -9208,32 +9208,32 @@
       <c r="AS69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT69" s="13" t="s">
-        <v>57</v>
+      <c r="AT69" s="13">
+        <v>-8247</v>
       </c>
       <c r="AU69" s="13">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AV69" s="13">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AW69" s="13">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AX69" s="13">
-        <v>-638551</v>
+        <v>-131582</v>
       </c>
       <c r="AY69" s="13">
-        <v>-131582</v>
+        <v>-18151</v>
       </c>
       <c r="AZ69" s="13">
-        <v>-18151</v>
+        <v>-1648504</v>
       </c>
       <c r="BA69" s="13">
-        <v>-1648504</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="13">
-        <v>0</v>
+        <v>-226383</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9367,8 +9367,8 @@
       <c r="AS70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT70" s="11" t="s">
-        <v>57</v>
+      <c r="AT70" s="11">
+        <v>0</v>
       </c>
       <c r="AU70" s="11">
         <v>0</v>
@@ -9383,10 +9383,10 @@
         <v>0</v>
       </c>
       <c r="AY70" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="AZ70" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="11">
         <v>0</v>
@@ -9535,23 +9535,23 @@
       <c r="AV71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW71" s="13" t="s">
-        <v>57</v>
+      <c r="AW71" s="13">
+        <v>0</v>
       </c>
       <c r="AX71" s="13">
-        <v>0</v>
+        <v>-10428</v>
       </c>
       <c r="AY71" s="13">
-        <v>-10428</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="13">
         <v>0</v>
       </c>
       <c r="BA71" s="13">
-        <v>0</v>
+        <v>-64915</v>
       </c>
       <c r="BB71" s="13">
-        <v>-64915</v>
+        <v>-9975</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9613,8 +9613,8 @@
       <c r="U72" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="V72" s="17" t="s">
-        <v>57</v>
+      <c r="V72" s="17">
+        <v>0</v>
       </c>
       <c r="W72" s="17">
         <v>0</v>
@@ -9686,31 +9686,31 @@
         <v>0</v>
       </c>
       <c r="AT72" s="17">
-        <v>0</v>
+        <v>-8247</v>
       </c>
       <c r="AU72" s="17">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AV72" s="17">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AW72" s="17">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AX72" s="17">
-        <v>-638551</v>
+        <v>-145129</v>
       </c>
       <c r="AY72" s="17">
-        <v>-145129</v>
+        <v>-18638</v>
       </c>
       <c r="AZ72" s="17">
-        <v>-18638</v>
+        <v>-1649564</v>
       </c>
       <c r="BA72" s="17">
-        <v>-1649564</v>
+        <v>-64915</v>
       </c>
       <c r="BB72" s="17">
-        <v>-64915</v>
+        <v>-236358</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9829,8 +9829,8 @@
       <c r="U74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V74" s="11" t="s">
-        <v>57</v>
+      <c r="V74" s="11">
+        <v>0</v>
       </c>
       <c r="W74" s="11">
         <v>0</v>
@@ -9902,31 +9902,31 @@
         <v>0</v>
       </c>
       <c r="AT74" s="11">
-        <v>0</v>
+        <v>-5224</v>
       </c>
       <c r="AU74" s="11">
-        <v>-5224</v>
+        <v>-29405</v>
       </c>
       <c r="AV74" s="11">
-        <v>-29405</v>
+        <v>-26931</v>
       </c>
       <c r="AW74" s="11">
-        <v>-26931</v>
+        <v>-25157</v>
       </c>
       <c r="AX74" s="11">
-        <v>-25157</v>
+        <v>-2547350</v>
       </c>
       <c r="AY74" s="11">
-        <v>-2547350</v>
+        <v>-468268</v>
       </c>
       <c r="AZ74" s="11">
-        <v>-468268</v>
+        <v>-409471</v>
       </c>
       <c r="BA74" s="11">
-        <v>-409471</v>
+        <v>-651727</v>
       </c>
       <c r="BB74" s="11">
-        <v>-1978624</v>
+        <v>-467060</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9987,103 +9987,103 @@
         <v>0</v>
       </c>
       <c r="V75" s="19">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="W75" s="19">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="X75" s="19">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="Y75" s="19">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="Z75" s="19">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="AA75" s="19">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="AB75" s="19">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="AC75" s="19">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="AD75" s="19">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="AE75" s="19">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AF75" s="19">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AG75" s="19">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AH75" s="19">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AI75" s="19">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AJ75" s="19">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AK75" s="19">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AL75" s="19">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AM75" s="19">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AN75" s="19">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AO75" s="19">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AP75" s="19">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AQ75" s="19">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AR75" s="19">
-        <v>2326708</v>
+        <v>2593944</v>
       </c>
       <c r="AS75" s="19">
-        <v>2593944</v>
+        <v>5546362</v>
       </c>
       <c r="AT75" s="19">
-        <v>5546362</v>
+        <v>2016170</v>
       </c>
       <c r="AU75" s="19">
-        <v>2016170</v>
+        <v>9004409</v>
       </c>
       <c r="AV75" s="19">
-        <v>9004409</v>
+        <v>23851122</v>
       </c>
       <c r="AW75" s="19">
-        <v>23851122</v>
+        <v>23711020</v>
       </c>
       <c r="AX75" s="19">
-        <v>23711020</v>
+        <v>7807661</v>
       </c>
       <c r="AY75" s="19">
-        <v>7807661</v>
+        <v>14418981</v>
       </c>
       <c r="AZ75" s="19">
-        <v>14418981</v>
+        <v>9661840</v>
       </c>
       <c r="BA75" s="19">
-        <v>9661840</v>
+        <v>15588622</v>
       </c>
       <c r="BB75" s="19">
-        <v>14261725</v>
+        <v>20010347</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10645,11 +10645,11 @@
       <c r="AQ82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR82" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS82" s="11">
-        <v>0</v>
+      <c r="AR82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS82" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT82" s="11" t="s">
         <v>57</v>
@@ -10657,23 +10657,23 @@
       <c r="AU82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV82" s="11" t="s">
-        <v>57</v>
+      <c r="AV82" s="11">
+        <v>157774313</v>
       </c>
       <c r="AW82" s="11">
-        <v>157774313</v>
+        <v>250630682</v>
       </c>
       <c r="AX82" s="11">
-        <v>250630682</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ82" s="11">
         <v>185545455</v>
       </c>
-      <c r="BA82" s="11" t="s">
-        <v>57</v>
+      <c r="AZ82" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA82" s="11">
+        <v>0</v>
       </c>
       <c r="BB82" s="11" t="s">
         <v>57</v>
@@ -10738,104 +10738,104 @@
       <c r="U83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V83" s="13" t="s">
-        <v>57</v>
+      <c r="V83" s="13">
+        <v>24232484</v>
       </c>
       <c r="W83" s="13">
-        <v>24232484</v>
+        <v>29751854</v>
       </c>
       <c r="X83" s="13">
-        <v>29751854</v>
+        <v>35691515</v>
       </c>
       <c r="Y83" s="13">
-        <v>35691515</v>
+        <v>31671738</v>
       </c>
       <c r="Z83" s="13">
-        <v>31671738</v>
+        <v>32334489</v>
       </c>
       <c r="AA83" s="13">
-        <v>32334489</v>
+        <v>51628738</v>
       </c>
       <c r="AB83" s="13">
-        <v>51628738</v>
+        <v>26982749</v>
       </c>
       <c r="AC83" s="13">
-        <v>26982749</v>
+        <v>15348984</v>
       </c>
       <c r="AD83" s="13">
-        <v>15348984</v>
+        <v>31303379</v>
       </c>
       <c r="AE83" s="13">
-        <v>31303379</v>
+        <v>29024165</v>
       </c>
       <c r="AF83" s="13">
-        <v>29024165</v>
+        <v>32107324</v>
       </c>
       <c r="AG83" s="13">
-        <v>32107324</v>
+        <v>31915975</v>
       </c>
       <c r="AH83" s="13">
-        <v>31915975</v>
+        <v>31607259</v>
       </c>
       <c r="AI83" s="13">
-        <v>31607259</v>
+        <v>28785571</v>
       </c>
       <c r="AJ83" s="13">
-        <v>28785571</v>
+        <v>40648034</v>
       </c>
       <c r="AK83" s="13">
-        <v>40648034</v>
+        <v>37226427</v>
       </c>
       <c r="AL83" s="13">
-        <v>37226427</v>
+        <v>37669424</v>
       </c>
       <c r="AM83" s="13">
-        <v>37669424</v>
+        <v>34822752</v>
       </c>
       <c r="AN83" s="13">
-        <v>34822752</v>
+        <v>35245722</v>
       </c>
       <c r="AO83" s="13">
-        <v>35245722</v>
+        <v>35485879</v>
       </c>
       <c r="AP83" s="13">
-        <v>35485879</v>
+        <v>37735220</v>
       </c>
       <c r="AQ83" s="13">
-        <v>37735220</v>
+        <v>39202985</v>
       </c>
       <c r="AR83" s="13">
-        <v>39202985</v>
+        <v>40494177</v>
       </c>
       <c r="AS83" s="13">
-        <v>40494177</v>
+        <v>40462829</v>
       </c>
       <c r="AT83" s="13">
-        <v>40462829</v>
+        <v>40389589</v>
       </c>
       <c r="AU83" s="13">
-        <v>40389589</v>
+        <v>41451528</v>
       </c>
       <c r="AV83" s="13">
-        <v>41451528</v>
+        <v>151540977</v>
       </c>
       <c r="AW83" s="13">
-        <v>151540977</v>
+        <v>167209468</v>
       </c>
       <c r="AX83" s="13">
-        <v>167209468</v>
+        <v>152458792</v>
       </c>
       <c r="AY83" s="13">
-        <v>152458792</v>
+        <v>126122878</v>
       </c>
       <c r="AZ83" s="13">
-        <v>126122878</v>
+        <v>134501449</v>
       </c>
       <c r="BA83" s="13">
-        <v>134501449</v>
+        <v>114690000</v>
       </c>
       <c r="BB83" s="13">
-        <v>114690000</v>
+        <v>120033333</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10933,41 +10933,41 @@
       <c r="AG84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH84" s="11" t="s">
-        <v>57</v>
+      <c r="AH84" s="11">
+        <v>16955667</v>
       </c>
       <c r="AI84" s="11">
-        <v>16955667</v>
+        <v>9983154</v>
       </c>
       <c r="AJ84" s="11">
-        <v>9983154</v>
+        <v>17067407</v>
       </c>
       <c r="AK84" s="11">
-        <v>17067407</v>
+        <v>18908712</v>
       </c>
       <c r="AL84" s="11">
-        <v>18908712</v>
+        <v>18946694</v>
       </c>
       <c r="AM84" s="11">
-        <v>18946694</v>
+        <v>18837389</v>
       </c>
       <c r="AN84" s="11">
-        <v>18837389</v>
-      </c>
-      <c r="AO84" s="11">
         <v>20725599</v>
       </c>
-      <c r="AP84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ84" s="11">
+      <c r="AO84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP84" s="11">
         <v>15144737</v>
       </c>
-      <c r="AR84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS84" s="11">
+      <c r="AQ84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR84" s="11">
         <v>813510</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT84" s="11" t="s">
         <v>57</v>
@@ -11056,104 +11056,104 @@
       <c r="U85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V85" s="13" t="s">
-        <v>57</v>
+      <c r="V85" s="13">
+        <v>86358889</v>
       </c>
       <c r="W85" s="13">
-        <v>86358889</v>
+        <v>86304176</v>
       </c>
       <c r="X85" s="13">
-        <v>86304176</v>
+        <v>86269828</v>
       </c>
       <c r="Y85" s="13">
-        <v>86269828</v>
+        <v>90609574</v>
       </c>
       <c r="Z85" s="13">
-        <v>90609574</v>
+        <v>90773985</v>
       </c>
       <c r="AA85" s="13">
-        <v>90773985</v>
+        <v>94295569</v>
       </c>
       <c r="AB85" s="13">
-        <v>94295569</v>
+        <v>100947812</v>
       </c>
       <c r="AC85" s="13">
-        <v>100947812</v>
+        <v>103530079</v>
       </c>
       <c r="AD85" s="13">
-        <v>103530079</v>
+        <v>115273465</v>
       </c>
       <c r="AE85" s="13">
-        <v>115273465</v>
+        <v>117919489</v>
       </c>
       <c r="AF85" s="13">
-        <v>117919489</v>
+        <v>114475088</v>
       </c>
       <c r="AG85" s="13">
-        <v>114475088</v>
+        <v>122844581</v>
       </c>
       <c r="AH85" s="13">
-        <v>122844581</v>
+        <v>120195698</v>
       </c>
       <c r="AI85" s="13">
-        <v>120195698</v>
+        <v>131897091</v>
       </c>
       <c r="AJ85" s="13">
-        <v>131897091</v>
+        <v>160213410</v>
       </c>
       <c r="AK85" s="13">
-        <v>160213410</v>
+        <v>158220497</v>
       </c>
       <c r="AL85" s="13">
-        <v>158220497</v>
+        <v>160104299</v>
       </c>
       <c r="AM85" s="13">
-        <v>160104299</v>
+        <v>151942932</v>
       </c>
       <c r="AN85" s="13">
-        <v>151942932</v>
+        <v>156097979</v>
       </c>
       <c r="AO85" s="13">
-        <v>156097979</v>
+        <v>145981694</v>
       </c>
       <c r="AP85" s="13">
-        <v>145981694</v>
+        <v>156619432</v>
       </c>
       <c r="AQ85" s="13">
-        <v>156619432</v>
+        <v>163920834</v>
       </c>
       <c r="AR85" s="13">
-        <v>163920834</v>
+        <v>157528182</v>
       </c>
       <c r="AS85" s="13">
-        <v>157528182</v>
+        <v>157438478</v>
       </c>
       <c r="AT85" s="13">
-        <v>157438478</v>
+        <v>162961250</v>
       </c>
       <c r="AU85" s="13">
-        <v>162961250</v>
+        <v>451138019</v>
       </c>
       <c r="AV85" s="13">
-        <v>451138019</v>
+        <v>775403654</v>
       </c>
       <c r="AW85" s="13">
-        <v>775403654</v>
+        <v>769897809</v>
       </c>
       <c r="AX85" s="13">
-        <v>769897809</v>
+        <v>699171857</v>
       </c>
       <c r="AY85" s="13">
-        <v>699171857</v>
+        <v>695093625</v>
       </c>
       <c r="AZ85" s="13">
-        <v>695093625</v>
+        <v>685612205</v>
       </c>
       <c r="BA85" s="13">
-        <v>685612205</v>
+        <v>683875176</v>
       </c>
       <c r="BB85" s="13">
-        <v>683875176</v>
+        <v>678798544</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11251,41 +11251,41 @@
       <c r="AG86" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH86" s="11" t="s">
-        <v>57</v>
+      <c r="AH86" s="11">
+        <v>31000052</v>
       </c>
       <c r="AI86" s="11">
-        <v>31000052</v>
+        <v>31008553</v>
       </c>
       <c r="AJ86" s="11">
-        <v>31008553</v>
-      </c>
-      <c r="AK86" s="11">
         <v>31113208</v>
       </c>
-      <c r="AL86" s="11" t="s">
-        <v>57</v>
+      <c r="AK86" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL86" s="11">
+        <v>35000020</v>
       </c>
       <c r="AM86" s="11">
-        <v>35000020</v>
+        <v>35000025</v>
       </c>
       <c r="AN86" s="11">
-        <v>35000025</v>
+        <v>35000436</v>
       </c>
       <c r="AO86" s="11">
-        <v>35000436</v>
+        <v>35002423</v>
       </c>
       <c r="AP86" s="11">
-        <v>35002423</v>
+        <v>34977477</v>
       </c>
       <c r="AQ86" s="11">
-        <v>34977477</v>
+        <v>42317647</v>
       </c>
       <c r="AR86" s="11">
-        <v>42317647</v>
-      </c>
-      <c r="AS86" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS86" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT86" s="11" t="s">
         <v>57</v>
@@ -11410,68 +11410,68 @@
       <c r="AG87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH87" s="13" t="s">
-        <v>57</v>
+      <c r="AH87" s="13">
+        <v>75443213</v>
       </c>
       <c r="AI87" s="13">
-        <v>75443213</v>
+        <v>79812030</v>
       </c>
       <c r="AJ87" s="13">
-        <v>79812030</v>
+        <v>92959807</v>
       </c>
       <c r="AK87" s="13">
-        <v>92959807</v>
+        <v>96969008</v>
       </c>
       <c r="AL87" s="13">
-        <v>96969008</v>
+        <v>27165354</v>
       </c>
       <c r="AM87" s="13">
-        <v>27165354</v>
+        <v>100143174</v>
       </c>
       <c r="AN87" s="13">
-        <v>100143174</v>
+        <v>92541599</v>
       </c>
       <c r="AO87" s="13">
-        <v>92541599</v>
+        <v>100885431</v>
       </c>
       <c r="AP87" s="13">
-        <v>100885431</v>
+        <v>114927711</v>
       </c>
       <c r="AQ87" s="13">
-        <v>114927711</v>
+        <v>68419913</v>
       </c>
       <c r="AR87" s="13">
-        <v>68419913</v>
+        <v>111438221</v>
       </c>
       <c r="AS87" s="13">
-        <v>111438221</v>
+        <v>100097606</v>
       </c>
       <c r="AT87" s="13">
-        <v>100097606</v>
+        <v>77258427</v>
       </c>
       <c r="AU87" s="13">
-        <v>77258427</v>
+        <v>170983520</v>
       </c>
       <c r="AV87" s="13">
-        <v>170983520</v>
+        <v>85567010</v>
       </c>
       <c r="AW87" s="13">
-        <v>85567010</v>
+        <v>232597920</v>
       </c>
       <c r="AX87" s="13">
-        <v>232597920</v>
+        <v>156081250</v>
       </c>
       <c r="AY87" s="13">
-        <v>156081250</v>
+        <v>154045872</v>
       </c>
       <c r="AZ87" s="13">
-        <v>154045872</v>
+        <v>160125000</v>
       </c>
       <c r="BA87" s="13">
-        <v>160125000</v>
+        <v>133351145</v>
       </c>
       <c r="BB87" s="13">
-        <v>133351145</v>
+        <v>152943534</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11539,38 +11539,38 @@
       <c r="W88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X88" s="11" t="s">
-        <v>57</v>
+      <c r="X88" s="11">
+        <v>15000084</v>
       </c>
       <c r="Y88" s="11">
-        <v>15000084</v>
+        <v>15000000</v>
       </c>
       <c r="Z88" s="11">
-        <v>15000000</v>
+        <v>15000040</v>
       </c>
       <c r="AA88" s="11">
-        <v>15000040</v>
+        <v>14938840</v>
       </c>
       <c r="AB88" s="11">
-        <v>14938840</v>
+        <v>14925711</v>
       </c>
       <c r="AC88" s="11">
-        <v>14925711</v>
+        <v>26898865</v>
       </c>
       <c r="AD88" s="11">
-        <v>26898865</v>
+        <v>20410320</v>
       </c>
       <c r="AE88" s="11">
-        <v>20410320</v>
+        <v>28878784</v>
       </c>
       <c r="AF88" s="11">
-        <v>28878784</v>
+        <v>22906081</v>
       </c>
       <c r="AG88" s="11">
-        <v>22906081</v>
-      </c>
-      <c r="AH88" s="11">
         <v>19183432</v>
+      </c>
+      <c r="AH88" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI88" s="11" t="s">
         <v>57</v>
@@ -11731,21 +11731,21 @@
       <c r="AH89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI89" s="13" t="s">
-        <v>57</v>
+      <c r="AI89" s="13">
+        <v>1867533333</v>
       </c>
       <c r="AJ89" s="13">
-        <v>1867533333</v>
+        <v>2268000000</v>
       </c>
       <c r="AK89" s="13">
-        <v>2268000000</v>
+        <v>3506500000</v>
       </c>
       <c r="AL89" s="13">
-        <v>3506500000</v>
-      </c>
-      <c r="AM89" s="13">
         <v>228455285</v>
       </c>
+      <c r="AM89" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AN89" s="13" t="s">
         <v>57</v>
       </c>
@@ -11758,35 +11758,35 @@
       <c r="AQ89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR89" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS89" s="13">
+      <c r="AR89" s="13">
         <v>-3560876923</v>
       </c>
+      <c r="AS89" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU89" s="13" t="s">
-        <v>57</v>
+      <c r="AU89" s="13">
+        <v>9425000000</v>
       </c>
       <c r="AV89" s="13">
-        <v>9425000000</v>
+        <v>115963000000</v>
       </c>
       <c r="AW89" s="13">
-        <v>115963000000</v>
+        <v>0</v>
       </c>
       <c r="AX89" s="13">
         <v>0</v>
       </c>
       <c r="AY89" s="13">
-        <v>0</v>
+        <v>46746803</v>
       </c>
       <c r="AZ89" s="13">
-        <v>46746803</v>
-      </c>
-      <c r="BA89" s="13">
         <v>14847000000</v>
+      </c>
+      <c r="BA89" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB89" s="13" t="s">
         <v>57</v>
@@ -11887,68 +11887,68 @@
       <c r="AG90" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AH90" s="11" t="s">
-        <v>57</v>
+      <c r="AH90" s="11">
+        <v>74558014</v>
       </c>
       <c r="AI90" s="11">
-        <v>74558014</v>
+        <v>70137221</v>
       </c>
       <c r="AJ90" s="11">
-        <v>70137221</v>
+        <v>85388018</v>
       </c>
       <c r="AK90" s="11">
-        <v>85388018</v>
+        <v>102855960</v>
       </c>
       <c r="AL90" s="11">
-        <v>102855960</v>
+        <v>81111604</v>
       </c>
       <c r="AM90" s="11">
-        <v>81111604</v>
+        <v>84739632</v>
       </c>
       <c r="AN90" s="11">
-        <v>84739632</v>
+        <v>102039634</v>
       </c>
       <c r="AO90" s="11">
-        <v>102039634</v>
+        <v>104784993</v>
       </c>
       <c r="AP90" s="11">
-        <v>104784993</v>
+        <v>86374486</v>
       </c>
       <c r="AQ90" s="11">
-        <v>86374486</v>
+        <v>1385100000</v>
       </c>
       <c r="AR90" s="11">
-        <v>1385100000</v>
+        <v>123944497</v>
       </c>
       <c r="AS90" s="11">
-        <v>123944497</v>
+        <v>108258148</v>
       </c>
       <c r="AT90" s="11">
-        <v>108258148</v>
+        <v>102516569</v>
       </c>
       <c r="AU90" s="11">
-        <v>102516569</v>
+        <v>226932432</v>
       </c>
       <c r="AV90" s="11">
-        <v>226932432</v>
+        <v>594219355</v>
       </c>
       <c r="AW90" s="11">
-        <v>594219355</v>
+        <v>560734291</v>
       </c>
       <c r="AX90" s="11">
-        <v>560734291</v>
+        <v>522118966</v>
       </c>
       <c r="AY90" s="11">
-        <v>522118966</v>
+        <v>526647982</v>
       </c>
       <c r="AZ90" s="11">
-        <v>526647982</v>
+        <v>491133591</v>
       </c>
       <c r="BA90" s="11">
-        <v>491133591</v>
+        <v>459013667</v>
       </c>
       <c r="BB90" s="11">
-        <v>459013667</v>
+        <v>462073322</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12070,26 +12070,26 @@
       <c r="AO91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP91" s="13" t="s">
-        <v>57</v>
+      <c r="AP91" s="13">
+        <v>7606927</v>
       </c>
       <c r="AQ91" s="13">
-        <v>7606927</v>
+        <v>7746237</v>
       </c>
       <c r="AR91" s="13">
-        <v>7746237</v>
-      </c>
-      <c r="AS91" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS91" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU91" s="13" t="s">
-        <v>57</v>
+      <c r="AU91" s="13">
+        <v>11333333</v>
       </c>
       <c r="AV91" s="13">
-        <v>11333333</v>
+        <v>0</v>
       </c>
       <c r="AW91" s="13">
         <v>0</v>
@@ -12098,13 +12098,13 @@
         <v>0</v>
       </c>
       <c r="AY91" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ91" s="13">
         <v>-5753333333</v>
       </c>
-      <c r="BA91" s="13" t="s">
-        <v>57</v>
+      <c r="AZ91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA91" s="13">
+        <v>0</v>
       </c>
       <c r="BB91" s="13" t="s">
         <v>57</v>

--- a/database/industries/ghaza/ghekurosh/product/monthly.xlsx
+++ b/database/industries/ghaza/ghekurosh/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghekurosh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghekurosh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C8F81-2325-46F0-8480-C5A9C53A27D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2943CE4F-159C-430B-BB87-CAC13F4CBCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>صادرات</t>
@@ -1528,8 +1528,8 @@
       <c r="AM11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>57</v>
+      <c r="AN11" s="11">
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
+        <v>12430</v>
       </c>
       <c r="AT11" s="11">
-        <v>12430</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
@@ -1618,8 +1618,8 @@
       <c r="P12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>57</v>
+      <c r="Q12" s="13">
+        <v>0</v>
       </c>
       <c r="R12" s="13">
         <v>0</v>
@@ -1813,8 +1813,8 @@
       <c r="AB13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>57</v>
+      <c r="AC13" s="11">
+        <v>0</v>
       </c>
       <c r="AD13" s="11">
         <v>0</v>
@@ -1936,119 +1936,119 @@
       <c r="P14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>57</v>
+      <c r="Q14" s="13">
+        <v>17382</v>
       </c>
       <c r="R14" s="13">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="S14" s="13">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="T14" s="13">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="U14" s="13">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="V14" s="13">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="W14" s="13">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="X14" s="13">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="Y14" s="13">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="Z14" s="13">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AA14" s="13">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AB14" s="13">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AC14" s="13">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AD14" s="13">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AE14" s="13">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AF14" s="13">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AG14" s="13">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AH14" s="13">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AI14" s="13">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AJ14" s="13">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AK14" s="13">
-        <v>25616</v>
+        <v>25461</v>
       </c>
       <c r="AL14" s="13">
-        <v>25461</v>
+        <v>11085</v>
       </c>
       <c r="AM14" s="13">
-        <v>11085</v>
+        <v>19739</v>
       </c>
       <c r="AN14" s="13">
-        <v>19739</v>
+        <v>33826</v>
       </c>
       <c r="AO14" s="13">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AP14" s="13">
-        <v>12712</v>
+        <v>19580</v>
       </c>
       <c r="AQ14" s="13">
-        <v>19580</v>
+        <v>30927</v>
       </c>
       <c r="AR14" s="13">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AS14" s="13">
-        <v>30658</v>
+        <v>12430</v>
       </c>
       <c r="AT14" s="13">
-        <v>12430</v>
+        <v>21707</v>
       </c>
       <c r="AU14" s="13">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="AV14" s="13">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="AW14" s="13">
-        <v>22661</v>
+        <v>29957</v>
       </c>
       <c r="AX14" s="13">
-        <v>29957</v>
+        <v>26199</v>
       </c>
       <c r="AY14" s="13">
-        <v>26199</v>
+        <v>33384</v>
       </c>
       <c r="AZ14" s="13">
-        <v>33384</v>
+        <v>30890</v>
       </c>
       <c r="BA14" s="13">
-        <v>30890</v>
+        <v>11796</v>
       </c>
       <c r="BB14" s="13">
-        <v>11796</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2131,8 +2131,8 @@
       <c r="AB15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>57</v>
+      <c r="AC15" s="11">
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
         <v>0</v>
@@ -2290,8 +2290,8 @@
       <c r="AB16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC16" s="13" t="s">
-        <v>57</v>
+      <c r="AC16" s="13">
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
         <v>0</v>
@@ -2419,8 +2419,8 @@
       <c r="R17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="11" t="s">
-        <v>57</v>
+      <c r="S17" s="11">
+        <v>0</v>
       </c>
       <c r="T17" s="11">
         <v>0</v>
@@ -2449,8 +2449,8 @@
       <c r="AB17" s="11">
         <v>0</v>
       </c>
-      <c r="AC17" s="11">
-        <v>0</v>
+      <c r="AC17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD17" s="11" t="s">
         <v>57</v>
@@ -2608,8 +2608,8 @@
       <c r="AB18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC18" s="13" t="s">
-        <v>57</v>
+      <c r="AC18" s="13">
+        <v>0</v>
       </c>
       <c r="AD18" s="13">
         <v>0</v>
@@ -2767,8 +2767,8 @@
       <c r="AB19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC19" s="11" t="s">
-        <v>57</v>
+      <c r="AC19" s="11">
+        <v>0</v>
       </c>
       <c r="AD19" s="11">
         <v>0</v>
@@ -2950,26 +2950,26 @@
       <c r="AJ20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK20" s="13" t="s">
-        <v>57</v>
+      <c r="AK20" s="13">
+        <v>3007</v>
       </c>
       <c r="AL20" s="13">
-        <v>3007</v>
+        <v>399</v>
       </c>
       <c r="AM20" s="13">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="13">
         <v>0</v>
       </c>
       <c r="AP20" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ20" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
@@ -3104,8 +3104,8 @@
       <c r="P22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q22" s="17" t="s">
-        <v>57</v>
+      <c r="Q22" s="17">
+        <v>0</v>
       </c>
       <c r="R22" s="17">
         <v>0</v>
@@ -3262,118 +3262,118 @@
         <v>0</v>
       </c>
       <c r="Q23" s="19">
-        <v>0</v>
+        <v>17382</v>
       </c>
       <c r="R23" s="19">
-        <v>17382</v>
+        <v>22659</v>
       </c>
       <c r="S23" s="19">
-        <v>22659</v>
+        <v>18449</v>
       </c>
       <c r="T23" s="19">
-        <v>18449</v>
+        <v>26823</v>
       </c>
       <c r="U23" s="19">
-        <v>26823</v>
+        <v>27292</v>
       </c>
       <c r="V23" s="19">
-        <v>27292</v>
+        <v>22319</v>
       </c>
       <c r="W23" s="19">
-        <v>22319</v>
+        <v>23272</v>
       </c>
       <c r="X23" s="19">
-        <v>23272</v>
+        <v>21754</v>
       </c>
       <c r="Y23" s="19">
-        <v>21754</v>
+        <v>28740</v>
       </c>
       <c r="Z23" s="19">
-        <v>28740</v>
+        <v>25302</v>
       </c>
       <c r="AA23" s="19">
-        <v>25302</v>
+        <v>31103</v>
       </c>
       <c r="AB23" s="19">
-        <v>31103</v>
+        <v>28818</v>
       </c>
       <c r="AC23" s="19">
-        <v>28818</v>
+        <v>25009</v>
       </c>
       <c r="AD23" s="19">
-        <v>25009</v>
+        <v>31584</v>
       </c>
       <c r="AE23" s="19">
-        <v>31584</v>
+        <v>31980</v>
       </c>
       <c r="AF23" s="19">
-        <v>31980</v>
+        <v>30208</v>
       </c>
       <c r="AG23" s="19">
-        <v>30208</v>
+        <v>19553</v>
       </c>
       <c r="AH23" s="19">
-        <v>19553</v>
+        <v>23099</v>
       </c>
       <c r="AI23" s="19">
-        <v>23099</v>
+        <v>21799</v>
       </c>
       <c r="AJ23" s="19">
-        <v>21799</v>
+        <v>25616</v>
       </c>
       <c r="AK23" s="19">
-        <v>25616</v>
+        <v>28468</v>
       </c>
       <c r="AL23" s="19">
-        <v>28468</v>
+        <v>11484</v>
       </c>
       <c r="AM23" s="19">
-        <v>11484</v>
+        <v>19740</v>
       </c>
       <c r="AN23" s="19">
-        <v>19740</v>
+        <v>33826</v>
       </c>
       <c r="AO23" s="19">
-        <v>33826</v>
+        <v>12712</v>
       </c>
       <c r="AP23" s="19">
-        <v>12712</v>
+        <v>19586</v>
       </c>
       <c r="AQ23" s="19">
-        <v>19586</v>
+        <v>30927</v>
       </c>
       <c r="AR23" s="19">
-        <v>30927</v>
+        <v>30658</v>
       </c>
       <c r="AS23" s="19">
-        <v>30658</v>
+        <v>24860</v>
       </c>
       <c r="AT23" s="19">
-        <v>24860</v>
+        <v>21707</v>
       </c>
       <c r="AU23" s="19">
-        <v>21707</v>
+        <v>15195</v>
       </c>
       <c r="AV23" s="19">
-        <v>15195</v>
+        <v>22661</v>
       </c>
       <c r="AW23" s="19">
-        <v>22661</v>
+        <v>29957</v>
       </c>
       <c r="AX23" s="19">
-        <v>29957</v>
+        <v>26199</v>
       </c>
       <c r="AY23" s="19">
-        <v>26199</v>
+        <v>33384</v>
       </c>
       <c r="AZ23" s="19">
-        <v>33384</v>
+        <v>30890</v>
       </c>
       <c r="BA23" s="19">
-        <v>30890</v>
+        <v>11796</v>
       </c>
       <c r="BB23" s="19">
-        <v>11796</v>
+        <v>24077</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3923,8 +3923,8 @@
       <c r="AM30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN30" s="11" t="s">
-        <v>57</v>
+      <c r="AN30" s="11">
+        <v>0</v>
       </c>
       <c r="AO30" s="11">
         <v>0</v>
@@ -3933,19 +3933,19 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="11">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="AR30" s="11">
-        <v>511</v>
+        <v>176</v>
       </c>
       <c r="AS30" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="11">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AU30" s="11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="11">
         <v>0</v>
@@ -4013,107 +4013,107 @@
       <c r="P31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q31" s="13" t="s">
-        <v>57</v>
+      <c r="Q31" s="13">
+        <v>1570</v>
       </c>
       <c r="R31" s="13">
-        <v>1570</v>
+        <v>7282</v>
       </c>
       <c r="S31" s="13">
-        <v>7282</v>
+        <v>8156</v>
       </c>
       <c r="T31" s="13">
-        <v>8156</v>
+        <v>33190</v>
       </c>
       <c r="U31" s="13">
-        <v>33190</v>
+        <v>12978</v>
       </c>
       <c r="V31" s="13">
-        <v>12978</v>
+        <v>16953</v>
       </c>
       <c r="W31" s="13">
-        <v>16953</v>
+        <v>21970</v>
       </c>
       <c r="X31" s="13">
-        <v>21970</v>
+        <v>58484</v>
       </c>
       <c r="Y31" s="13">
-        <v>58484</v>
+        <v>49364</v>
       </c>
       <c r="Z31" s="13">
-        <v>49364</v>
+        <v>19574</v>
       </c>
       <c r="AA31" s="13">
-        <v>19574</v>
+        <v>78855</v>
       </c>
       <c r="AB31" s="13">
-        <v>78855</v>
+        <v>61446</v>
       </c>
       <c r="AC31" s="13">
-        <v>61446</v>
+        <v>3995</v>
       </c>
       <c r="AD31" s="13">
-        <v>3995</v>
+        <v>11505</v>
       </c>
       <c r="AE31" s="13">
-        <v>11505</v>
+        <v>9410</v>
       </c>
       <c r="AF31" s="13">
-        <v>9410</v>
+        <v>3118</v>
       </c>
       <c r="AG31" s="13">
-        <v>3118</v>
+        <v>5802</v>
       </c>
       <c r="AH31" s="13">
-        <v>5802</v>
+        <v>67448</v>
       </c>
       <c r="AI31" s="13">
-        <v>67448</v>
+        <v>27584</v>
       </c>
       <c r="AJ31" s="13">
-        <v>27584</v>
+        <v>16784</v>
       </c>
       <c r="AK31" s="13">
-        <v>16784</v>
+        <v>5582</v>
       </c>
       <c r="AL31" s="13">
-        <v>5582</v>
+        <v>7237</v>
       </c>
       <c r="AM31" s="13">
-        <v>7237</v>
+        <v>2338</v>
       </c>
       <c r="AN31" s="13">
-        <v>2338</v>
+        <v>4708</v>
       </c>
       <c r="AO31" s="13">
-        <v>4708</v>
+        <v>1825</v>
       </c>
       <c r="AP31" s="13">
-        <v>1825</v>
+        <v>6478</v>
       </c>
       <c r="AQ31" s="13">
-        <v>6478</v>
+        <v>2416</v>
       </c>
       <c r="AR31" s="13">
-        <v>2416</v>
+        <v>2387</v>
       </c>
       <c r="AS31" s="13">
-        <v>2387</v>
+        <v>4538</v>
       </c>
       <c r="AT31" s="13">
-        <v>4538</v>
+        <v>1473</v>
       </c>
       <c r="AU31" s="13">
-        <v>1473</v>
+        <v>345</v>
       </c>
       <c r="AV31" s="13">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="AW31" s="13">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AX31" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="13">
         <v>0</v>
@@ -4208,35 +4208,35 @@
       <c r="AB32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC32" s="11" t="s">
-        <v>57</v>
+      <c r="AC32" s="11">
+        <v>6970</v>
       </c>
       <c r="AD32" s="11">
-        <v>6970</v>
+        <v>4274</v>
       </c>
       <c r="AE32" s="11">
-        <v>4274</v>
+        <v>1350</v>
       </c>
       <c r="AF32" s="11">
-        <v>1350</v>
+        <v>23738</v>
       </c>
       <c r="AG32" s="11">
-        <v>23738</v>
+        <v>1951</v>
       </c>
       <c r="AH32" s="11">
-        <v>1951</v>
+        <v>2589</v>
       </c>
       <c r="AI32" s="11">
-        <v>2589</v>
+        <v>543</v>
       </c>
       <c r="AJ32" s="11">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="11">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AL32" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="11">
         <v>0</v>
@@ -4272,19 +4272,19 @@
         <v>0</v>
       </c>
       <c r="AX32" s="11">
-        <v>0</v>
+        <v>6536</v>
       </c>
       <c r="AY32" s="11">
-        <v>6536</v>
+        <v>5253</v>
       </c>
       <c r="AZ32" s="11">
-        <v>5253</v>
+        <v>11983</v>
       </c>
       <c r="BA32" s="11">
-        <v>11983</v>
+        <v>16733</v>
       </c>
       <c r="BB32" s="11">
-        <v>16733</v>
+        <v>8580</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4331,119 +4331,119 @@
       <c r="P33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q33" s="13" t="s">
-        <v>57</v>
+      <c r="Q33" s="13">
+        <v>18574</v>
       </c>
       <c r="R33" s="13">
-        <v>18574</v>
+        <v>21550</v>
       </c>
       <c r="S33" s="13">
-        <v>21550</v>
+        <v>19001</v>
       </c>
       <c r="T33" s="13">
-        <v>19001</v>
+        <v>26133</v>
       </c>
       <c r="U33" s="13">
-        <v>26133</v>
+        <v>26600</v>
       </c>
       <c r="V33" s="13">
-        <v>26600</v>
+        <v>20831</v>
       </c>
       <c r="W33" s="13">
-        <v>20831</v>
+        <v>23243</v>
       </c>
       <c r="X33" s="13">
-        <v>23243</v>
+        <v>22308</v>
       </c>
       <c r="Y33" s="13">
-        <v>22308</v>
+        <v>26124</v>
       </c>
       <c r="Z33" s="13">
-        <v>26124</v>
+        <v>25599</v>
       </c>
       <c r="AA33" s="13">
-        <v>25599</v>
+        <v>29845</v>
       </c>
       <c r="AB33" s="13">
-        <v>29845</v>
+        <v>28703</v>
       </c>
       <c r="AC33" s="13">
-        <v>28703</v>
+        <v>23664</v>
       </c>
       <c r="AD33" s="13">
-        <v>23664</v>
+        <v>30075</v>
       </c>
       <c r="AE33" s="13">
-        <v>30075</v>
+        <v>31006</v>
       </c>
       <c r="AF33" s="13">
-        <v>31006</v>
+        <v>29302</v>
       </c>
       <c r="AG33" s="13">
-        <v>29302</v>
+        <v>19214</v>
       </c>
       <c r="AH33" s="13">
-        <v>19214</v>
+        <v>21641</v>
       </c>
       <c r="AI33" s="13">
-        <v>21641</v>
+        <v>21178</v>
       </c>
       <c r="AJ33" s="13">
-        <v>21178</v>
+        <v>23981</v>
       </c>
       <c r="AK33" s="13">
-        <v>23981</v>
+        <v>24784</v>
       </c>
       <c r="AL33" s="13">
-        <v>24784</v>
+        <v>12038</v>
       </c>
       <c r="AM33" s="13">
-        <v>12038</v>
+        <v>18373</v>
       </c>
       <c r="AN33" s="13">
-        <v>18373</v>
+        <v>32070</v>
       </c>
       <c r="AO33" s="13">
-        <v>32070</v>
+        <v>11613</v>
       </c>
       <c r="AP33" s="13">
-        <v>11613</v>
+        <v>19106</v>
       </c>
       <c r="AQ33" s="13">
-        <v>19106</v>
+        <v>30053</v>
       </c>
       <c r="AR33" s="13">
-        <v>30053</v>
+        <v>30071</v>
       </c>
       <c r="AS33" s="13">
-        <v>30071</v>
+        <v>11463</v>
       </c>
       <c r="AT33" s="13">
-        <v>11463</v>
+        <v>19984</v>
       </c>
       <c r="AU33" s="13">
-        <v>19984</v>
+        <v>14224</v>
       </c>
       <c r="AV33" s="13">
-        <v>14224</v>
+        <v>21350</v>
       </c>
       <c r="AW33" s="13">
-        <v>21350</v>
+        <v>27614</v>
       </c>
       <c r="AX33" s="13">
-        <v>27614</v>
+        <v>24343</v>
       </c>
       <c r="AY33" s="13">
-        <v>24343</v>
+        <v>29023</v>
       </c>
       <c r="AZ33" s="13">
-        <v>29023</v>
+        <v>29094</v>
       </c>
       <c r="BA33" s="13">
-        <v>29094</v>
+        <v>10580</v>
       </c>
       <c r="BB33" s="13">
-        <v>10580</v>
+        <v>22183</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4526,38 +4526,38 @@
       <c r="AB34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC34" s="11" t="s">
-        <v>57</v>
+      <c r="AC34" s="11">
+        <v>38539</v>
       </c>
       <c r="AD34" s="11">
-        <v>38539</v>
+        <v>1520</v>
       </c>
       <c r="AE34" s="11">
-        <v>1520</v>
+        <v>53</v>
       </c>
       <c r="AF34" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="11">
-        <v>0</v>
+        <v>50209</v>
       </c>
       <c r="AH34" s="11">
-        <v>50209</v>
+        <v>78984</v>
       </c>
       <c r="AI34" s="11">
-        <v>78984</v>
+        <v>20651</v>
       </c>
       <c r="AJ34" s="11">
-        <v>20651</v>
+        <v>4540</v>
       </c>
       <c r="AK34" s="11">
-        <v>4540</v>
+        <v>444</v>
       </c>
       <c r="AL34" s="11">
-        <v>444</v>
+        <v>85</v>
       </c>
       <c r="AM34" s="11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="11">
         <v>0</v>
@@ -4685,83 +4685,83 @@
       <c r="AB35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC35" s="13" t="s">
-        <v>57</v>
+      <c r="AC35" s="13">
+        <v>361</v>
       </c>
       <c r="AD35" s="13">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="AE35" s="13">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="AF35" s="13">
-        <v>622</v>
+        <v>484</v>
       </c>
       <c r="AG35" s="13">
-        <v>484</v>
+        <v>127</v>
       </c>
       <c r="AH35" s="13">
-        <v>127</v>
+        <v>901</v>
       </c>
       <c r="AI35" s="13">
-        <v>901</v>
+        <v>613</v>
       </c>
       <c r="AJ35" s="13">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="AK35" s="13">
-        <v>707</v>
+        <v>249</v>
       </c>
       <c r="AL35" s="13">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="AM35" s="13">
-        <v>231</v>
+        <v>927</v>
       </c>
       <c r="AN35" s="13">
-        <v>927</v>
+        <v>543</v>
       </c>
       <c r="AO35" s="13">
-        <v>543</v>
+        <v>89</v>
       </c>
       <c r="AP35" s="13">
-        <v>89</v>
+        <v>711</v>
       </c>
       <c r="AQ35" s="13">
-        <v>711</v>
+        <v>194</v>
       </c>
       <c r="AR35" s="13">
-        <v>194</v>
+        <v>577</v>
       </c>
       <c r="AS35" s="13">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="AT35" s="13">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="AU35" s="13">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="AV35" s="13">
-        <v>800</v>
+        <v>393</v>
       </c>
       <c r="AW35" s="13">
-        <v>393</v>
+        <v>549</v>
       </c>
       <c r="AX35" s="13">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="AY35" s="13">
-        <v>623</v>
+        <v>1033</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1033</v>
+        <v>766</v>
       </c>
       <c r="BA35" s="13">
-        <v>766</v>
+        <v>81</v>
       </c>
       <c r="BB35" s="13">
-        <v>81</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4814,38 +4814,38 @@
       <c r="R36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S36" s="11" t="s">
-        <v>57</v>
+      <c r="S36" s="11">
+        <v>23788</v>
       </c>
       <c r="T36" s="11">
-        <v>23788</v>
+        <v>64731</v>
       </c>
       <c r="U36" s="11">
-        <v>64731</v>
+        <v>24974</v>
       </c>
       <c r="V36" s="11">
-        <v>24974</v>
+        <v>54120</v>
       </c>
       <c r="W36" s="11">
-        <v>54120</v>
+        <v>49967</v>
       </c>
       <c r="X36" s="11">
-        <v>49967</v>
+        <v>84145</v>
       </c>
       <c r="Y36" s="11">
-        <v>84145</v>
+        <v>32655</v>
       </c>
       <c r="Z36" s="11">
-        <v>32655</v>
+        <v>57220</v>
       </c>
       <c r="AA36" s="11">
-        <v>57220</v>
+        <v>37181</v>
       </c>
       <c r="AB36" s="11">
-        <v>37181</v>
-      </c>
-      <c r="AC36" s="11">
         <v>101160</v>
+      </c>
+      <c r="AC36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD36" s="11" t="s">
         <v>57</v>
@@ -5003,23 +5003,23 @@
       <c r="AB37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC37" s="13" t="s">
-        <v>57</v>
+      <c r="AC37" s="13">
+        <v>0</v>
       </c>
       <c r="AD37" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE37" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF37" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG37" s="13">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="AH37" s="13">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="13">
         <v>0</v>
@@ -5034,52 +5034,52 @@
         <v>0</v>
       </c>
       <c r="AM37" s="13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN37" s="13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="13">
         <v>0</v>
       </c>
       <c r="AP37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="13">
         <v>1</v>
       </c>
       <c r="AR37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>706</v>
+      </c>
+      <c r="AU37" s="13">
         <v>1</v>
       </c>
-      <c r="AS37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU37" s="13">
-        <v>706</v>
-      </c>
       <c r="AV37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="13">
+        <v>358</v>
+      </c>
+      <c r="BA37" s="13">
         <v>1</v>
       </c>
-      <c r="AW37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA37" s="13">
-        <v>358</v>
-      </c>
       <c r="BB37" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5162,83 +5162,83 @@
       <c r="AB38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC38" s="11" t="s">
-        <v>57</v>
+      <c r="AC38" s="11">
+        <v>1853</v>
       </c>
       <c r="AD38" s="11">
-        <v>1853</v>
+        <v>1749</v>
       </c>
       <c r="AE38" s="11">
-        <v>1749</v>
+        <v>1786</v>
       </c>
       <c r="AF38" s="11">
-        <v>1786</v>
+        <v>604</v>
       </c>
       <c r="AG38" s="11">
-        <v>604</v>
+        <v>1577</v>
       </c>
       <c r="AH38" s="11">
-        <v>1577</v>
+        <v>4075</v>
       </c>
       <c r="AI38" s="11">
-        <v>4075</v>
+        <v>656</v>
       </c>
       <c r="AJ38" s="11">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="AK38" s="11">
-        <v>693</v>
+        <v>1701</v>
       </c>
       <c r="AL38" s="11">
-        <v>1701</v>
+        <v>10</v>
       </c>
       <c r="AM38" s="11">
-        <v>10</v>
+        <v>756</v>
       </c>
       <c r="AN38" s="11">
-        <v>756</v>
+        <v>2332</v>
       </c>
       <c r="AO38" s="11">
-        <v>2332</v>
+        <v>513</v>
       </c>
       <c r="AP38" s="11">
-        <v>513</v>
+        <v>74</v>
       </c>
       <c r="AQ38" s="11">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="AR38" s="11">
-        <v>155</v>
+        <v>1114</v>
       </c>
       <c r="AS38" s="11">
-        <v>1114</v>
+        <v>3211</v>
       </c>
       <c r="AT38" s="11">
-        <v>3211</v>
+        <v>1338</v>
       </c>
       <c r="AU38" s="11">
-        <v>1338</v>
+        <v>3623</v>
       </c>
       <c r="AV38" s="11">
-        <v>3623</v>
+        <v>3439</v>
       </c>
       <c r="AW38" s="11">
-        <v>3439</v>
+        <v>4037</v>
       </c>
       <c r="AX38" s="11">
-        <v>4037</v>
+        <v>4825</v>
       </c>
       <c r="AY38" s="11">
-        <v>4825</v>
+        <v>2929</v>
       </c>
       <c r="AZ38" s="11">
-        <v>2929</v>
+        <v>3887</v>
       </c>
       <c r="BA38" s="11">
-        <v>3887</v>
+        <v>288</v>
       </c>
       <c r="BB38" s="11">
-        <v>288</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5345,14 +5345,14 @@
       <c r="AJ39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK39" s="13" t="s">
-        <v>57</v>
+      <c r="AK39" s="13">
+        <v>2974</v>
       </c>
       <c r="AL39" s="13">
-        <v>2974</v>
+        <v>465</v>
       </c>
       <c r="AM39" s="13">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="13">
         <v>0</v>
@@ -5361,10 +5361,10 @@
         <v>0</v>
       </c>
       <c r="AP39" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ39" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="13">
         <v>0</v>
@@ -5499,8 +5499,8 @@
       <c r="P41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q41" s="17" t="s">
-        <v>57</v>
+      <c r="Q41" s="17">
+        <v>0</v>
       </c>
       <c r="R41" s="17">
         <v>0</v>
@@ -5799,17 +5799,17 @@
       <c r="AR43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT43" s="11">
+      <c r="AS43" s="11">
         <v>-90</v>
       </c>
-      <c r="AU43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV43" s="11">
+      <c r="AT43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU43" s="11">
         <v>-9</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW43" s="11" t="s">
         <v>57</v>
@@ -5979,11 +5979,11 @@
       <c r="AY44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA44" s="13">
+      <c r="AZ44" s="13">
         <v>-15</v>
+      </c>
+      <c r="BA44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB44" s="13" t="s">
         <v>57</v>
@@ -6105,47 +6105,47 @@
       <c r="AN45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO45" s="11" t="s">
-        <v>57</v>
+      <c r="AO45" s="11">
+        <v>31</v>
       </c>
       <c r="AP45" s="11">
-        <v>31</v>
-      </c>
-      <c r="AQ45" s="11">
         <v>10</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>57</v>
+      <c r="AQ45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR45" s="11">
+        <v>-861</v>
       </c>
       <c r="AS45" s="11">
-        <v>-861</v>
+        <v>-133</v>
       </c>
       <c r="AT45" s="11">
-        <v>-133</v>
+        <v>-213</v>
       </c>
       <c r="AU45" s="11">
-        <v>-213</v>
-      </c>
-      <c r="AV45" s="11">
         <v>-2400</v>
       </c>
-      <c r="AW45" s="11" t="s">
-        <v>57</v>
+      <c r="AV45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW45" s="11">
+        <v>-380</v>
       </c>
       <c r="AX45" s="11">
-        <v>-380</v>
+        <v>-85</v>
       </c>
       <c r="AY45" s="11">
-        <v>-85</v>
+        <v>-54</v>
       </c>
       <c r="AZ45" s="11">
-        <v>-54</v>
+        <v>-106</v>
       </c>
       <c r="BA45" s="11">
-        <v>-106</v>
+        <v>-3</v>
       </c>
       <c r="BB45" s="11">
-        <v>-3</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6291,11 +6291,11 @@
       <c r="AW46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY46" s="13">
+      <c r="AX46" s="13">
         <v>-30</v>
+      </c>
+      <c r="AY46" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ46" s="13" t="s">
         <v>57</v>
@@ -6435,11 +6435,11 @@
       <c r="AR47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>0</v>
+      <c r="AS47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU47" s="11" t="s">
         <v>57</v>
@@ -6594,23 +6594,23 @@
       <c r="AR48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS48" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT48" s="13">
+      <c r="AS48" s="13">
         <v>-18</v>
       </c>
+      <c r="AT48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AU48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV48" s="13" t="s">
-        <v>57</v>
+      <c r="AV48" s="13">
+        <v>-98</v>
       </c>
       <c r="AW48" s="13">
-        <v>-98</v>
-      </c>
-      <c r="AX48" s="13">
         <v>-25</v>
+      </c>
+      <c r="AX48" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY48" s="13" t="s">
         <v>57</v>
@@ -6667,8 +6667,8 @@
       <c r="P49" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q49" s="17" t="s">
-        <v>57</v>
+      <c r="Q49" s="17">
+        <v>0</v>
       </c>
       <c r="R49" s="17">
         <v>0</v>
@@ -6740,46 +6740,46 @@
         <v>0</v>
       </c>
       <c r="AO49" s="17">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP49" s="17">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="AQ49" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="17">
-        <v>0</v>
+        <v>-861</v>
       </c>
       <c r="AS49" s="17">
-        <v>-861</v>
+        <v>-241</v>
       </c>
       <c r="AT49" s="17">
-        <v>-241</v>
+        <v>-213</v>
       </c>
       <c r="AU49" s="17">
-        <v>-213</v>
+        <v>-2409</v>
       </c>
       <c r="AV49" s="17">
-        <v>-2409</v>
+        <v>-98</v>
       </c>
       <c r="AW49" s="17">
-        <v>-98</v>
+        <v>-405</v>
       </c>
       <c r="AX49" s="17">
-        <v>-405</v>
+        <v>-115</v>
       </c>
       <c r="AY49" s="17">
-        <v>-115</v>
+        <v>-54</v>
       </c>
       <c r="AZ49" s="17">
-        <v>-54</v>
+        <v>-121</v>
       </c>
       <c r="BA49" s="17">
-        <v>-121</v>
+        <v>-3</v>
       </c>
       <c r="BB49" s="17">
-        <v>-3</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6825,118 +6825,118 @@
         <v>0</v>
       </c>
       <c r="Q50" s="19">
-        <v>0</v>
+        <v>20144</v>
       </c>
       <c r="R50" s="19">
-        <v>20144</v>
+        <v>28832</v>
       </c>
       <c r="S50" s="19">
-        <v>28832</v>
+        <v>50945</v>
       </c>
       <c r="T50" s="19">
-        <v>50945</v>
+        <v>124054</v>
       </c>
       <c r="U50" s="19">
-        <v>124054</v>
+        <v>64552</v>
       </c>
       <c r="V50" s="19">
-        <v>64552</v>
+        <v>91904</v>
       </c>
       <c r="W50" s="19">
-        <v>91904</v>
+        <v>95180</v>
       </c>
       <c r="X50" s="19">
-        <v>95180</v>
+        <v>164937</v>
       </c>
       <c r="Y50" s="19">
-        <v>164937</v>
+        <v>108143</v>
       </c>
       <c r="Z50" s="19">
-        <v>108143</v>
+        <v>102393</v>
       </c>
       <c r="AA50" s="19">
-        <v>102393</v>
+        <v>145881</v>
       </c>
       <c r="AB50" s="19">
-        <v>145881</v>
+        <v>191309</v>
       </c>
       <c r="AC50" s="19">
-        <v>191309</v>
+        <v>75382</v>
       </c>
       <c r="AD50" s="19">
-        <v>75382</v>
+        <v>49537</v>
       </c>
       <c r="AE50" s="19">
-        <v>49537</v>
+        <v>44236</v>
       </c>
       <c r="AF50" s="19">
-        <v>44236</v>
+        <v>57252</v>
       </c>
       <c r="AG50" s="19">
-        <v>57252</v>
+        <v>79003</v>
       </c>
       <c r="AH50" s="19">
-        <v>79003</v>
+        <v>175638</v>
       </c>
       <c r="AI50" s="19">
-        <v>175638</v>
+        <v>71225</v>
       </c>
       <c r="AJ50" s="19">
-        <v>71225</v>
+        <v>46705</v>
       </c>
       <c r="AK50" s="19">
-        <v>46705</v>
+        <v>35810</v>
       </c>
       <c r="AL50" s="19">
-        <v>35810</v>
+        <v>20066</v>
       </c>
       <c r="AM50" s="19">
-        <v>20066</v>
+        <v>22459</v>
       </c>
       <c r="AN50" s="19">
-        <v>22459</v>
+        <v>39653</v>
       </c>
       <c r="AO50" s="19">
-        <v>39653</v>
+        <v>14071</v>
       </c>
       <c r="AP50" s="19">
-        <v>14071</v>
+        <v>26383</v>
       </c>
       <c r="AQ50" s="19">
-        <v>26383</v>
+        <v>33330</v>
       </c>
       <c r="AR50" s="19">
-        <v>33330</v>
+        <v>33464</v>
       </c>
       <c r="AS50" s="19">
-        <v>33464</v>
+        <v>19611</v>
       </c>
       <c r="AT50" s="19">
-        <v>19611</v>
+        <v>23986</v>
       </c>
       <c r="AU50" s="19">
-        <v>23986</v>
+        <v>16584</v>
       </c>
       <c r="AV50" s="19">
-        <v>16584</v>
+        <v>25384</v>
       </c>
       <c r="AW50" s="19">
-        <v>25384</v>
+        <v>31825</v>
       </c>
       <c r="AX50" s="19">
-        <v>31825</v>
+        <v>36212</v>
       </c>
       <c r="AY50" s="19">
-        <v>36212</v>
+        <v>38184</v>
       </c>
       <c r="AZ50" s="19">
-        <v>38184</v>
+        <v>45967</v>
       </c>
       <c r="BA50" s="19">
-        <v>45967</v>
+        <v>27680</v>
       </c>
       <c r="BB50" s="19">
-        <v>27680</v>
+        <v>32893</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7486,8 +7486,8 @@
       <c r="AM57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN57" s="11" t="s">
-        <v>57</v>
+      <c r="AN57" s="11">
+        <v>0</v>
       </c>
       <c r="AO57" s="11">
         <v>0</v>
@@ -7496,19 +7496,19 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="11">
-        <v>0</v>
+        <v>128110</v>
       </c>
       <c r="AR57" s="11">
-        <v>128110</v>
+        <v>44111</v>
       </c>
       <c r="AS57" s="11">
-        <v>44111</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="11">
-        <v>0</v>
+        <v>8164</v>
       </c>
       <c r="AU57" s="11">
-        <v>8164</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="11">
         <v>0</v>
@@ -7576,107 +7576,107 @@
       <c r="P58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q58" s="13" t="s">
-        <v>57</v>
+      <c r="Q58" s="13">
+        <v>38045</v>
       </c>
       <c r="R58" s="13">
-        <v>38045</v>
+        <v>216653</v>
       </c>
       <c r="S58" s="13">
-        <v>216653</v>
+        <v>291100</v>
       </c>
       <c r="T58" s="13">
-        <v>291100</v>
+        <v>1051185</v>
       </c>
       <c r="U58" s="13">
-        <v>1051185</v>
+        <v>419637</v>
       </c>
       <c r="V58" s="13">
-        <v>419637</v>
+        <v>875262</v>
       </c>
       <c r="W58" s="13">
-        <v>875262</v>
+        <v>592811</v>
       </c>
       <c r="X58" s="13">
-        <v>592811</v>
+        <v>897670</v>
       </c>
       <c r="Y58" s="13">
-        <v>897670</v>
+        <v>1545260</v>
       </c>
       <c r="Z58" s="13">
-        <v>1545260</v>
+        <v>568119</v>
       </c>
       <c r="AA58" s="13">
-        <v>568119</v>
+        <v>2531823</v>
       </c>
       <c r="AB58" s="13">
-        <v>2531823</v>
+        <v>1961109</v>
       </c>
       <c r="AC58" s="13">
-        <v>1961109</v>
+        <v>126271</v>
       </c>
       <c r="AD58" s="13">
-        <v>126271</v>
+        <v>331178</v>
       </c>
       <c r="AE58" s="13">
-        <v>331178</v>
+        <v>382498</v>
       </c>
       <c r="AF58" s="13">
-        <v>382498</v>
+        <v>116072</v>
       </c>
       <c r="AG58" s="13">
-        <v>116072</v>
+        <v>218558</v>
       </c>
       <c r="AH58" s="13">
-        <v>218558</v>
+        <v>2348725</v>
       </c>
       <c r="AI58" s="13">
-        <v>2348725</v>
+        <v>972218</v>
       </c>
       <c r="AJ58" s="13">
-        <v>972218</v>
+        <v>595595</v>
       </c>
       <c r="AK58" s="13">
-        <v>595595</v>
+        <v>210638</v>
       </c>
       <c r="AL58" s="13">
-        <v>210638</v>
+        <v>283712</v>
       </c>
       <c r="AM58" s="13">
-        <v>283712</v>
+        <v>93640</v>
       </c>
       <c r="AN58" s="13">
-        <v>93640</v>
+        <v>190499</v>
       </c>
       <c r="AO58" s="13">
-        <v>190499</v>
+        <v>73711</v>
       </c>
       <c r="AP58" s="13">
-        <v>73711</v>
+        <v>268523</v>
       </c>
       <c r="AQ58" s="13">
-        <v>268523</v>
+        <v>366123</v>
       </c>
       <c r="AR58" s="13">
-        <v>366123</v>
+        <v>399129</v>
       </c>
       <c r="AS58" s="13">
-        <v>399129</v>
+        <v>691858</v>
       </c>
       <c r="AT58" s="13">
-        <v>691858</v>
+        <v>185779</v>
       </c>
       <c r="AU58" s="13">
-        <v>185779</v>
+        <v>46403</v>
       </c>
       <c r="AV58" s="13">
-        <v>46403</v>
+        <v>34407</v>
       </c>
       <c r="AW58" s="13">
-        <v>34407</v>
+        <v>3601</v>
       </c>
       <c r="AX58" s="13">
-        <v>3601</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="13">
         <v>0</v>
@@ -7771,35 +7771,35 @@
       <c r="AB59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC59" s="11" t="s">
-        <v>57</v>
+      <c r="AC59" s="11">
+        <v>118181</v>
       </c>
       <c r="AD59" s="11">
-        <v>118181</v>
+        <v>42668</v>
       </c>
       <c r="AE59" s="11">
-        <v>42668</v>
+        <v>23041</v>
       </c>
       <c r="AF59" s="11">
-        <v>23041</v>
+        <v>448855</v>
       </c>
       <c r="AG59" s="11">
-        <v>448855</v>
+        <v>36965</v>
       </c>
       <c r="AH59" s="11">
-        <v>36965</v>
+        <v>48770</v>
       </c>
       <c r="AI59" s="11">
-        <v>48770</v>
+        <v>11254</v>
       </c>
       <c r="AJ59" s="11">
-        <v>11254</v>
+        <v>0</v>
       </c>
       <c r="AK59" s="11">
-        <v>0</v>
+        <v>1151</v>
       </c>
       <c r="AL59" s="11">
-        <v>1151</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="11">
         <v>0</v>
@@ -7835,19 +7835,19 @@
         <v>0</v>
       </c>
       <c r="AX59" s="11">
-        <v>0</v>
+        <v>717041</v>
       </c>
       <c r="AY59" s="11">
-        <v>717041</v>
+        <v>550129</v>
       </c>
       <c r="AZ59" s="11">
-        <v>550129</v>
+        <v>1255969</v>
       </c>
       <c r="BA59" s="11">
-        <v>1255969</v>
+        <v>1844859</v>
       </c>
       <c r="BB59" s="11">
-        <v>1844859</v>
+        <v>968491</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7894,119 +7894,119 @@
       <c r="P60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q60" s="13" t="s">
-        <v>57</v>
+      <c r="Q60" s="13">
+        <v>1604030</v>
       </c>
       <c r="R60" s="13">
-        <v>1604030</v>
+        <v>1859855</v>
       </c>
       <c r="S60" s="13">
-        <v>1859855</v>
+        <v>1639213</v>
       </c>
       <c r="T60" s="13">
-        <v>1639213</v>
+        <v>2367900</v>
       </c>
       <c r="U60" s="13">
-        <v>2367900</v>
+        <v>2414588</v>
       </c>
       <c r="V60" s="13">
-        <v>2414588</v>
+        <v>1964271</v>
       </c>
       <c r="W60" s="13">
-        <v>1964271</v>
+        <v>2346330</v>
       </c>
       <c r="X60" s="13">
-        <v>2346330</v>
+        <v>2309549</v>
       </c>
       <c r="Y60" s="13">
-        <v>2309549</v>
+        <v>3011404</v>
       </c>
       <c r="Z60" s="13">
-        <v>3011404</v>
+        <v>3018621</v>
       </c>
       <c r="AA60" s="13">
-        <v>3018621</v>
+        <v>3416509</v>
       </c>
       <c r="AB60" s="13">
-        <v>3416509</v>
+        <v>3526008</v>
       </c>
       <c r="AC60" s="13">
-        <v>3526008</v>
+        <v>2844311</v>
       </c>
       <c r="AD60" s="13">
-        <v>2844311</v>
+        <v>3966805</v>
       </c>
       <c r="AE60" s="13">
-        <v>3966805</v>
+        <v>4967577</v>
       </c>
       <c r="AF60" s="13">
-        <v>4967577</v>
+        <v>4636177</v>
       </c>
       <c r="AG60" s="13">
-        <v>4636177</v>
+        <v>3076244</v>
       </c>
       <c r="AH60" s="13">
-        <v>3076244</v>
+        <v>3288197</v>
       </c>
       <c r="AI60" s="13">
-        <v>3288197</v>
+        <v>3305843</v>
       </c>
       <c r="AJ60" s="13">
-        <v>3305843</v>
+        <v>3500787</v>
       </c>
       <c r="AK60" s="13">
-        <v>3500787</v>
+        <v>3881656</v>
       </c>
       <c r="AL60" s="13">
-        <v>3881656</v>
+        <v>1973279</v>
       </c>
       <c r="AM60" s="13">
-        <v>1973279</v>
+        <v>2895003</v>
       </c>
       <c r="AN60" s="13">
-        <v>2895003</v>
+        <v>5049052</v>
       </c>
       <c r="AO60" s="13">
-        <v>5049052</v>
+        <v>1892469</v>
       </c>
       <c r="AP60" s="13">
-        <v>1892469</v>
+        <v>8619443</v>
       </c>
       <c r="AQ60" s="13">
-        <v>8619443</v>
+        <v>23303206</v>
       </c>
       <c r="AR60" s="13">
-        <v>23303206</v>
+        <v>23151597</v>
       </c>
       <c r="AS60" s="13">
-        <v>23151597</v>
+        <v>8014607</v>
       </c>
       <c r="AT60" s="13">
-        <v>8014607</v>
+        <v>13890751</v>
       </c>
       <c r="AU60" s="13">
-        <v>13890751</v>
+        <v>9752148</v>
       </c>
       <c r="AV60" s="13">
-        <v>9752148</v>
+        <v>14600735</v>
       </c>
       <c r="AW60" s="13">
-        <v>14600735</v>
+        <v>18744343</v>
       </c>
       <c r="AX60" s="13">
-        <v>18744343</v>
+        <v>16430546</v>
       </c>
       <c r="AY60" s="13">
-        <v>16430546</v>
+        <v>18909854</v>
       </c>
       <c r="AZ60" s="13">
-        <v>18909854</v>
+        <v>19958405</v>
       </c>
       <c r="BA60" s="13">
-        <v>19958405</v>
+        <v>7233763</v>
       </c>
       <c r="BB60" s="13">
-        <v>7233763</v>
+        <v>15138396</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8089,38 +8089,38 @@
       <c r="AB61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC61" s="11" t="s">
-        <v>57</v>
+      <c r="AC61" s="11">
+        <v>1194711</v>
       </c>
       <c r="AD61" s="11">
-        <v>1194711</v>
+        <v>47133</v>
       </c>
       <c r="AE61" s="11">
-        <v>47133</v>
+        <v>1649</v>
       </c>
       <c r="AF61" s="11">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="AG61" s="11">
-        <v>0</v>
+        <v>1757316</v>
       </c>
       <c r="AH61" s="11">
-        <v>1757316</v>
+        <v>2764442</v>
       </c>
       <c r="AI61" s="11">
-        <v>2764442</v>
+        <v>722794</v>
       </c>
       <c r="AJ61" s="11">
-        <v>722794</v>
+        <v>158911</v>
       </c>
       <c r="AK61" s="11">
-        <v>158911</v>
+        <v>15530</v>
       </c>
       <c r="AL61" s="11">
-        <v>15530</v>
+        <v>3597</v>
       </c>
       <c r="AM61" s="11">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="11">
         <v>0</v>
@@ -8248,83 +8248,83 @@
       <c r="AB62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC62" s="13" t="s">
-        <v>57</v>
+      <c r="AC62" s="13">
+        <v>27235</v>
       </c>
       <c r="AD62" s="13">
-        <v>27235</v>
+        <v>31845</v>
       </c>
       <c r="AE62" s="13">
-        <v>31845</v>
+        <v>57821</v>
       </c>
       <c r="AF62" s="13">
-        <v>57821</v>
+        <v>46933</v>
       </c>
       <c r="AG62" s="13">
-        <v>46933</v>
+        <v>3450</v>
       </c>
       <c r="AH62" s="13">
-        <v>3450</v>
+        <v>90229</v>
       </c>
       <c r="AI62" s="13">
-        <v>90229</v>
+        <v>56728</v>
       </c>
       <c r="AJ62" s="13">
-        <v>56728</v>
+        <v>71326</v>
       </c>
       <c r="AK62" s="13">
-        <v>71326</v>
+        <v>28617</v>
       </c>
       <c r="AL62" s="13">
-        <v>28617</v>
+        <v>15805</v>
       </c>
       <c r="AM62" s="13">
-        <v>15805</v>
+        <v>123348</v>
       </c>
       <c r="AN62" s="13">
-        <v>123348</v>
+        <v>54353</v>
       </c>
       <c r="AO62" s="13">
-        <v>54353</v>
+        <v>6876</v>
       </c>
       <c r="AP62" s="13">
-        <v>6876</v>
+        <v>130850</v>
       </c>
       <c r="AQ62" s="13">
-        <v>130850</v>
+        <v>16600</v>
       </c>
       <c r="AR62" s="13">
-        <v>16600</v>
+        <v>134209</v>
       </c>
       <c r="AS62" s="13">
-        <v>134209</v>
+        <v>99892</v>
       </c>
       <c r="AT62" s="13">
-        <v>99892</v>
+        <v>100746</v>
       </c>
       <c r="AU62" s="13">
-        <v>100746</v>
+        <v>128100</v>
       </c>
       <c r="AV62" s="13">
-        <v>128100</v>
+        <v>52407</v>
       </c>
       <c r="AW62" s="13">
-        <v>52407</v>
+        <v>83966</v>
       </c>
       <c r="AX62" s="13">
-        <v>83966</v>
+        <v>124809</v>
       </c>
       <c r="AY62" s="13">
-        <v>124809</v>
+        <v>212958</v>
       </c>
       <c r="AZ62" s="13">
-        <v>212958</v>
+        <v>170993</v>
       </c>
       <c r="BA62" s="13">
-        <v>170993</v>
+        <v>16356</v>
       </c>
       <c r="BB62" s="13">
-        <v>16356</v>
+        <v>213236</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8377,38 +8377,38 @@
       <c r="R63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S63" s="11" t="s">
-        <v>57</v>
+      <c r="S63" s="11">
+        <v>356822</v>
       </c>
       <c r="T63" s="11">
-        <v>356822</v>
+        <v>970965</v>
       </c>
       <c r="U63" s="11">
-        <v>970965</v>
+        <v>374611</v>
       </c>
       <c r="V63" s="11">
-        <v>374611</v>
+        <v>808490</v>
       </c>
       <c r="W63" s="11">
-        <v>808490</v>
+        <v>745793</v>
       </c>
       <c r="X63" s="11">
-        <v>745793</v>
+        <v>2263405</v>
       </c>
       <c r="Y63" s="11">
-        <v>2263405</v>
+        <v>666499</v>
       </c>
       <c r="Z63" s="11">
-        <v>666499</v>
+        <v>1652444</v>
       </c>
       <c r="AA63" s="11">
-        <v>1652444</v>
+        <v>851671</v>
       </c>
       <c r="AB63" s="11">
-        <v>851671</v>
-      </c>
-      <c r="AC63" s="11">
         <v>1940596</v>
+      </c>
+      <c r="AC63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD63" s="11" t="s">
         <v>57</v>
@@ -8566,83 +8566,83 @@
       <c r="AB64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC64" s="13" t="s">
-        <v>57</v>
+      <c r="AC64" s="13">
+        <v>4496</v>
       </c>
       <c r="AD64" s="13">
-        <v>4496</v>
+        <v>28013</v>
       </c>
       <c r="AE64" s="13">
-        <v>28013</v>
+        <v>20412</v>
       </c>
       <c r="AF64" s="13">
-        <v>20412</v>
+        <v>21039</v>
       </c>
       <c r="AG64" s="13">
-        <v>21039</v>
+        <v>28100</v>
       </c>
       <c r="AH64" s="13">
-        <v>28100</v>
+        <v>7411</v>
       </c>
       <c r="AI64" s="13">
-        <v>7411</v>
+        <v>10064</v>
       </c>
       <c r="AJ64" s="13">
-        <v>10064</v>
+        <v>37620</v>
       </c>
       <c r="AK64" s="13">
-        <v>37620</v>
+        <v>41440</v>
       </c>
       <c r="AL64" s="13">
-        <v>41440</v>
+        <v>32862</v>
       </c>
       <c r="AM64" s="13">
-        <v>32862</v>
+        <v>7545</v>
       </c>
       <c r="AN64" s="13">
-        <v>7545</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="13">
-        <v>0</v>
+        <v>3994</v>
       </c>
       <c r="AP64" s="13">
-        <v>3994</v>
+        <v>9425</v>
       </c>
       <c r="AQ64" s="13">
-        <v>9425</v>
+        <v>115963</v>
       </c>
       <c r="AR64" s="13">
-        <v>115963</v>
+        <v>21024</v>
       </c>
       <c r="AS64" s="13">
-        <v>21024</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13">
-        <v>0</v>
+        <v>15792</v>
       </c>
       <c r="AU64" s="13">
-        <v>15792</v>
+        <v>14847</v>
       </c>
       <c r="AV64" s="13">
-        <v>14847</v>
+        <v>39167</v>
       </c>
       <c r="AW64" s="13">
-        <v>39167</v>
+        <v>16465</v>
       </c>
       <c r="AX64" s="13">
-        <v>16465</v>
+        <v>15434</v>
       </c>
       <c r="AY64" s="13">
-        <v>15434</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
-        <v>0</v>
+        <v>82743</v>
       </c>
       <c r="BA64" s="13">
-        <v>82743</v>
+        <v>10079</v>
       </c>
       <c r="BB64" s="13">
-        <v>10079</v>
+        <v>42975</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8725,83 +8725,83 @@
       <c r="AB65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC65" s="11" t="s">
-        <v>57</v>
+      <c r="AC65" s="11">
+        <v>138156</v>
       </c>
       <c r="AD65" s="11">
-        <v>138156</v>
+        <v>122670</v>
       </c>
       <c r="AE65" s="11">
-        <v>122670</v>
+        <v>152503</v>
       </c>
       <c r="AF65" s="11">
-        <v>152503</v>
+        <v>62125</v>
       </c>
       <c r="AG65" s="11">
-        <v>62125</v>
+        <v>127913</v>
       </c>
       <c r="AH65" s="11">
-        <v>127913</v>
+        <v>345314</v>
       </c>
       <c r="AI65" s="11">
-        <v>345314</v>
+        <v>66938</v>
       </c>
       <c r="AJ65" s="11">
-        <v>66938</v>
+        <v>72616</v>
       </c>
       <c r="AK65" s="11">
-        <v>72616</v>
+        <v>146923</v>
       </c>
       <c r="AL65" s="11">
-        <v>146923</v>
+        <v>13851</v>
       </c>
       <c r="AM65" s="11">
-        <v>13851</v>
+        <v>93202</v>
       </c>
       <c r="AN65" s="11">
-        <v>93202</v>
+        <v>252458</v>
       </c>
       <c r="AO65" s="11">
-        <v>252458</v>
+        <v>52591</v>
       </c>
       <c r="AP65" s="11">
-        <v>52591</v>
+        <v>16793</v>
       </c>
       <c r="AQ65" s="11">
-        <v>16793</v>
+        <v>92104</v>
       </c>
       <c r="AR65" s="11">
-        <v>92104</v>
+        <v>624658</v>
       </c>
       <c r="AS65" s="11">
-        <v>624658</v>
+        <v>1676524</v>
       </c>
       <c r="AT65" s="11">
-        <v>1676524</v>
+        <v>704655</v>
       </c>
       <c r="AU65" s="11">
-        <v>704655</v>
+        <v>1779377</v>
       </c>
       <c r="AV65" s="11">
-        <v>1779377</v>
+        <v>1578548</v>
       </c>
       <c r="AW65" s="11">
-        <v>1578548</v>
+        <v>1865390</v>
       </c>
       <c r="AX65" s="11">
-        <v>1865390</v>
+        <v>2240414</v>
       </c>
       <c r="AY65" s="11">
-        <v>2240414</v>
+        <v>1456687</v>
       </c>
       <c r="AZ65" s="11">
-        <v>1456687</v>
+        <v>1893732</v>
       </c>
       <c r="BA65" s="11">
-        <v>1893732</v>
+        <v>143028</v>
       </c>
       <c r="BB65" s="11">
-        <v>143028</v>
+        <v>713291</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8908,14 +8908,14 @@
       <c r="AJ66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK66" s="13" t="s">
-        <v>57</v>
+      <c r="AK66" s="13">
+        <v>22623</v>
       </c>
       <c r="AL66" s="13">
-        <v>22623</v>
+        <v>3602</v>
       </c>
       <c r="AM66" s="13">
-        <v>3602</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="13">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="AP66" s="13">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AQ66" s="13">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AR66" s="13">
         <v>0</v>
       </c>
       <c r="AS66" s="13">
-        <v>0</v>
+        <v>17259</v>
       </c>
       <c r="AT66" s="13">
-        <v>17259</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
         <v>0</v>
@@ -8951,10 +8951,10 @@
         <v>0</v>
       </c>
       <c r="AY66" s="13">
-        <v>0</v>
+        <v>11663</v>
       </c>
       <c r="AZ66" s="13">
-        <v>11663</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="13">
         <v>0</v>
@@ -9064,8 +9064,8 @@
       <c r="P68" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q68" s="17" t="s">
-        <v>57</v>
+      <c r="Q68" s="17">
+        <v>0</v>
       </c>
       <c r="R68" s="17">
         <v>0</v>
@@ -9352,8 +9352,8 @@
       <c r="AN70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO70" s="11" t="s">
-        <v>57</v>
+      <c r="AO70" s="11">
+        <v>0</v>
       </c>
       <c r="AP70" s="11">
         <v>0</v>
@@ -9365,16 +9365,16 @@
         <v>0</v>
       </c>
       <c r="AS70" s="11">
-        <v>0</v>
+        <v>-3119</v>
       </c>
       <c r="AT70" s="11">
-        <v>-3119</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="AV70" s="11">
-        <v>-1060</v>
+        <v>0</v>
       </c>
       <c r="AW70" s="11">
         <v>0</v>
@@ -9388,8 +9388,8 @@
       <c r="AZ70" s="11">
         <v>0</v>
       </c>
-      <c r="BA70" s="11">
-        <v>0</v>
+      <c r="BA70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB70" s="11" t="s">
         <v>57</v>
@@ -9544,11 +9544,11 @@
       <c r="AY71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ71" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA71" s="13">
+      <c r="AZ71" s="13">
         <v>-1658</v>
+      </c>
+      <c r="BA71" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB71" s="13" t="s">
         <v>57</v>
@@ -9670,47 +9670,47 @@
       <c r="AN72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO72" s="11" t="s">
-        <v>57</v>
+      <c r="AO72" s="11">
+        <v>-8247</v>
       </c>
       <c r="AP72" s="11">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AQ72" s="11">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AR72" s="11">
-        <v>-144053</v>
+        <v>-638551</v>
       </c>
       <c r="AS72" s="11">
-        <v>-638551</v>
+        <v>-131582</v>
       </c>
       <c r="AT72" s="11">
-        <v>-131582</v>
+        <v>-18151</v>
       </c>
       <c r="AU72" s="11">
-        <v>-18151</v>
+        <v>-1648504</v>
       </c>
       <c r="AV72" s="11">
-        <v>-1648504</v>
+        <v>0</v>
       </c>
       <c r="AW72" s="11">
-        <v>0</v>
+        <v>-226383</v>
       </c>
       <c r="AX72" s="11">
-        <v>-226383</v>
+        <v>-45187</v>
       </c>
       <c r="AY72" s="11">
-        <v>-45187</v>
+        <v>-40612</v>
       </c>
       <c r="AZ72" s="11">
-        <v>-40612</v>
+        <v>-71870</v>
       </c>
       <c r="BA72" s="11">
-        <v>-71870</v>
+        <v>-1777</v>
       </c>
       <c r="BB72" s="11">
-        <v>-1777</v>
+        <v>-21808</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9856,17 +9856,17 @@
       <c r="AW73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX73" s="13" t="s">
-        <v>57</v>
+      <c r="AX73" s="13">
+        <v>-5528</v>
       </c>
       <c r="AY73" s="13">
-        <v>-5528</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="13">
         <v>0</v>
       </c>
-      <c r="BA73" s="13">
-        <v>0</v>
+      <c r="BA73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB73" s="13" t="s">
         <v>57</v>
@@ -9988,8 +9988,8 @@
       <c r="AN74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO74" s="11" t="s">
-        <v>57</v>
+      <c r="AO74" s="11">
+        <v>0</v>
       </c>
       <c r="AP74" s="11">
         <v>0</v>
@@ -9998,16 +9998,16 @@
         <v>0</v>
       </c>
       <c r="AR74" s="11">
-        <v>0</v>
+        <v>-25157</v>
       </c>
       <c r="AS74" s="11">
-        <v>-25157</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="11">
-        <v>0</v>
+        <v>-487</v>
       </c>
       <c r="AU74" s="11">
-        <v>-487</v>
+        <v>0</v>
       </c>
       <c r="AV74" s="11">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>0</v>
       </c>
       <c r="AZ74" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA74" s="11">
         <v>-136226</v>
+      </c>
+      <c r="BA74" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BB74" s="11" t="s">
         <v>57</v>
@@ -10159,23 +10159,23 @@
       <c r="AR75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS75" s="13" t="s">
-        <v>57</v>
+      <c r="AS75" s="13">
+        <v>-10428</v>
       </c>
       <c r="AT75" s="13">
-        <v>-10428</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="13">
         <v>0</v>
       </c>
       <c r="AV75" s="13">
-        <v>0</v>
+        <v>-64915</v>
       </c>
       <c r="AW75" s="13">
-        <v>-64915</v>
+        <v>-9975</v>
       </c>
       <c r="AX75" s="13">
-        <v>-9975</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="13">
         <v>0</v>
@@ -10183,8 +10183,8 @@
       <c r="AZ75" s="13">
         <v>0</v>
       </c>
-      <c r="BA75" s="13">
-        <v>0</v>
+      <c r="BA75" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB75" s="13" t="s">
         <v>57</v>
@@ -10234,8 +10234,8 @@
       <c r="P76" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Q76" s="17" t="s">
-        <v>57</v>
+      <c r="Q76" s="17">
+        <v>0</v>
       </c>
       <c r="R76" s="17">
         <v>0</v>
@@ -10307,46 +10307,46 @@
         <v>0</v>
       </c>
       <c r="AO76" s="17">
-        <v>0</v>
+        <v>-8247</v>
       </c>
       <c r="AP76" s="17">
-        <v>-8247</v>
+        <v>-8378</v>
       </c>
       <c r="AQ76" s="17">
-        <v>-8378</v>
+        <v>-144053</v>
       </c>
       <c r="AR76" s="17">
-        <v>-144053</v>
+        <v>-663708</v>
       </c>
       <c r="AS76" s="17">
-        <v>-663708</v>
+        <v>-145129</v>
       </c>
       <c r="AT76" s="17">
-        <v>-145129</v>
+        <v>-18638</v>
       </c>
       <c r="AU76" s="17">
-        <v>-18638</v>
+        <v>-1649564</v>
       </c>
       <c r="AV76" s="17">
-        <v>-1649564</v>
+        <v>-64915</v>
       </c>
       <c r="AW76" s="17">
-        <v>-64915</v>
+        <v>-236358</v>
       </c>
       <c r="AX76" s="17">
-        <v>-236358</v>
+        <v>-50715</v>
       </c>
       <c r="AY76" s="17">
-        <v>-50715</v>
+        <v>-40612</v>
       </c>
       <c r="AZ76" s="17">
-        <v>-40612</v>
+        <v>-209754</v>
       </c>
       <c r="BA76" s="17">
-        <v>-209754</v>
+        <v>-1777</v>
       </c>
       <c r="BB76" s="17">
-        <v>-1777</v>
+        <v>-21808</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.3">
@@ -10450,8 +10450,8 @@
       <c r="P78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Q78" s="11" t="s">
-        <v>57</v>
+      <c r="Q78" s="11">
+        <v>0</v>
       </c>
       <c r="R78" s="11">
         <v>0</v>
@@ -10523,46 +10523,46 @@
         <v>0</v>
       </c>
       <c r="AO78" s="11">
-        <v>0</v>
+        <v>-5224</v>
       </c>
       <c r="AP78" s="11">
-        <v>-5224</v>
+        <v>-29405</v>
       </c>
       <c r="AQ78" s="11">
-        <v>-29405</v>
+        <v>-26931</v>
       </c>
       <c r="AR78" s="11">
-        <v>-26931</v>
+        <v>0</v>
       </c>
       <c r="AS78" s="11">
-        <v>0</v>
+        <v>-220529</v>
       </c>
       <c r="AT78" s="11">
-        <v>-220529</v>
+        <v>-468268</v>
       </c>
       <c r="AU78" s="11">
-        <v>-468268</v>
+        <v>-409471</v>
       </c>
       <c r="AV78" s="11">
-        <v>-409471</v>
+        <v>-1978624</v>
       </c>
       <c r="AW78" s="11">
-        <v>-1978624</v>
+        <v>-467060</v>
       </c>
       <c r="AX78" s="11">
-        <v>-467060</v>
+        <v>-497947</v>
       </c>
       <c r="AY78" s="11">
-        <v>-497947</v>
+        <v>-1979565</v>
       </c>
       <c r="AZ78" s="11">
-        <v>-1979565</v>
+        <v>-635228</v>
       </c>
       <c r="BA78" s="11">
-        <v>-635228</v>
+        <v>-960</v>
       </c>
       <c r="BB78" s="11">
-        <v>-960</v>
+        <v>-202889</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10608,118 +10608,118 @@
         <v>0</v>
       </c>
       <c r="Q79" s="19">
-        <v>0</v>
+        <v>1642075</v>
       </c>
       <c r="R79" s="19">
-        <v>1642075</v>
+        <v>2076508</v>
       </c>
       <c r="S79" s="19">
-        <v>2076508</v>
+        <v>2287135</v>
       </c>
       <c r="T79" s="19">
-        <v>2287135</v>
+        <v>4390050</v>
       </c>
       <c r="U79" s="19">
-        <v>4390050</v>
+        <v>3208836</v>
       </c>
       <c r="V79" s="19">
-        <v>3208836</v>
+        <v>3648023</v>
       </c>
       <c r="W79" s="19">
-        <v>3648023</v>
+        <v>3684934</v>
       </c>
       <c r="X79" s="19">
-        <v>3684934</v>
+        <v>5470624</v>
       </c>
       <c r="Y79" s="19">
-        <v>5470624</v>
+        <v>5223163</v>
       </c>
       <c r="Z79" s="19">
-        <v>5223163</v>
+        <v>5239184</v>
       </c>
       <c r="AA79" s="19">
-        <v>5239184</v>
+        <v>6800003</v>
       </c>
       <c r="AB79" s="19">
-        <v>6800003</v>
+        <v>7427713</v>
       </c>
       <c r="AC79" s="19">
-        <v>7427713</v>
+        <v>4453361</v>
       </c>
       <c r="AD79" s="19">
-        <v>4453361</v>
+        <v>4570312</v>
       </c>
       <c r="AE79" s="19">
-        <v>4570312</v>
+        <v>5605501</v>
       </c>
       <c r="AF79" s="19">
-        <v>5605501</v>
+        <v>5331201</v>
       </c>
       <c r="AG79" s="19">
-        <v>5331201</v>
+        <v>5248546</v>
       </c>
       <c r="AH79" s="19">
-        <v>5248546</v>
+        <v>8893088</v>
       </c>
       <c r="AI79" s="19">
-        <v>8893088</v>
+        <v>5145839</v>
       </c>
       <c r="AJ79" s="19">
-        <v>5145839</v>
+        <v>4436855</v>
       </c>
       <c r="AK79" s="19">
-        <v>4436855</v>
+        <v>4348578</v>
       </c>
       <c r="AL79" s="19">
-        <v>4348578</v>
+        <v>2326708</v>
       </c>
       <c r="AM79" s="19">
-        <v>2326708</v>
+        <v>3212738</v>
       </c>
       <c r="AN79" s="19">
-        <v>3212738</v>
+        <v>5546362</v>
       </c>
       <c r="AO79" s="19">
-        <v>5546362</v>
+        <v>2016170</v>
       </c>
       <c r="AP79" s="19">
-        <v>2016170</v>
+        <v>9007285</v>
       </c>
       <c r="AQ79" s="19">
-        <v>9007285</v>
+        <v>23851122</v>
       </c>
       <c r="AR79" s="19">
-        <v>23851122</v>
+        <v>23711020</v>
       </c>
       <c r="AS79" s="19">
-        <v>23711020</v>
+        <v>10134482</v>
       </c>
       <c r="AT79" s="19">
-        <v>10134482</v>
+        <v>14418981</v>
       </c>
       <c r="AU79" s="19">
-        <v>14418981</v>
+        <v>9661840</v>
       </c>
       <c r="AV79" s="19">
-        <v>9661840</v>
+        <v>14261725</v>
       </c>
       <c r="AW79" s="19">
-        <v>14261725</v>
+        <v>20010347</v>
       </c>
       <c r="AX79" s="19">
-        <v>20010347</v>
+        <v>18979582</v>
       </c>
       <c r="AY79" s="19">
-        <v>18979582</v>
+        <v>19121114</v>
       </c>
       <c r="AZ79" s="19">
-        <v>19121114</v>
+        <v>22516860</v>
       </c>
       <c r="BA79" s="19">
-        <v>22516860</v>
+        <v>9245348</v>
       </c>
       <c r="BB79" s="19">
-        <v>9245348</v>
+        <v>16851692</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -11278,20 +11278,20 @@
       <c r="AP86" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ86" s="11" t="s">
-        <v>57</v>
+      <c r="AQ86" s="11">
+        <v>250704501</v>
       </c>
       <c r="AR86" s="11">
-        <v>250704501</v>
-      </c>
-      <c r="AS86" s="11">
         <v>250630682</v>
       </c>
-      <c r="AT86" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU86" s="11">
+      <c r="AS86" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT86" s="11">
         <v>185545455</v>
+      </c>
+      <c r="AU86" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV86" s="11" t="s">
         <v>57</v>
@@ -11359,107 +11359,107 @@
       <c r="P87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q87" s="13" t="s">
-        <v>57</v>
+      <c r="Q87" s="13">
+        <v>24232484</v>
       </c>
       <c r="R87" s="13">
-        <v>24232484</v>
+        <v>29751854</v>
       </c>
       <c r="S87" s="13">
-        <v>29751854</v>
+        <v>35691515</v>
       </c>
       <c r="T87" s="13">
-        <v>35691515</v>
+        <v>31671738</v>
       </c>
       <c r="U87" s="13">
-        <v>31671738</v>
+        <v>32334489</v>
       </c>
       <c r="V87" s="13">
-        <v>32334489</v>
+        <v>51628738</v>
       </c>
       <c r="W87" s="13">
-        <v>51628738</v>
+        <v>26982749</v>
       </c>
       <c r="X87" s="13">
-        <v>26982749</v>
+        <v>15348984</v>
       </c>
       <c r="Y87" s="13">
-        <v>15348984</v>
+        <v>31303379</v>
       </c>
       <c r="Z87" s="13">
-        <v>31303379</v>
+        <v>29024165</v>
       </c>
       <c r="AA87" s="13">
-        <v>29024165</v>
+        <v>32107324</v>
       </c>
       <c r="AB87" s="13">
-        <v>32107324</v>
+        <v>31915975</v>
       </c>
       <c r="AC87" s="13">
-        <v>31915975</v>
+        <v>31607259</v>
       </c>
       <c r="AD87" s="13">
-        <v>31607259</v>
+        <v>28785571</v>
       </c>
       <c r="AE87" s="13">
-        <v>28785571</v>
+        <v>40648034</v>
       </c>
       <c r="AF87" s="13">
-        <v>40648034</v>
+        <v>37226427</v>
       </c>
       <c r="AG87" s="13">
-        <v>37226427</v>
+        <v>37669424</v>
       </c>
       <c r="AH87" s="13">
-        <v>37669424</v>
+        <v>34822752</v>
       </c>
       <c r="AI87" s="13">
-        <v>34822752</v>
+        <v>35245722</v>
       </c>
       <c r="AJ87" s="13">
-        <v>35245722</v>
+        <v>35485879</v>
       </c>
       <c r="AK87" s="13">
-        <v>35485879</v>
+        <v>37735220</v>
       </c>
       <c r="AL87" s="13">
-        <v>37735220</v>
+        <v>39202985</v>
       </c>
       <c r="AM87" s="13">
-        <v>39202985</v>
+        <v>40051326</v>
       </c>
       <c r="AN87" s="13">
-        <v>40051326</v>
+        <v>40462829</v>
       </c>
       <c r="AO87" s="13">
-        <v>40462829</v>
+        <v>40389589</v>
       </c>
       <c r="AP87" s="13">
-        <v>40389589</v>
+        <v>41451528</v>
       </c>
       <c r="AQ87" s="13">
-        <v>41451528</v>
+        <v>151540977</v>
       </c>
       <c r="AR87" s="13">
-        <v>151540977</v>
+        <v>167209468</v>
       </c>
       <c r="AS87" s="13">
-        <v>167209468</v>
+        <v>152458792</v>
       </c>
       <c r="AT87" s="13">
-        <v>152458792</v>
+        <v>126122878</v>
       </c>
       <c r="AU87" s="13">
-        <v>126122878</v>
+        <v>134501449</v>
       </c>
       <c r="AV87" s="13">
-        <v>134501449</v>
+        <v>114690000</v>
       </c>
       <c r="AW87" s="13">
-        <v>114690000</v>
-      </c>
-      <c r="AX87" s="13">
         <v>120033333</v>
+      </c>
+      <c r="AX87" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY87" s="13" t="s">
         <v>57</v>
@@ -11554,36 +11554,36 @@
       <c r="AB88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC88" s="11" t="s">
-        <v>57</v>
+      <c r="AC88" s="11">
+        <v>16955667</v>
       </c>
       <c r="AD88" s="11">
-        <v>16955667</v>
+        <v>9983154</v>
       </c>
       <c r="AE88" s="11">
-        <v>9983154</v>
+        <v>17067407</v>
       </c>
       <c r="AF88" s="11">
-        <v>17067407</v>
+        <v>18908712</v>
       </c>
       <c r="AG88" s="11">
-        <v>18908712</v>
+        <v>18946694</v>
       </c>
       <c r="AH88" s="11">
-        <v>18946694</v>
+        <v>18837389</v>
       </c>
       <c r="AI88" s="11">
-        <v>18837389</v>
-      </c>
-      <c r="AJ88" s="11">
         <v>20725599</v>
       </c>
-      <c r="AK88" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL88" s="11">
+      <c r="AJ88" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK88" s="11">
         <v>15144737</v>
       </c>
+      <c r="AL88" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AM88" s="11" t="s">
         <v>57</v>
       </c>
@@ -11617,20 +11617,20 @@
       <c r="AW88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX88" s="11" t="s">
-        <v>57</v>
+      <c r="AX88" s="11">
+        <v>109706395</v>
       </c>
       <c r="AY88" s="11">
-        <v>109706395</v>
+        <v>104726632</v>
       </c>
       <c r="AZ88" s="11">
-        <v>104726632</v>
+        <v>104812568</v>
       </c>
       <c r="BA88" s="11">
-        <v>104812568</v>
+        <v>110252734</v>
       </c>
       <c r="BB88" s="11">
-        <v>110252734</v>
+        <v>112877739</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11677,119 +11677,119 @@
       <c r="P89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Q89" s="13" t="s">
-        <v>57</v>
+      <c r="Q89" s="13">
+        <v>86358889</v>
       </c>
       <c r="R89" s="13">
-        <v>86358889</v>
+        <v>86304176</v>
       </c>
       <c r="S89" s="13">
-        <v>86304176</v>
+        <v>86269828</v>
       </c>
       <c r="T89" s="13">
-        <v>86269828</v>
+        <v>90609574</v>
       </c>
       <c r="U89" s="13">
-        <v>90609574</v>
+        <v>90773985</v>
       </c>
       <c r="V89" s="13">
-        <v>90773985</v>
+        <v>94295569</v>
       </c>
       <c r="W89" s="13">
-        <v>94295569</v>
+        <v>100947812</v>
       </c>
       <c r="X89" s="13">
-        <v>100947812</v>
+        <v>103530079</v>
       </c>
       <c r="Y89" s="13">
-        <v>103530079</v>
+        <v>115273465</v>
       </c>
       <c r="Z89" s="13">
-        <v>115273465</v>
+        <v>117919489</v>
       </c>
       <c r="AA89" s="13">
-        <v>117919489</v>
+        <v>114475088</v>
       </c>
       <c r="AB89" s="13">
-        <v>114475088</v>
+        <v>122844581</v>
       </c>
       <c r="AC89" s="13">
-        <v>122844581</v>
+        <v>120195698</v>
       </c>
       <c r="AD89" s="13">
-        <v>120195698</v>
+        <v>131897091</v>
       </c>
       <c r="AE89" s="13">
-        <v>131897091</v>
+        <v>160213410</v>
       </c>
       <c r="AF89" s="13">
-        <v>160213410</v>
+        <v>158220497</v>
       </c>
       <c r="AG89" s="13">
-        <v>158220497</v>
+        <v>160104299</v>
       </c>
       <c r="AH89" s="13">
-        <v>160104299</v>
+        <v>151942932</v>
       </c>
       <c r="AI89" s="13">
-        <v>151942932</v>
+        <v>156097979</v>
       </c>
       <c r="AJ89" s="13">
-        <v>156097979</v>
+        <v>145981694</v>
       </c>
       <c r="AK89" s="13">
-        <v>145981694</v>
+        <v>156619432</v>
       </c>
       <c r="AL89" s="13">
-        <v>156619432</v>
+        <v>163920834</v>
       </c>
       <c r="AM89" s="13">
-        <v>163920834</v>
+        <v>157568334</v>
       </c>
       <c r="AN89" s="13">
-        <v>157568334</v>
+        <v>157438478</v>
       </c>
       <c r="AO89" s="13">
-        <v>157438478</v>
+        <v>162961250</v>
       </c>
       <c r="AP89" s="13">
-        <v>162961250</v>
+        <v>451138019</v>
       </c>
       <c r="AQ89" s="13">
-        <v>451138019</v>
+        <v>775403654</v>
       </c>
       <c r="AR89" s="13">
-        <v>775403654</v>
+        <v>769897809</v>
       </c>
       <c r="AS89" s="13">
-        <v>769897809</v>
+        <v>699171857</v>
       </c>
       <c r="AT89" s="13">
-        <v>699171857</v>
+        <v>695093625</v>
       </c>
       <c r="AU89" s="13">
-        <v>695093625</v>
+        <v>685612205</v>
       </c>
       <c r="AV89" s="13">
-        <v>685612205</v>
+        <v>683875176</v>
       </c>
       <c r="AW89" s="13">
-        <v>683875176</v>
+        <v>678798544</v>
       </c>
       <c r="AX89" s="13">
-        <v>678798544</v>
+        <v>674959783</v>
       </c>
       <c r="AY89" s="13">
-        <v>674959783</v>
+        <v>651547187</v>
       </c>
       <c r="AZ89" s="13">
-        <v>651547187</v>
+        <v>685997285</v>
       </c>
       <c r="BA89" s="13">
-        <v>685997285</v>
+        <v>683720510</v>
       </c>
       <c r="BB89" s="13">
-        <v>683720510</v>
+        <v>682432313</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -11872,38 +11872,38 @@
       <c r="AB90" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC90" s="11" t="s">
-        <v>57</v>
+      <c r="AC90" s="11">
+        <v>31000052</v>
       </c>
       <c r="AD90" s="11">
-        <v>31000052</v>
+        <v>31008553</v>
       </c>
       <c r="AE90" s="11">
-        <v>31008553</v>
-      </c>
-      <c r="AF90" s="11">
         <v>31113208</v>
       </c>
-      <c r="AG90" s="11" t="s">
-        <v>57</v>
+      <c r="AF90" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG90" s="11">
+        <v>35000020</v>
       </c>
       <c r="AH90" s="11">
-        <v>35000020</v>
+        <v>35000025</v>
       </c>
       <c r="AI90" s="11">
-        <v>35000025</v>
+        <v>35000436</v>
       </c>
       <c r="AJ90" s="11">
-        <v>35000436</v>
+        <v>35002423</v>
       </c>
       <c r="AK90" s="11">
-        <v>35002423</v>
+        <v>34977477</v>
       </c>
       <c r="AL90" s="11">
-        <v>34977477</v>
-      </c>
-      <c r="AM90" s="11">
         <v>42317647</v>
+      </c>
+      <c r="AM90" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN90" s="11" t="s">
         <v>57</v>
@@ -12031,83 +12031,83 @@
       <c r="AB91" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AC91" s="13" t="s">
-        <v>57</v>
+      <c r="AC91" s="13">
+        <v>75443213</v>
       </c>
       <c r="AD91" s="13">
-        <v>75443213</v>
+        <v>79812030</v>
       </c>
       <c r="AE91" s="13">
-        <v>79812030</v>
+        <v>92959807</v>
       </c>
       <c r="AF91" s="13">
-        <v>92959807</v>
+        <v>96969008</v>
       </c>
       <c r="AG91" s="13">
-        <v>96969008</v>
+        <v>27165354</v>
       </c>
       <c r="AH91" s="13">
-        <v>27165354</v>
+        <v>100143174</v>
       </c>
       <c r="AI91" s="13">
-        <v>100143174</v>
+        <v>92541599</v>
       </c>
       <c r="AJ91" s="13">
-        <v>92541599</v>
+        <v>100885431</v>
       </c>
       <c r="AK91" s="13">
-        <v>100885431</v>
+        <v>114927711</v>
       </c>
       <c r="AL91" s="13">
-        <v>114927711</v>
+        <v>68419913</v>
       </c>
       <c r="AM91" s="13">
-        <v>68419913</v>
+        <v>133061489</v>
       </c>
       <c r="AN91" s="13">
-        <v>133061489</v>
+        <v>100097606</v>
       </c>
       <c r="AO91" s="13">
-        <v>100097606</v>
+        <v>77258427</v>
       </c>
       <c r="AP91" s="13">
-        <v>77258427</v>
+        <v>184036568</v>
       </c>
       <c r="AQ91" s="13">
-        <v>184036568</v>
+        <v>85567010</v>
       </c>
       <c r="AR91" s="13">
-        <v>85567010</v>
+        <v>232597920</v>
       </c>
       <c r="AS91" s="13">
-        <v>232597920</v>
+        <v>156081250</v>
       </c>
       <c r="AT91" s="13">
-        <v>156081250</v>
+        <v>154045872</v>
       </c>
       <c r="AU91" s="13">
-        <v>154045872</v>
+        <v>160125000</v>
       </c>
       <c r="AV91" s="13">
-        <v>160125000</v>
+        <v>133351145</v>
       </c>
       <c r="AW91" s="13">
-        <v>133351145</v>
+        <v>152943534</v>
       </c>
       <c r="AX91" s="13">
-        <v>152943534</v>
+        <v>200335474</v>
       </c>
       <c r="AY91" s="13">
-        <v>200335474</v>
+        <v>206154889</v>
       </c>
       <c r="AZ91" s="13">
-        <v>206154889</v>
+        <v>223228460</v>
       </c>
       <c r="BA91" s="13">
-        <v>223228460</v>
+        <v>201925926</v>
       </c>
       <c r="BB91" s="13">
-        <v>201925926</v>
+        <v>273379487</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12160,38 +12160,38 @@
       <c r="R92" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S92" s="11" t="s">
-        <v>57</v>
+      <c r="S92" s="11">
+        <v>15000084</v>
       </c>
       <c r="T92" s="11">
-        <v>15000084</v>
+        <v>15000000</v>
       </c>
       <c r="U92" s="11">
-        <v>15000000</v>
+        <v>15000040</v>
       </c>
       <c r="V92" s="11">
-        <v>15000040</v>
+        <v>14938840</v>
       </c>
       <c r="W92" s="11">
-        <v>14938840</v>
+        <v>14925711</v>
       </c>
       <c r="X92" s="11">
-        <v>14925711</v>
+        <v>26898865</v>
       </c>
       <c r="Y92" s="11">
-        <v>26898865</v>
+        <v>20410320</v>
       </c>
       <c r="Z92" s="11">
-        <v>20410320</v>
+        <v>28878784</v>
       </c>
       <c r="AA92" s="11">
-        <v>28878784</v>
+        <v>22906081</v>
       </c>
       <c r="AB92" s="11">
-        <v>22906081</v>
-      </c>
-      <c r="AC92" s="11">
         <v>19183432</v>
+      </c>
+      <c r="AC92" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AD92" s="11" t="s">
         <v>57</v>
@@ -12352,21 +12352,21 @@
       <c r="AC93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD93" s="13" t="s">
-        <v>57</v>
+      <c r="AD93" s="13">
+        <v>1867533333</v>
       </c>
       <c r="AE93" s="13">
-        <v>1867533333</v>
+        <v>2268000000</v>
       </c>
       <c r="AF93" s="13">
-        <v>2268000000</v>
+        <v>3506500000</v>
       </c>
       <c r="AG93" s="13">
-        <v>3506500000</v>
-      </c>
-      <c r="AH93" s="13">
         <v>228455285</v>
       </c>
+      <c r="AH93" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI93" s="13" t="s">
         <v>57</v>
       </c>
@@ -12379,36 +12379,36 @@
       <c r="AL93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM93" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN93" s="13">
+      <c r="AM93" s="13">
         <v>116076923</v>
       </c>
+      <c r="AN93" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AO93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP93" s="13" t="s">
-        <v>57</v>
+      <c r="AP93" s="13">
+        <v>9425000000</v>
       </c>
       <c r="AQ93" s="13">
-        <v>9425000000</v>
-      </c>
-      <c r="AR93" s="13">
         <v>115963000000</v>
       </c>
+      <c r="AR93" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT93" s="13" t="s">
-        <v>57</v>
+      <c r="AT93" s="13">
+        <v>22368272</v>
       </c>
       <c r="AU93" s="13">
-        <v>22368272</v>
-      </c>
-      <c r="AV93" s="13">
         <v>14847000000</v>
       </c>
+      <c r="AV93" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AW93" s="13" t="s">
         <v>57</v>
       </c>
@@ -12418,14 +12418,14 @@
       <c r="AY93" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AZ93" s="13" t="s">
-        <v>57</v>
+      <c r="AZ93" s="13">
+        <v>231125698</v>
       </c>
       <c r="BA93" s="13">
-        <v>231125698</v>
-      </c>
-      <c r="BB93" s="13">
         <v>10079000000</v>
+      </c>
+      <c r="BB93" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -12508,83 +12508,83 @@
       <c r="AB94" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC94" s="11" t="s">
-        <v>57</v>
+      <c r="AC94" s="11">
+        <v>74558014</v>
       </c>
       <c r="AD94" s="11">
-        <v>74558014</v>
+        <v>70137221</v>
       </c>
       <c r="AE94" s="11">
-        <v>70137221</v>
+        <v>85388018</v>
       </c>
       <c r="AF94" s="11">
-        <v>85388018</v>
+        <v>102855960</v>
       </c>
       <c r="AG94" s="11">
-        <v>102855960</v>
+        <v>81111604</v>
       </c>
       <c r="AH94" s="11">
-        <v>81111604</v>
+        <v>84739632</v>
       </c>
       <c r="AI94" s="11">
-        <v>84739632</v>
+        <v>102039634</v>
       </c>
       <c r="AJ94" s="11">
-        <v>102039634</v>
+        <v>104784993</v>
       </c>
       <c r="AK94" s="11">
-        <v>104784993</v>
+        <v>86374486</v>
       </c>
       <c r="AL94" s="11">
-        <v>86374486</v>
+        <v>1385100000</v>
       </c>
       <c r="AM94" s="11">
-        <v>1385100000</v>
+        <v>123283069</v>
       </c>
       <c r="AN94" s="11">
-        <v>123283069</v>
+        <v>108258148</v>
       </c>
       <c r="AO94" s="11">
-        <v>108258148</v>
+        <v>102516569</v>
       </c>
       <c r="AP94" s="11">
-        <v>102516569</v>
+        <v>226932432</v>
       </c>
       <c r="AQ94" s="11">
-        <v>226932432</v>
+        <v>594219355</v>
       </c>
       <c r="AR94" s="11">
-        <v>594219355</v>
+        <v>560734291</v>
       </c>
       <c r="AS94" s="11">
-        <v>560734291</v>
+        <v>522118966</v>
       </c>
       <c r="AT94" s="11">
-        <v>522118966</v>
+        <v>526647982</v>
       </c>
       <c r="AU94" s="11">
-        <v>526647982</v>
+        <v>491133591</v>
       </c>
       <c r="AV94" s="11">
-        <v>491133591</v>
+        <v>459013667</v>
       </c>
       <c r="AW94" s="11">
-        <v>459013667</v>
+        <v>462073322</v>
       </c>
       <c r="AX94" s="11">
-        <v>462073322</v>
+        <v>464334508</v>
       </c>
       <c r="AY94" s="11">
-        <v>464334508</v>
+        <v>497332537</v>
       </c>
       <c r="AZ94" s="11">
-        <v>497332537</v>
+        <v>487196295</v>
       </c>
       <c r="BA94" s="11">
-        <v>487196295</v>
+        <v>496625000</v>
       </c>
       <c r="BB94" s="11">
-        <v>496625000</v>
+        <v>516129522</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -12691,26 +12691,26 @@
       <c r="AJ95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK95" s="13" t="s">
-        <v>57</v>
+      <c r="AK95" s="13">
+        <v>7606927</v>
       </c>
       <c r="AL95" s="13">
-        <v>7606927</v>
-      </c>
-      <c r="AM95" s="13">
         <v>7746237</v>
       </c>
+      <c r="AM95" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AN95" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AO95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP95" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ95" s="13">
+      <c r="AP95" s="13">
         <v>11333333</v>
+      </c>
+      <c r="AQ95" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AR95" s="13" t="s">
         <v>57</v>
